--- a/JupyterNotebooks/AvgHW/CubeA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -704,34 +656,34 @@
         <v>0.9998257289295881</v>
       </c>
       <c r="D3">
+        <v>0.9999346459039004</v>
+      </c>
+      <c r="E3">
         <v>1.000261405986766</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <v>1.000261405986766</v>
+      </c>
+      <c r="G3">
+        <v>1.000052282845194</v>
+      </c>
+      <c r="H3">
+        <v>1.000169970661326</v>
+      </c>
+      <c r="I3">
         <v>0.9999346459039004</v>
       </c>
-      <c r="F3">
+      <c r="J3">
+        <v>1.000056172131771</v>
+      </c>
+      <c r="K3">
+        <v>0.9999029686782853</v>
+      </c>
+      <c r="L3">
         <v>0.9998257289295881</v>
       </c>
-      <c r="G3">
-        <v>1.000056172131771</v>
-      </c>
-      <c r="H3">
-        <v>0.999902968678285</v>
-      </c>
-      <c r="I3">
+      <c r="M3">
         <v>0.9998257289295881</v>
-      </c>
-      <c r="J3">
-        <v>1.000261405986766</v>
-      </c>
-      <c r="K3">
-        <v>1.000052282845194</v>
-      </c>
-      <c r="L3">
-        <v>0.9999346459039004</v>
-      </c>
-      <c r="M3">
-        <v>1.000169970661326</v>
       </c>
       <c r="N3">
         <v>0.9998257289295881</v>
@@ -764,7 +716,7 @@
         <v>1.000017227630091</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,40 +724,40 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9996635724826171</v>
+        <v>0.9996635724826169</v>
       </c>
       <c r="D4">
+        <v>0.9998738360111311</v>
+      </c>
+      <c r="E4">
         <v>1.000504640242135</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <v>1.000504640242135</v>
+      </c>
+      <c r="G4">
+        <v>1.000100930074948</v>
+      </c>
+      <c r="H4">
+        <v>1.000328124984863</v>
+      </c>
+      <c r="I4">
         <v>0.9998738360111311</v>
       </c>
-      <c r="F4">
-        <v>0.9996635724826171</v>
-      </c>
-      <c r="G4">
+      <c r="J4">
         <v>1.00010843726305</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>0.999812681300685</v>
       </c>
-      <c r="I4">
-        <v>0.9996635724826171</v>
-      </c>
-      <c r="J4">
-        <v>1.000504640242135</v>
-      </c>
-      <c r="K4">
-        <v>1.000100930074947</v>
-      </c>
       <c r="L4">
-        <v>0.9998738360111311</v>
+        <v>0.9996635724826169</v>
       </c>
       <c r="M4">
-        <v>1.000328124984863</v>
+        <v>0.9996635724826169</v>
       </c>
       <c r="N4">
-        <v>0.9996635724826171</v>
+        <v>0.9996635724826169</v>
       </c>
       <c r="O4">
         <v>0.9998738360111311</v>
@@ -835,7 +787,7 @@
         <v>1.00003325729632</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -846,34 +798,34 @@
         <v>0.9993552788193634</v>
       </c>
       <c r="D5">
+        <v>0.9997582241052549</v>
+      </c>
+      <c r="E5">
         <v>1.000967076069972</v>
       </c>
-      <c r="E5">
+      <c r="F5">
+        <v>1.000967076069972</v>
+      </c>
+      <c r="G5">
+        <v>1.00019341660052</v>
+      </c>
+      <c r="H5">
+        <v>1.000628807914882</v>
+      </c>
+      <c r="I5">
         <v>0.9997582241052549</v>
       </c>
-      <c r="F5">
+      <c r="J5">
+        <v>1.000207808033476</v>
+      </c>
+      <c r="K5">
+        <v>0.9996410274865424</v>
+      </c>
+      <c r="L5">
         <v>0.9993552788193634</v>
       </c>
-      <c r="G5">
-        <v>1.000207808033476</v>
-      </c>
-      <c r="H5">
-        <v>0.9996410274865424</v>
-      </c>
-      <c r="I5">
+      <c r="M5">
         <v>0.9993552788193634</v>
-      </c>
-      <c r="J5">
-        <v>1.000967076069972</v>
-      </c>
-      <c r="K5">
-        <v>1.00019341660052</v>
-      </c>
-      <c r="L5">
-        <v>0.9997582241052549</v>
-      </c>
-      <c r="M5">
-        <v>1.000628807914882</v>
       </c>
       <c r="N5">
         <v>0.9993552788193634</v>
@@ -906,7 +858,7 @@
         <v>1.000063732891908</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -917,34 +869,34 @@
         <v>0.9990543952763119</v>
       </c>
       <c r="D6">
+        <v>0.9996453945019351</v>
+      </c>
+      <c r="E6">
         <v>1.001418400940989</v>
       </c>
-      <c r="E6">
+      <c r="F6">
+        <v>1.001418400940989</v>
+      </c>
+      <c r="G6">
+        <v>1.00028368893041</v>
+      </c>
+      <c r="H6">
+        <v>1.000922260037239</v>
+      </c>
+      <c r="I6">
         <v>0.9996453945019351</v>
       </c>
-      <c r="F6">
+      <c r="J6">
+        <v>1.000304782524788</v>
+      </c>
+      <c r="K6">
+        <v>0.9994734989507753</v>
+      </c>
+      <c r="L6">
         <v>0.9990543952763119</v>
       </c>
-      <c r="G6">
-        <v>1.000304782524788</v>
-      </c>
-      <c r="H6">
-        <v>0.9994734989507753</v>
-      </c>
-      <c r="I6">
+      <c r="M6">
         <v>0.9990543952763119</v>
-      </c>
-      <c r="J6">
-        <v>1.001418400940989</v>
-      </c>
-      <c r="K6">
-        <v>1.00028368893041</v>
-      </c>
-      <c r="L6">
-        <v>0.9996453945019351</v>
-      </c>
-      <c r="M6">
-        <v>1.000922260037239</v>
       </c>
       <c r="N6">
         <v>0.9990543952763119</v>
@@ -977,7 +929,7 @@
         <v>1.000093476958048</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,40 +937,40 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999865719570957</v>
+        <v>0.9999865719570955</v>
       </c>
       <c r="D7">
+        <v>0.9999949622623866</v>
+      </c>
+      <c r="E7">
         <v>1.000020141292486</v>
       </c>
-      <c r="E7">
+      <c r="F7">
+        <v>1.000020141292486</v>
+      </c>
+      <c r="G7">
+        <v>1.000004029907126</v>
+      </c>
+      <c r="H7">
+        <v>1.000013098307919</v>
+      </c>
+      <c r="I7">
         <v>0.9999949622623866</v>
       </c>
-      <c r="F7">
-        <v>0.9999865719570957</v>
-      </c>
-      <c r="G7">
+      <c r="J7">
         <v>1.000004330080148</v>
       </c>
-      <c r="H7">
-        <v>0.9999925243524549</v>
-      </c>
-      <c r="I7">
-        <v>0.9999865719570957</v>
-      </c>
-      <c r="J7">
-        <v>1.000020141292486</v>
-      </c>
       <c r="K7">
-        <v>1.000004029907126</v>
+        <v>0.9999925243524551</v>
       </c>
       <c r="L7">
-        <v>0.9999949622623866</v>
+        <v>0.9999865719570955</v>
       </c>
       <c r="M7">
-        <v>1.000013098307919</v>
+        <v>0.9999865719570955</v>
       </c>
       <c r="N7">
-        <v>0.9999865719570957</v>
+        <v>0.9999865719570955</v>
       </c>
       <c r="O7">
         <v>0.9999949622623866</v>
@@ -1048,7 +1000,7 @@
         <v>1.00000132755275</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1059,34 +1011,34 @@
         <v>0.9999632533981664</v>
       </c>
       <c r="D8">
+        <v>0.9999862177139212</v>
+      </c>
+      <c r="E8">
         <v>1.000055119076798</v>
       </c>
-      <c r="E8">
+      <c r="F8">
+        <v>1.000055119076798</v>
+      </c>
+      <c r="G8">
+        <v>1.00001102558506</v>
+      </c>
+      <c r="H8">
+        <v>1.000035841121975</v>
+      </c>
+      <c r="I8">
         <v>0.9999862177139212</v>
       </c>
-      <c r="F8">
+      <c r="J8">
+        <v>1.000011845937452</v>
+      </c>
+      <c r="K8">
+        <v>0.9999795408505172</v>
+      </c>
+      <c r="L8">
         <v>0.9999632533981664</v>
       </c>
-      <c r="G8">
-        <v>1.000011845937452</v>
-      </c>
-      <c r="H8">
-        <v>0.9999795408505172</v>
-      </c>
-      <c r="I8">
+      <c r="M8">
         <v>0.9999632533981664</v>
-      </c>
-      <c r="J8">
-        <v>1.000055119076798</v>
-      </c>
-      <c r="K8">
-        <v>1.00001102558506</v>
-      </c>
-      <c r="L8">
-        <v>0.9999862177139212</v>
-      </c>
-      <c r="M8">
-        <v>1.000035841121975</v>
       </c>
       <c r="N8">
         <v>0.9999632533981664</v>
@@ -1119,7 +1071,7 @@
         <v>1.000003632674726</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1130,34 +1082,34 @@
         <v>0.9999467382251942</v>
       </c>
       <c r="D9">
+        <v>0.9999800244790266</v>
+      </c>
+      <c r="E9">
         <v>1.0000798920388</v>
       </c>
-      <c r="E9">
+      <c r="F9">
+        <v>1.0000798920388</v>
+      </c>
+      <c r="G9">
+        <v>1.000015980374768</v>
+      </c>
+      <c r="H9">
+        <v>1.000051949176474</v>
+      </c>
+      <c r="I9">
         <v>0.9999800244790266</v>
       </c>
-      <c r="F9">
+      <c r="J9">
+        <v>1.00001716892432</v>
+      </c>
+      <c r="K9">
+        <v>0.9999703454350403</v>
+      </c>
+      <c r="L9">
         <v>0.9999467382251942</v>
       </c>
-      <c r="G9">
-        <v>1.00001716892432</v>
-      </c>
-      <c r="H9">
-        <v>0.9999703454350404</v>
-      </c>
-      <c r="I9">
+      <c r="M9">
         <v>0.9999467382251942</v>
-      </c>
-      <c r="J9">
-        <v>1.0000798920388</v>
-      </c>
-      <c r="K9">
-        <v>1.000015980374768</v>
-      </c>
-      <c r="L9">
-        <v>0.9999800244790266</v>
-      </c>
-      <c r="M9">
-        <v>1.000051949176474</v>
       </c>
       <c r="N9">
         <v>0.9999467382251942</v>
@@ -1190,7 +1142,7 @@
         <v>1.000005265391581</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1201,34 +1153,34 @@
         <v>0.9998869268020925</v>
       </c>
       <c r="D10">
+        <v>0.9999575960262587</v>
+      </c>
+      <c r="E10">
         <v>1.000169606665898</v>
       </c>
-      <c r="E10">
+      <c r="F10">
+        <v>1.000169606665898</v>
+      </c>
+      <c r="G10">
+        <v>1.000033921327849</v>
+      </c>
+      <c r="H10">
+        <v>1.000110281012563</v>
+      </c>
+      <c r="I10">
         <v>0.9999575960262587</v>
       </c>
-      <c r="F10">
+      <c r="J10">
+        <v>1.000036447280611</v>
+      </c>
+      <c r="K10">
+        <v>0.9999370440129621</v>
+      </c>
+      <c r="L10">
         <v>0.9998869268020925</v>
       </c>
-      <c r="G10">
-        <v>1.000036447280611</v>
-      </c>
-      <c r="H10">
-        <v>0.9999370440129621</v>
-      </c>
-      <c r="I10">
+      <c r="M10">
         <v>0.9998869268020925</v>
-      </c>
-      <c r="J10">
-        <v>1.000169606665898</v>
-      </c>
-      <c r="K10">
-        <v>1.000033921327849</v>
-      </c>
-      <c r="L10">
-        <v>0.9999575960262587</v>
-      </c>
-      <c r="M10">
-        <v>1.000110281012563</v>
       </c>
       <c r="N10">
         <v>0.9998869268020925</v>
@@ -1261,7 +1213,7 @@
         <v>1.000011177394312</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1272,34 +1224,34 @@
         <v>0.9998072267232986</v>
       </c>
       <c r="D11">
+        <v>0.9999277068314544</v>
+      </c>
+      <c r="E11">
         <v>1.000289160781294</v>
       </c>
-      <c r="E11">
+      <c r="F11">
+        <v>1.000289160781294</v>
+      </c>
+      <c r="G11">
+        <v>1.00005783473629</v>
+      </c>
+      <c r="H11">
+        <v>1.000188016321417</v>
+      </c>
+      <c r="I11">
         <v>0.9999277068314544</v>
       </c>
-      <c r="F11">
+      <c r="J11">
+        <v>1.000062133669759</v>
+      </c>
+      <c r="K11">
+        <v>0.9998926668060739</v>
+      </c>
+      <c r="L11">
         <v>0.9998072267232986</v>
       </c>
-      <c r="G11">
-        <v>1.000062133669759</v>
-      </c>
-      <c r="H11">
-        <v>0.9998926668060741</v>
-      </c>
-      <c r="I11">
+      <c r="M11">
         <v>0.9998072267232986</v>
-      </c>
-      <c r="J11">
-        <v>1.000289160781294</v>
-      </c>
-      <c r="K11">
-        <v>1.00005783473629</v>
-      </c>
-      <c r="L11">
-        <v>0.9999277068314544</v>
-      </c>
-      <c r="M11">
-        <v>1.000188016321417</v>
       </c>
       <c r="N11">
         <v>0.9998072267232986</v>
@@ -1332,7 +1284,7 @@
         <v>1.00001905658763</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1343,34 +1295,34 @@
         <v>1.001973980505824</v>
       </c>
       <c r="D12">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="E12">
         <v>0.9970390191027829</v>
       </c>
-      <c r="E12">
+      <c r="F12">
+        <v>0.9970390191027829</v>
+      </c>
+      <c r="G12">
+        <v>0.9994078071395275</v>
+      </c>
+      <c r="H12">
+        <v>0.9980747525289257</v>
+      </c>
+      <c r="I12">
         <v>1.000740231517839</v>
       </c>
-      <c r="F12">
+      <c r="J12">
+        <v>0.9993637624963541</v>
+      </c>
+      <c r="K12">
+        <v>1.001099091751659</v>
+      </c>
+      <c r="L12">
         <v>1.001973980505824</v>
       </c>
-      <c r="G12">
-        <v>0.9993637624963541</v>
-      </c>
-      <c r="H12">
-        <v>1.001099091751659</v>
-      </c>
-      <c r="I12">
+      <c r="M12">
         <v>1.001973980505824</v>
-      </c>
-      <c r="J12">
-        <v>0.9970390191027829</v>
-      </c>
-      <c r="K12">
-        <v>0.9994078071395275</v>
-      </c>
-      <c r="L12">
-        <v>1.000740231517839</v>
-      </c>
-      <c r="M12">
-        <v>0.9980747525289257</v>
       </c>
       <c r="N12">
         <v>1.001973980505824</v>
@@ -1403,7 +1355,7 @@
         <v>0.999804859570094</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1414,34 +1366,34 @@
         <v>1.000510962408722</v>
       </c>
       <c r="D13">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="E13">
         <v>0.9992335485138972</v>
       </c>
-      <c r="E13">
+      <c r="F13">
+        <v>0.9992335485138972</v>
+      </c>
+      <c r="G13">
+        <v>0.9998467086274522</v>
+      </c>
+      <c r="H13">
+        <v>0.999501654835354</v>
+      </c>
+      <c r="I13">
         <v>1.000191609808738</v>
       </c>
-      <c r="F13">
+      <c r="J13">
+        <v>0.9998353086512839</v>
+      </c>
+      <c r="K13">
+        <v>1.000284495281437</v>
+      </c>
+      <c r="L13">
         <v>1.000510962408722</v>
       </c>
-      <c r="G13">
-        <v>0.9998353086512839</v>
-      </c>
-      <c r="H13">
-        <v>1.000284495281437</v>
-      </c>
-      <c r="I13">
+      <c r="M13">
         <v>1.000510962408722</v>
-      </c>
-      <c r="J13">
-        <v>0.9992335485138972</v>
-      </c>
-      <c r="K13">
-        <v>0.9998467086274522</v>
-      </c>
-      <c r="L13">
-        <v>1.000191609808738</v>
-      </c>
-      <c r="M13">
-        <v>0.9995016548353541</v>
       </c>
       <c r="N13">
         <v>1.000510962408722</v>
@@ -1474,7 +1426,7 @@
         <v>0.999949487241953</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1485,34 +1437,34 @@
         <v>1.000837139764808</v>
       </c>
       <c r="D14">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="E14">
         <v>0.9987442807092567</v>
       </c>
-      <c r="E14">
+      <c r="F14">
+        <v>0.9987442807092567</v>
+      </c>
+      <c r="G14">
+        <v>0.9997488485650017</v>
+      </c>
+      <c r="H14">
+        <v>0.9991835227910197</v>
+      </c>
+      <c r="I14">
         <v>1.000313923165885</v>
       </c>
-      <c r="F14">
+      <c r="J14">
+        <v>0.9997301780566142</v>
+      </c>
+      <c r="K14">
+        <v>1.000466116765095</v>
+      </c>
+      <c r="L14">
         <v>1.000837139764808</v>
       </c>
-      <c r="G14">
-        <v>0.9997301780566142</v>
-      </c>
-      <c r="H14">
-        <v>1.000466116765095</v>
-      </c>
-      <c r="I14">
+      <c r="M14">
         <v>1.000837139764808</v>
-      </c>
-      <c r="J14">
-        <v>0.9987442807092567</v>
-      </c>
-      <c r="K14">
-        <v>0.9997488485650017</v>
-      </c>
-      <c r="L14">
-        <v>1.000313923165885</v>
-      </c>
-      <c r="M14">
-        <v>0.9991835227910197</v>
       </c>
       <c r="N14">
         <v>1.000837139764808</v>
@@ -1545,7 +1497,7 @@
         <v>0.9999172416229455</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1556,34 +1508,34 @@
         <v>1.000214833475117</v>
       </c>
       <c r="D15">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="E15">
         <v>0.9996777471256533</v>
       </c>
-      <c r="E15">
+      <c r="F15">
+        <v>0.9996777471256533</v>
+      </c>
+      <c r="G15">
+        <v>0.9999355521689823</v>
+      </c>
+      <c r="H15">
+        <v>0.999790476102181</v>
+      </c>
+      <c r="I15">
         <v>1.000080556694701</v>
       </c>
-      <c r="F15">
+      <c r="J15">
+        <v>0.9999307565356758</v>
+      </c>
+      <c r="K15">
+        <v>1.000119613309008</v>
+      </c>
+      <c r="L15">
         <v>1.000214833475117</v>
       </c>
-      <c r="G15">
-        <v>0.9999307565356758</v>
-      </c>
-      <c r="H15">
-        <v>1.000119613309008</v>
-      </c>
-      <c r="I15">
+      <c r="M15">
         <v>1.000214833475117</v>
-      </c>
-      <c r="J15">
-        <v>0.9996777471256533</v>
-      </c>
-      <c r="K15">
-        <v>0.9999355521689823</v>
-      </c>
-      <c r="L15">
-        <v>1.000080556694701</v>
-      </c>
-      <c r="M15">
-        <v>0.999790476102181</v>
       </c>
       <c r="N15">
         <v>1.000214833475117</v>
@@ -1613,10 +1565,10 @@
         <v>1.000023745461253</v>
       </c>
       <c r="W15">
-        <v>0.9999787615132524</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.9999787615132525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999992796402143</v>
+        <v>0.9966002356818411</v>
       </c>
       <c r="D16">
-        <v>1.000001079779922</v>
+        <v>0.9987250843683912</v>
       </c>
       <c r="E16">
-        <v>0.9999997275945828</v>
+        <v>1.005099648388378</v>
       </c>
       <c r="F16">
-        <v>0.9999992796402143</v>
+        <v>1.005099648388378</v>
       </c>
       <c r="G16">
-        <v>1.000000234268037</v>
+        <v>1.001019931108623</v>
       </c>
       <c r="H16">
-        <v>0.9999995996394117</v>
+        <v>1.003315831946263</v>
       </c>
       <c r="I16">
-        <v>0.9999992796402143</v>
+        <v>0.9987250843683912</v>
       </c>
       <c r="J16">
-        <v>1.000001079779922</v>
+        <v>1.001095797141855</v>
       </c>
       <c r="K16">
-        <v>1.000000217414641</v>
+        <v>0.998107056348412</v>
       </c>
       <c r="L16">
-        <v>0.9999997275945828</v>
+        <v>0.9966002356818411</v>
       </c>
       <c r="M16">
-        <v>1.000000704384074</v>
+        <v>0.9966002356818411</v>
       </c>
       <c r="N16">
-        <v>0.9999992796402143</v>
+        <v>0.9966002356818411</v>
       </c>
       <c r="O16">
-        <v>0.9999997275945828</v>
+        <v>0.9987250843683912</v>
       </c>
       <c r="P16">
-        <v>1.000000403687252</v>
+        <v>1.001912366378384</v>
       </c>
       <c r="Q16">
-        <v>0.99999998093131</v>
+        <v>0.9999104407551234</v>
       </c>
       <c r="R16">
-        <v>1.000000029004906</v>
+        <v>1.000141656146203</v>
       </c>
       <c r="S16">
-        <v>1.000000347214181</v>
+        <v>1.001640176632875</v>
       </c>
       <c r="T16">
-        <v>1.000000029004906</v>
+        <v>1.000141656146203</v>
       </c>
       <c r="U16">
-        <v>1.000000080320689</v>
+        <v>1.000380191395116</v>
       </c>
       <c r="V16">
-        <v>0.9999999201845942</v>
+        <v>0.9996242002524613</v>
       </c>
       <c r="W16">
-        <v>1.000000071289433</v>
+        <v>1.000336083669019</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999847590794555</v>
+        <v>0.9972159655736756</v>
       </c>
       <c r="D17">
-        <v>1.000022860889109</v>
+        <v>0.998955983717482</v>
       </c>
       <c r="E17">
-        <v>0.9999942823118148</v>
+        <v>1.0041760524179</v>
       </c>
       <c r="F17">
-        <v>0.9999847590794555</v>
+        <v>1.0041760524179</v>
       </c>
       <c r="G17">
-        <v>1.000004914580285</v>
+        <v>1.00083521202616</v>
       </c>
       <c r="H17">
-        <v>0.9999915146827326</v>
+        <v>1.00271530222615</v>
       </c>
       <c r="I17">
-        <v>0.9999847590794555</v>
+        <v>0.998955983717482</v>
       </c>
       <c r="J17">
-        <v>1.000022860889109</v>
+        <v>1.000897337518703</v>
       </c>
       <c r="K17">
-        <v>1.000004573901233</v>
+        <v>0.9984498867795897</v>
       </c>
       <c r="L17">
-        <v>0.9999942823118148</v>
+        <v>0.9972159655736756</v>
       </c>
       <c r="M17">
-        <v>1.000014866381563</v>
+        <v>0.9972159655736756</v>
       </c>
       <c r="N17">
-        <v>0.9999847590794555</v>
+        <v>0.9972159655736756</v>
       </c>
       <c r="O17">
-        <v>0.9999942823118148</v>
+        <v>0.998955983717482</v>
       </c>
       <c r="P17">
-        <v>1.000008571600462</v>
+        <v>1.001566018067691</v>
       </c>
       <c r="Q17">
-        <v>0.9999995984460497</v>
+        <v>0.9999266606180925</v>
       </c>
       <c r="R17">
-        <v>1.00000063409346</v>
+        <v>1.000116000569686</v>
       </c>
       <c r="S17">
-        <v>1.000007352593736</v>
+        <v>1.001343124551362</v>
       </c>
       <c r="T17">
-        <v>1.00000063409346</v>
+        <v>1.000116000569686</v>
       </c>
       <c r="U17">
-        <v>1.000001704215166</v>
+        <v>1.00031133480694</v>
       </c>
       <c r="V17">
-        <v>0.9999983151880238</v>
+        <v>0.9996922609602873</v>
       </c>
       <c r="W17">
-        <v>1.000001506767251</v>
+        <v>1.000275215497143</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999463466925682</v>
+        <v>0.9984502318124563</v>
       </c>
       <c r="D18">
-        <v>1.000080484044331</v>
+        <v>0.999418834563955</v>
       </c>
       <c r="E18">
-        <v>0.9999798765340732</v>
+        <v>1.002324648918939</v>
       </c>
       <c r="F18">
-        <v>0.9999463466925682</v>
+        <v>1.002324648918939</v>
       </c>
       <c r="G18">
-        <v>1.000017298139013</v>
+        <v>1.00046493197326</v>
       </c>
       <c r="H18">
-        <v>0.9999701248340438</v>
+        <v>1.001511503460648</v>
       </c>
       <c r="I18">
-        <v>0.9999463466925682</v>
+        <v>0.999418834563955</v>
       </c>
       <c r="J18">
-        <v>1.000080484044331</v>
+        <v>1.000499514453472</v>
       </c>
       <c r="K18">
-        <v>1.000016100185187</v>
+        <v>0.9991371093684511</v>
       </c>
       <c r="L18">
-        <v>0.9999798765340732</v>
+        <v>0.9984502318124563</v>
       </c>
       <c r="M18">
-        <v>1.000052333208798</v>
+        <v>0.9984502318124563</v>
       </c>
       <c r="N18">
-        <v>0.9999463466925682</v>
+        <v>0.9984502318124563</v>
       </c>
       <c r="O18">
-        <v>0.9999798765340732</v>
+        <v>0.999418834563955</v>
       </c>
       <c r="P18">
-        <v>1.000030180289202</v>
+        <v>1.000871741741447</v>
       </c>
       <c r="Q18">
-        <v>0.9999985873365431</v>
+        <v>0.9999591745087135</v>
       </c>
       <c r="R18">
-        <v>1.000002235756991</v>
+        <v>1.000064571765117</v>
       </c>
       <c r="S18">
-        <v>1.000025886239139</v>
+        <v>1.000747665978788</v>
       </c>
       <c r="T18">
-        <v>1.000002235756991</v>
+        <v>1.000064571765116</v>
       </c>
       <c r="U18">
-        <v>1.000006001352497</v>
+        <v>1.000173307437205</v>
       </c>
       <c r="V18">
-        <v>0.9999940704205109</v>
+        <v>0.9998286923122557</v>
       </c>
       <c r="W18">
-        <v>1.000005305021511</v>
+        <v>1.000153201139392</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9983061282659261</v>
+      </c>
+      <c r="D19">
+        <v>0.9993647941125243</v>
+      </c>
+      <c r="E19">
+        <v>1.002540799788418</v>
+      </c>
+      <c r="F19">
+        <v>1.002540799788418</v>
+      </c>
+      <c r="G19">
+        <v>1.000508161009573</v>
+      </c>
+      <c r="H19">
+        <v>1.001652052030513</v>
+      </c>
+      <c r="I19">
+        <v>0.9993647941125243</v>
+      </c>
+      <c r="J19">
+        <v>1.000545954238608</v>
+      </c>
+      <c r="K19">
+        <v>0.9990568720297117</v>
+      </c>
+      <c r="L19">
+        <v>0.9983061282659261</v>
+      </c>
+      <c r="M19">
+        <v>0.9983061282659261</v>
+      </c>
+      <c r="N19">
+        <v>0.9983061282659261</v>
+      </c>
+      <c r="O19">
+        <v>0.9993647941125243</v>
+      </c>
+      <c r="P19">
+        <v>1.000952796950471</v>
+      </c>
+      <c r="Q19">
+        <v>0.9999553741755662</v>
+      </c>
+      <c r="R19">
+        <v>1.000070574055623</v>
+      </c>
+      <c r="S19">
+        <v>1.000817182713184</v>
+      </c>
+      <c r="T19">
+        <v>1.000070574055623</v>
+      </c>
+      <c r="U19">
+        <v>1.000189419101369</v>
+      </c>
+      <c r="V19">
+        <v>0.9998127609342804</v>
+      </c>
+      <c r="W19">
+        <v>1.000167444448475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999992796402143</v>
+      </c>
+      <c r="D20">
+        <v>0.9999997275945828</v>
+      </c>
+      <c r="E20">
+        <v>1.000001079779922</v>
+      </c>
+      <c r="F20">
+        <v>1.000001079779922</v>
+      </c>
+      <c r="G20">
+        <v>1.000000217414641</v>
+      </c>
+      <c r="H20">
+        <v>1.000000704384074</v>
+      </c>
+      <c r="I20">
+        <v>0.9999997275945828</v>
+      </c>
+      <c r="J20">
+        <v>1.000000234268038</v>
+      </c>
+      <c r="K20">
+        <v>0.9999995996394117</v>
+      </c>
+      <c r="L20">
+        <v>0.9999992796402143</v>
+      </c>
+      <c r="M20">
+        <v>0.9999992796402143</v>
+      </c>
+      <c r="N20">
+        <v>0.9999992796402143</v>
+      </c>
+      <c r="O20">
+        <v>0.9999997275945828</v>
+      </c>
+      <c r="P20">
+        <v>1.000000403687252</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999999809313103</v>
+      </c>
+      <c r="R20">
+        <v>1.000000029004906</v>
+      </c>
+      <c r="S20">
+        <v>1.000000347214181</v>
+      </c>
+      <c r="T20">
+        <v>1.000000029004906</v>
+      </c>
+      <c r="U20">
+        <v>1.000000080320689</v>
+      </c>
+      <c r="V20">
+        <v>0.9999999201845942</v>
+      </c>
+      <c r="W20">
+        <v>1.000000071289433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999847590794553</v>
+      </c>
+      <c r="D21">
+        <v>0.9999942823118148</v>
+      </c>
+      <c r="E21">
+        <v>1.000022860889109</v>
+      </c>
+      <c r="F21">
+        <v>1.000022860889109</v>
+      </c>
+      <c r="G21">
+        <v>1.000004573901233</v>
+      </c>
+      <c r="H21">
+        <v>1.000014866381563</v>
+      </c>
+      <c r="I21">
+        <v>0.9999942823118148</v>
+      </c>
+      <c r="J21">
+        <v>1.000004914580285</v>
+      </c>
+      <c r="K21">
+        <v>0.9999915146827326</v>
+      </c>
+      <c r="L21">
+        <v>0.9999847590794553</v>
+      </c>
+      <c r="M21">
+        <v>0.9999847590794553</v>
+      </c>
+      <c r="N21">
+        <v>0.9999847590794553</v>
+      </c>
+      <c r="O21">
+        <v>0.9999942823118148</v>
+      </c>
+      <c r="P21">
+        <v>1.000008571600462</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999995984460497</v>
+      </c>
+      <c r="R21">
+        <v>1.00000063409346</v>
+      </c>
+      <c r="S21">
+        <v>1.000007352593736</v>
+      </c>
+      <c r="T21">
+        <v>1.00000063409346</v>
+      </c>
+      <c r="U21">
+        <v>1.000001704215166</v>
+      </c>
+      <c r="V21">
+        <v>0.9999983151880236</v>
+      </c>
+      <c r="W21">
+        <v>1.000001506767251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999463466925681</v>
+      </c>
+      <c r="D22">
+        <v>0.9999798765340732</v>
+      </c>
+      <c r="E22">
+        <v>1.000080484044331</v>
+      </c>
+      <c r="F22">
+        <v>1.000080484044331</v>
+      </c>
+      <c r="G22">
+        <v>1.000016100185187</v>
+      </c>
+      <c r="H22">
+        <v>1.000052333208798</v>
+      </c>
+      <c r="I22">
+        <v>0.9999798765340732</v>
+      </c>
+      <c r="J22">
+        <v>1.000017298139013</v>
+      </c>
+      <c r="K22">
+        <v>0.9999701248340438</v>
+      </c>
+      <c r="L22">
+        <v>0.9999463466925681</v>
+      </c>
+      <c r="M22">
+        <v>0.9999463466925681</v>
+      </c>
+      <c r="N22">
+        <v>0.9999463466925681</v>
+      </c>
+      <c r="O22">
+        <v>0.9999798765340732</v>
+      </c>
+      <c r="P22">
+        <v>1.000030180289202</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999985873365431</v>
+      </c>
+      <c r="R22">
+        <v>1.000002235756991</v>
+      </c>
+      <c r="S22">
+        <v>1.000025886239139</v>
+      </c>
+      <c r="T22">
+        <v>1.000002235756991</v>
+      </c>
+      <c r="U22">
+        <v>1.000006001352496</v>
+      </c>
+      <c r="V22">
+        <v>0.9999940704205107</v>
+      </c>
+      <c r="W22">
+        <v>1.000005305021511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.9998742984588074</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>0.9999528574625678</v>
+      </c>
+      <c r="E23">
         <v>1.000188549690773</v>
       </c>
-      <c r="E19">
+      <c r="F23">
+        <v>1.000188549690773</v>
+      </c>
+      <c r="G23">
+        <v>1.00003771406019</v>
+      </c>
+      <c r="H23">
+        <v>1.000122602017758</v>
+      </c>
+      <c r="I23">
         <v>0.9999528574625678</v>
       </c>
-      <c r="F19">
+      <c r="J23">
+        <v>1.000040518492734</v>
+      </c>
+      <c r="K23">
+        <v>0.9999300107199278</v>
+      </c>
+      <c r="L23">
         <v>0.9998742984588074</v>
       </c>
-      <c r="G19">
-        <v>1.000040518492734</v>
-      </c>
-      <c r="H19">
-        <v>0.9999300107199278</v>
-      </c>
-      <c r="I19">
+      <c r="M23">
         <v>0.9998742984588074</v>
       </c>
-      <c r="J19">
-        <v>1.000188549690773</v>
-      </c>
-      <c r="K19">
-        <v>1.00003771406019</v>
-      </c>
-      <c r="L19">
+      <c r="N23">
+        <v>0.9998742984588074</v>
+      </c>
+      <c r="O23">
         <v>0.9999528574625678</v>
       </c>
-      <c r="M19">
-        <v>1.000122602017758</v>
-      </c>
-      <c r="N19">
-        <v>0.9998742984588074</v>
-      </c>
-      <c r="O19">
-        <v>0.9999528574625678</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.00007070357667</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999966879776507</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000005235204049</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000060641882025</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.00000523520405</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.000014056026221</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.9999861045127378</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.000012426045666</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CubeA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW50.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 3, 3]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9998257289295881</v>
+        <v>0.9981415665057645</v>
       </c>
       <c r="D3">
-        <v>0.9999346459039004</v>
+        <v>0.9993030852161375</v>
       </c>
       <c r="E3">
-        <v>1.000261405986766</v>
+        <v>1.002787649308359</v>
       </c>
       <c r="F3">
-        <v>1.000261405986766</v>
+        <v>1.002787649308359</v>
       </c>
       <c r="G3">
-        <v>1.000052282845194</v>
+        <v>1.000557532046107</v>
       </c>
       <c r="H3">
-        <v>1.000169970661326</v>
+        <v>1.001812550857347</v>
       </c>
       <c r="I3">
-        <v>0.9999346459039004</v>
+        <v>0.9993030852161375</v>
       </c>
       <c r="J3">
-        <v>1.000056172131771</v>
+        <v>1.000599000814119</v>
       </c>
       <c r="K3">
-        <v>0.9999029686782853</v>
+        <v>0.9989652493587883</v>
       </c>
       <c r="L3">
-        <v>0.9998257289295881</v>
+        <v>0.9981415665057645</v>
       </c>
       <c r="M3">
-        <v>0.9998257289295881</v>
+        <v>0.9981415665057645</v>
       </c>
       <c r="N3">
-        <v>0.9998257289295881</v>
+        <v>0.9981415665057645</v>
       </c>
       <c r="O3">
-        <v>0.9999346459039004</v>
+        <v>0.9993030852161375</v>
       </c>
       <c r="P3">
-        <v>1.000098025945333</v>
+        <v>1.001045367262248</v>
       </c>
       <c r="Q3">
-        <v>0.9999954090178356</v>
+        <v>0.9999510430151282</v>
       </c>
       <c r="R3">
-        <v>1.000007260273418</v>
+        <v>1.000077433676754</v>
       </c>
       <c r="S3">
-        <v>1.000084074674146</v>
+        <v>1.000896578446205</v>
       </c>
       <c r="T3">
-        <v>1.000007260273418</v>
+        <v>1.000077433676754</v>
       </c>
       <c r="U3">
-        <v>1.000019488238006</v>
+        <v>1.000207825461095</v>
       </c>
       <c r="V3">
-        <v>0.9999807363763227</v>
+        <v>0.9997945736700288</v>
       </c>
       <c r="W3">
-        <v>1.000017227630091</v>
+        <v>1.000183714915345</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9996635724826169</v>
+        <v>0.9983140066641862</v>
       </c>
       <c r="D4">
-        <v>0.9998738360111311</v>
+        <v>0.9993677503466338</v>
       </c>
       <c r="E4">
-        <v>1.000504640242135</v>
+        <v>1.002528988758862</v>
       </c>
       <c r="F4">
-        <v>1.000504640242135</v>
+        <v>1.002528988758862</v>
       </c>
       <c r="G4">
-        <v>1.000100930074948</v>
+        <v>1.000505799694372</v>
       </c>
       <c r="H4">
-        <v>1.000328124984863</v>
+        <v>1.001644367756253</v>
       </c>
       <c r="I4">
-        <v>0.9998738360111311</v>
+        <v>0.9993677503466338</v>
       </c>
       <c r="J4">
-        <v>1.00010843726305</v>
+        <v>1.000543420972799</v>
       </c>
       <c r="K4">
-        <v>0.999812681300685</v>
+        <v>0.9990612618263224</v>
       </c>
       <c r="L4">
-        <v>0.9996635724826169</v>
+        <v>0.9983140066641862</v>
       </c>
       <c r="M4">
-        <v>0.9996635724826169</v>
+        <v>0.9983140066641862</v>
       </c>
       <c r="N4">
-        <v>0.9996635724826169</v>
+        <v>0.9983140066641862</v>
       </c>
       <c r="O4">
-        <v>0.9998738360111311</v>
+        <v>0.9993677503466338</v>
       </c>
       <c r="P4">
-        <v>1.000189238126633</v>
+        <v>1.000948369552748</v>
       </c>
       <c r="Q4">
-        <v>0.9999911366370906</v>
+        <v>0.9999555856597162</v>
       </c>
       <c r="R4">
-        <v>1.000014016245294</v>
+        <v>1.000070248589894</v>
       </c>
       <c r="S4">
-        <v>1.000162304505439</v>
+        <v>1.000813386692765</v>
       </c>
       <c r="T4">
-        <v>1.000014016245294</v>
+        <v>1.000070248589894</v>
       </c>
       <c r="U4">
-        <v>1.000037621499733</v>
+        <v>1.00018854168562</v>
       </c>
       <c r="V4">
-        <v>0.99996281169631</v>
+        <v>0.9998136346813332</v>
       </c>
       <c r="W4">
-        <v>1.00003325729632</v>
+        <v>1.000166668295758</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9993552788193634</v>
+        <v>0.9978118767924529</v>
       </c>
       <c r="D5">
-        <v>0.9997582241052549</v>
+        <v>0.9991794485714294</v>
       </c>
       <c r="E5">
-        <v>1.000967076069972</v>
+        <v>1.003282181078169</v>
       </c>
       <c r="F5">
-        <v>1.000967076069972</v>
+        <v>1.003282181078169</v>
       </c>
       <c r="G5">
-        <v>1.00019341660052</v>
+        <v>1.000656440269543</v>
       </c>
       <c r="H5">
-        <v>1.000628807914882</v>
+        <v>1.002134102425877</v>
       </c>
       <c r="I5">
-        <v>0.9997582241052549</v>
+        <v>0.9991794485714294</v>
       </c>
       <c r="J5">
-        <v>1.000207808033476</v>
+        <v>1.000705265714285</v>
       </c>
       <c r="K5">
-        <v>0.9996410274865424</v>
+        <v>0.9987816816442073</v>
       </c>
       <c r="L5">
-        <v>0.9993552788193634</v>
+        <v>0.9978118767924529</v>
       </c>
       <c r="M5">
-        <v>0.9993552788193634</v>
+        <v>0.9978118767924529</v>
       </c>
       <c r="N5">
-        <v>0.9993552788193634</v>
+        <v>0.9978118767924529</v>
       </c>
       <c r="O5">
-        <v>0.9997582241052549</v>
+        <v>0.9991794485714294</v>
       </c>
       <c r="P5">
-        <v>1.000362650087613</v>
+        <v>1.001230814824799</v>
       </c>
       <c r="Q5">
-        <v>0.9999830160693652</v>
+        <v>0.9999423571428572</v>
       </c>
       <c r="R5">
-        <v>1.000026859664864</v>
+        <v>1.000091168814017</v>
       </c>
       <c r="S5">
-        <v>1.000311036069568</v>
+        <v>1.001055631787961</v>
       </c>
       <c r="T5">
-        <v>1.000026859664864</v>
+        <v>1.000091168814017</v>
       </c>
       <c r="U5">
-        <v>1.000072096757016</v>
+        <v>1.000244693039084</v>
       </c>
       <c r="V5">
-        <v>0.9999287331694859</v>
+        <v>0.9997581297897579</v>
       </c>
       <c r="W5">
-        <v>1.000063732891908</v>
+        <v>1.000216305633424</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9990543952763119</v>
+        <v>0.9975014225568192</v>
       </c>
       <c r="D6">
-        <v>0.9996453945019351</v>
+        <v>0.9990630323863636</v>
       </c>
       <c r="E6">
-        <v>1.001418400940989</v>
+        <v>1.003747865795455</v>
       </c>
       <c r="F6">
-        <v>1.001418400940989</v>
+        <v>1.003747865795455</v>
       </c>
       <c r="G6">
-        <v>1.00028368893041</v>
+        <v>1.000749580227274</v>
       </c>
       <c r="H6">
-        <v>1.000922260037239</v>
+        <v>1.002436896193182</v>
       </c>
       <c r="I6">
-        <v>0.9996453945019351</v>
+        <v>0.9990630323863636</v>
       </c>
       <c r="J6">
-        <v>1.000304782524788</v>
+        <v>1.000805328352272</v>
       </c>
       <c r="K6">
-        <v>0.9994734989507753</v>
+        <v>0.9986088260795443</v>
       </c>
       <c r="L6">
-        <v>0.9990543952763119</v>
+        <v>0.9975014225568192</v>
       </c>
       <c r="M6">
-        <v>0.9990543952763119</v>
+        <v>0.9975014225568192</v>
       </c>
       <c r="N6">
-        <v>0.9990543952763119</v>
+        <v>0.9975014225568192</v>
       </c>
       <c r="O6">
-        <v>0.9996453945019351</v>
+        <v>0.9990630323863636</v>
       </c>
       <c r="P6">
-        <v>1.000531897721462</v>
+        <v>1.001405449090909</v>
       </c>
       <c r="Q6">
-        <v>0.9999750885133616</v>
+        <v>0.999934180369318</v>
       </c>
       <c r="R6">
-        <v>1.000039396906412</v>
+        <v>1.000104106912879</v>
       </c>
       <c r="S6">
-        <v>1.000456192655904</v>
+        <v>1.001205408844697</v>
       </c>
       <c r="T6">
-        <v>1.000039396906412</v>
+        <v>1.00010410691288</v>
       </c>
       <c r="U6">
-        <v>1.000105743311006</v>
+        <v>1.000279412272728</v>
       </c>
       <c r="V6">
-        <v>0.9998954737040673</v>
+        <v>0.999723814329546</v>
       </c>
       <c r="W6">
-        <v>1.000093476958048</v>
+        <v>1.000246997997159</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999865719570955</v>
+        <v>0.9963206397655643</v>
       </c>
       <c r="D7">
-        <v>0.9999949622623866</v>
+        <v>0.998620235244049</v>
       </c>
       <c r="E7">
-        <v>1.000020141292486</v>
+        <v>1.005519042641645</v>
       </c>
       <c r="F7">
-        <v>1.000020141292486</v>
+        <v>1.005519042641645</v>
       </c>
       <c r="G7">
-        <v>1.000004029907126</v>
+        <v>1.001103809425103</v>
       </c>
       <c r="H7">
-        <v>1.000013098307919</v>
+        <v>1.003588526388643</v>
       </c>
       <c r="I7">
-        <v>0.9999949622623866</v>
+        <v>0.998620235244049</v>
       </c>
       <c r="J7">
-        <v>1.000004330080148</v>
+        <v>1.001185916787571</v>
       </c>
       <c r="K7">
-        <v>0.9999925243524551</v>
+        <v>0.9979513808276388</v>
       </c>
       <c r="L7">
-        <v>0.9999865719570955</v>
+        <v>0.9963206397655643</v>
       </c>
       <c r="M7">
-        <v>0.9999865719570955</v>
+        <v>0.9963206397655643</v>
       </c>
       <c r="N7">
-        <v>0.9999865719570955</v>
+        <v>0.9963206397655643</v>
       </c>
       <c r="O7">
-        <v>0.9999949622623866</v>
+        <v>0.998620235244049</v>
       </c>
       <c r="P7">
-        <v>1.000007551777436</v>
+        <v>1.002069638942847</v>
       </c>
       <c r="Q7">
-        <v>0.999999646171267</v>
+        <v>0.9999030760158099</v>
       </c>
       <c r="R7">
-        <v>1.00000055850399</v>
+        <v>1.000153305883753</v>
       </c>
       <c r="S7">
-        <v>1.00000647787834</v>
+        <v>1.001775064891088</v>
       </c>
       <c r="T7">
-        <v>1.00000055850399</v>
+        <v>1.000153305883753</v>
       </c>
       <c r="U7">
-        <v>1.000001501398029</v>
+        <v>1.000411458609707</v>
       </c>
       <c r="V7">
-        <v>0.9999985155098423</v>
+        <v>0.9995932948408786</v>
       </c>
       <c r="W7">
-        <v>1.00000132755275</v>
+        <v>1.000363723290533</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999632533981664</v>
+        <v>0.9962811790291193</v>
       </c>
       <c r="D8">
-        <v>0.9999862177139212</v>
+        <v>0.9986054374681811</v>
       </c>
       <c r="E8">
-        <v>1.000055119076798</v>
+        <v>1.005578233833856</v>
       </c>
       <c r="F8">
-        <v>1.000055119076798</v>
+        <v>1.005578233833856</v>
       </c>
       <c r="G8">
-        <v>1.00001102558506</v>
+        <v>1.001115647722131</v>
       </c>
       <c r="H8">
-        <v>1.000035841121975</v>
+        <v>1.003627012899327</v>
       </c>
       <c r="I8">
-        <v>0.9999862177139212</v>
+        <v>0.9986054374681811</v>
       </c>
       <c r="J8">
-        <v>1.000011845937452</v>
+        <v>1.001198635452048</v>
       </c>
       <c r="K8">
-        <v>0.9999795408505172</v>
+        <v>0.9979294096124299</v>
       </c>
       <c r="L8">
-        <v>0.9999632533981664</v>
+        <v>0.9962811790291193</v>
       </c>
       <c r="M8">
-        <v>0.9999632533981664</v>
+        <v>0.9962811790291193</v>
       </c>
       <c r="N8">
-        <v>0.9999632533981664</v>
+        <v>0.9962811790291193</v>
       </c>
       <c r="O8">
-        <v>0.9999862177139212</v>
+        <v>0.9986054374681811</v>
       </c>
       <c r="P8">
-        <v>1.000020668395359</v>
+        <v>1.002091835651019</v>
       </c>
       <c r="Q8">
-        <v>0.9999990318256864</v>
+        <v>0.9999020364601146</v>
       </c>
       <c r="R8">
-        <v>1.000001530062962</v>
+        <v>1.000154950110385</v>
       </c>
       <c r="S8">
-        <v>1.000017727576057</v>
+        <v>1.001794102251362</v>
       </c>
       <c r="T8">
-        <v>1.000001530062962</v>
+        <v>1.000154950110385</v>
       </c>
       <c r="U8">
-        <v>1.000004109031584</v>
+        <v>1.000415871445801</v>
       </c>
       <c r="V8">
-        <v>0.9999959379049006</v>
+        <v>0.9995889329624648</v>
       </c>
       <c r="W8">
-        <v>1.000003632674726</v>
+        <v>1.000367624185659</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999467382251942</v>
+        <v>0.9962518101653015</v>
       </c>
       <c r="D9">
-        <v>0.9999800244790266</v>
+        <v>0.9985944241426219</v>
       </c>
       <c r="E9">
-        <v>1.0000798920388</v>
+        <v>1.005622287187791</v>
       </c>
       <c r="F9">
-        <v>1.0000798920388</v>
+        <v>1.005622287187791</v>
       </c>
       <c r="G9">
-        <v>1.000015980374768</v>
+        <v>1.00112445845307</v>
       </c>
       <c r="H9">
-        <v>1.000051949176474</v>
+        <v>1.003655656700373</v>
       </c>
       <c r="I9">
-        <v>0.9999800244790266</v>
+        <v>0.9985944241426219</v>
       </c>
       <c r="J9">
-        <v>1.00001716892432</v>
+        <v>1.001208101381515</v>
       </c>
       <c r="K9">
-        <v>0.9999703454350403</v>
+        <v>0.9979130574119357</v>
       </c>
       <c r="L9">
-        <v>0.9999467382251942</v>
+        <v>0.9962518101653015</v>
       </c>
       <c r="M9">
-        <v>0.9999467382251942</v>
+        <v>0.9962518101653015</v>
       </c>
       <c r="N9">
-        <v>0.9999467382251942</v>
+        <v>0.9962518101653015</v>
       </c>
       <c r="O9">
-        <v>0.9999800244790266</v>
+        <v>0.9985944241426219</v>
       </c>
       <c r="P9">
-        <v>1.000029958258913</v>
+        <v>1.002108355665206</v>
       </c>
       <c r="Q9">
-        <v>0.9999985967016731</v>
+        <v>0.9999012627620686</v>
       </c>
       <c r="R9">
-        <v>1.000002218247674</v>
+        <v>1.000156173831905</v>
       </c>
       <c r="S9">
-        <v>1.000025695147382</v>
+        <v>1.001808270903976</v>
       </c>
       <c r="T9">
-        <v>1.000002218247674</v>
+        <v>1.000156173831905</v>
       </c>
       <c r="U9">
-        <v>1.000005955916835</v>
+        <v>1.000419155719307</v>
       </c>
       <c r="V9">
-        <v>0.9999941123785069</v>
+        <v>0.999585686608506</v>
       </c>
       <c r="W9">
-        <v>1.000005265391581</v>
+        <v>1.000370527448154</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9998869268020925</v>
+        <v>0.9961429503881863</v>
       </c>
       <c r="D10">
-        <v>0.9999575960262587</v>
+        <v>0.9985536017283618</v>
       </c>
       <c r="E10">
-        <v>1.000169606665898</v>
+        <v>1.005785577070712</v>
       </c>
       <c r="F10">
-        <v>1.000169606665898</v>
+        <v>1.005785577070712</v>
       </c>
       <c r="G10">
-        <v>1.000033921327849</v>
+        <v>1.001157116694623</v>
       </c>
       <c r="H10">
-        <v>1.000110281012563</v>
+        <v>1.003761828950753</v>
       </c>
       <c r="I10">
-        <v>0.9999575960262587</v>
+        <v>0.9985536017283618</v>
       </c>
       <c r="J10">
-        <v>1.000036447280611</v>
+        <v>1.001243188173986</v>
       </c>
       <c r="K10">
-        <v>0.9999370440129621</v>
+        <v>0.9978524456914826</v>
       </c>
       <c r="L10">
-        <v>0.9998869268020925</v>
+        <v>0.9961429503881863</v>
       </c>
       <c r="M10">
-        <v>0.9998869268020925</v>
+        <v>0.9961429503881863</v>
       </c>
       <c r="N10">
-        <v>0.9998869268020925</v>
+        <v>0.9961429503881863</v>
       </c>
       <c r="O10">
-        <v>0.9999575960262587</v>
+        <v>0.9985536017283618</v>
       </c>
       <c r="P10">
-        <v>1.000063601346078</v>
+        <v>1.002169589399537</v>
       </c>
       <c r="Q10">
-        <v>0.9999970216534348</v>
+        <v>0.9998983949511742</v>
       </c>
       <c r="R10">
-        <v>1.000004709831416</v>
+        <v>1.000160709729087</v>
       </c>
       <c r="S10">
-        <v>1.000054549990923</v>
+        <v>1.00186078899102</v>
       </c>
       <c r="T10">
-        <v>1.000004709831416</v>
+        <v>1.000160709729087</v>
       </c>
       <c r="U10">
-        <v>1.000012644193715</v>
+        <v>1.000431329340312</v>
       </c>
       <c r="V10">
-        <v>0.9999875007153907</v>
+        <v>0.9995736535498867</v>
       </c>
       <c r="W10">
-        <v>1.000011177394312</v>
+        <v>1.000381288803308</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9998072267232986</v>
+        <v>0.9997994748220844</v>
       </c>
       <c r="D11">
-        <v>0.9999277068314544</v>
+        <v>0.999924800976598</v>
       </c>
       <c r="E11">
-        <v>1.000289160781294</v>
+        <v>1.000300786687183</v>
       </c>
       <c r="F11">
-        <v>1.000289160781294</v>
+        <v>1.000300786687183</v>
       </c>
       <c r="G11">
-        <v>1.00005783473629</v>
+        <v>1.000060158270629</v>
       </c>
       <c r="H11">
-        <v>1.000188016321417</v>
+        <v>1.000195575659715</v>
       </c>
       <c r="I11">
-        <v>0.9999277068314544</v>
+        <v>0.999924800976598</v>
       </c>
       <c r="J11">
-        <v>1.000062133669759</v>
+        <v>1.000064634954088</v>
       </c>
       <c r="K11">
-        <v>0.9998926668060739</v>
+        <v>0.9998883510844252</v>
       </c>
       <c r="L11">
-        <v>0.9998072267232986</v>
+        <v>0.9997994748220844</v>
       </c>
       <c r="M11">
-        <v>0.9998072267232986</v>
+        <v>0.9997994748220844</v>
       </c>
       <c r="N11">
-        <v>0.9998072267232986</v>
+        <v>0.9997994748220844</v>
       </c>
       <c r="O11">
-        <v>0.9999277068314544</v>
+        <v>0.999924800976598</v>
       </c>
       <c r="P11">
-        <v>1.000108433806374</v>
+        <v>1.000112793831891</v>
       </c>
       <c r="Q11">
-        <v>0.9999949202506067</v>
+        <v>0.9999947179653429</v>
       </c>
       <c r="R11">
-        <v>1.000008031445349</v>
+        <v>1.000008354161955</v>
       </c>
       <c r="S11">
-        <v>1.000093000427502</v>
+        <v>1.000096740872623</v>
       </c>
       <c r="T11">
-        <v>1.000008031445349</v>
+        <v>1.000008354161955</v>
       </c>
       <c r="U11">
-        <v>1.000021557001451</v>
+        <v>1.000022424359988</v>
       </c>
       <c r="V11">
-        <v>0.9999786909458208</v>
+        <v>0.9999778344524074</v>
       </c>
       <c r="W11">
-        <v>1.00001905658763</v>
+        <v>1.000019822928915</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.001973980505824</v>
+        <v>0.9998939212746106</v>
       </c>
       <c r="D12">
-        <v>1.000740231517839</v>
+        <v>0.9999602181917471</v>
       </c>
       <c r="E12">
-        <v>0.9970390191027829</v>
+        <v>1.000159117398487</v>
       </c>
       <c r="F12">
-        <v>0.9970390191027829</v>
+        <v>1.000159117398487</v>
       </c>
       <c r="G12">
-        <v>0.9994078071395275</v>
+        <v>1.000031825003129</v>
       </c>
       <c r="H12">
-        <v>0.9980747525289257</v>
+        <v>1.000103461639464</v>
       </c>
       <c r="I12">
-        <v>1.000740231517839</v>
+        <v>0.9999602181917471</v>
       </c>
       <c r="J12">
-        <v>0.9993637624963541</v>
+        <v>1.000034192758854</v>
       </c>
       <c r="K12">
-        <v>1.001099091751659</v>
+        <v>0.9999409376435975</v>
       </c>
       <c r="L12">
-        <v>1.001973980505824</v>
+        <v>0.9998939212746106</v>
       </c>
       <c r="M12">
-        <v>1.001973980505824</v>
+        <v>0.9998939212746106</v>
       </c>
       <c r="N12">
-        <v>1.001973980505824</v>
+        <v>0.9998939212746106</v>
       </c>
       <c r="O12">
-        <v>1.000740231517839</v>
+        <v>0.9999602181917471</v>
       </c>
       <c r="P12">
-        <v>0.9988896253103111</v>
+        <v>1.000059667795117</v>
       </c>
       <c r="Q12">
-        <v>1.000051997007097</v>
+        <v>0.9999972054753005</v>
       </c>
       <c r="R12">
-        <v>0.9999177437088154</v>
+        <v>1.000004418954948</v>
       </c>
       <c r="S12">
-        <v>0.9990476710389921</v>
+        <v>1.000051176116363</v>
       </c>
       <c r="T12">
-        <v>0.9999177437088154</v>
+        <v>1.000004418954948</v>
       </c>
       <c r="U12">
-        <v>0.9997792484057</v>
+        <v>1.000011862405925</v>
       </c>
       <c r="V12">
-        <v>1.000218194825725</v>
+        <v>0.9999882741796619</v>
       </c>
       <c r="W12">
-        <v>0.999804859570094</v>
+        <v>1.000010486512704</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000510962408722</v>
+        <v>0.9996288426336329</v>
       </c>
       <c r="D13">
-        <v>1.000191609808738</v>
+        <v>0.999860813492866</v>
       </c>
       <c r="E13">
-        <v>0.9992335485138972</v>
+        <v>1.000556724951088</v>
       </c>
       <c r="F13">
-        <v>0.9992335485138972</v>
+        <v>1.000556724951088</v>
       </c>
       <c r="G13">
-        <v>0.9998467086274522</v>
+        <v>1.000111346460959</v>
       </c>
       <c r="H13">
-        <v>0.999501654835354</v>
+        <v>1.000361992339019</v>
       </c>
       <c r="I13">
-        <v>1.000191609808738</v>
+        <v>0.999860813492866</v>
       </c>
       <c r="J13">
-        <v>0.9998353086512839</v>
+        <v>1.000119632993074</v>
       </c>
       <c r="K13">
-        <v>1.000284495281437</v>
+        <v>0.9997933482810059</v>
       </c>
       <c r="L13">
-        <v>1.000510962408722</v>
+        <v>0.9996288426336329</v>
       </c>
       <c r="M13">
-        <v>1.000510962408722</v>
+        <v>0.9996288426336329</v>
       </c>
       <c r="N13">
-        <v>1.000510962408722</v>
+        <v>0.9996288426336329</v>
       </c>
       <c r="O13">
-        <v>1.000191609808738</v>
+        <v>0.999860813492866</v>
       </c>
       <c r="P13">
-        <v>0.9997125791613178</v>
+        <v>1.000208769221977</v>
       </c>
       <c r="Q13">
-        <v>1.000013459230011</v>
+        <v>0.99999022324297</v>
       </c>
       <c r="R13">
-        <v>0.9999787069104524</v>
+        <v>1.000015460359196</v>
       </c>
       <c r="S13">
-        <v>0.9997534889913066</v>
+        <v>1.000179057145676</v>
       </c>
       <c r="T13">
-        <v>0.9999787069104524</v>
+        <v>1.000015460359196</v>
       </c>
       <c r="U13">
-        <v>0.9999428573456604</v>
+        <v>1.000041503517665</v>
       </c>
       <c r="V13">
-        <v>1.000056478358273</v>
+        <v>0.9999589713408585</v>
       </c>
       <c r="W13">
-        <v>0.999949487241953</v>
+        <v>1.000036689330564</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000837139764808</v>
+        <v>0.9995130460261795</v>
       </c>
       <c r="D14">
-        <v>1.000313923165885</v>
+        <v>0.9998173888927723</v>
       </c>
       <c r="E14">
-        <v>0.9987442807092567</v>
+        <v>1.000730433016005</v>
       </c>
       <c r="F14">
-        <v>0.9987442807092567</v>
+        <v>1.000730433016005</v>
       </c>
       <c r="G14">
-        <v>0.9997488485650017</v>
+        <v>1.000146094406495</v>
       </c>
       <c r="H14">
-        <v>0.9991835227910197</v>
+        <v>1.00047494081606</v>
       </c>
       <c r="I14">
-        <v>1.000313923165885</v>
+        <v>0.9998173888927723</v>
       </c>
       <c r="J14">
-        <v>0.9997301780566142</v>
+        <v>1.000156960868547</v>
       </c>
       <c r="K14">
-        <v>1.000466116765095</v>
+        <v>0.9997288660742027</v>
       </c>
       <c r="L14">
-        <v>1.000837139764808</v>
+        <v>0.9995130460261795</v>
       </c>
       <c r="M14">
-        <v>1.000837139764808</v>
+        <v>0.9995130460261795</v>
       </c>
       <c r="N14">
-        <v>1.000837139764808</v>
+        <v>0.9995130460261795</v>
       </c>
       <c r="O14">
-        <v>1.000313923165885</v>
+        <v>0.9998173888927723</v>
       </c>
       <c r="P14">
-        <v>0.9995291019375707</v>
+        <v>1.000273910954389</v>
       </c>
       <c r="Q14">
-        <v>1.000022050611249</v>
+        <v>0.9999871748806595</v>
       </c>
       <c r="R14">
-        <v>0.9999651145466498</v>
+        <v>1.000020289311652</v>
       </c>
       <c r="S14">
-        <v>0.9995961273105852</v>
+        <v>1.000234927592441</v>
       </c>
       <c r="T14">
-        <v>0.9999651145466496</v>
+        <v>1.000020289311652</v>
       </c>
       <c r="U14">
-        <v>0.9999063804241408</v>
+        <v>1.000054457200876</v>
       </c>
       <c r="V14">
-        <v>1.000092532292274</v>
+        <v>0.9999461749659366</v>
       </c>
       <c r="W14">
-        <v>0.9999172416229455</v>
+        <v>1.000048139874129</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000214833475117</v>
+        <v>0.9998257289295881</v>
       </c>
       <c r="D15">
-        <v>1.000080556694701</v>
+        <v>0.9999346459039004</v>
       </c>
       <c r="E15">
-        <v>0.9996777471256533</v>
+        <v>1.000261405986766</v>
       </c>
       <c r="F15">
-        <v>0.9996777471256533</v>
+        <v>1.000261405986766</v>
       </c>
       <c r="G15">
-        <v>0.9999355521689823</v>
+        <v>1.000052282845194</v>
       </c>
       <c r="H15">
-        <v>0.999790476102181</v>
+        <v>1.000169970661326</v>
       </c>
       <c r="I15">
-        <v>1.000080556694701</v>
+        <v>0.9999346459039004</v>
       </c>
       <c r="J15">
-        <v>0.9999307565356758</v>
+        <v>1.000056172131771</v>
       </c>
       <c r="K15">
-        <v>1.000119613309008</v>
+        <v>0.9999029686782853</v>
       </c>
       <c r="L15">
-        <v>1.000214833475117</v>
+        <v>0.9998257289295881</v>
       </c>
       <c r="M15">
-        <v>1.000214833475117</v>
+        <v>0.9998257289295881</v>
       </c>
       <c r="N15">
-        <v>1.000214833475117</v>
+        <v>0.9998257289295881</v>
       </c>
       <c r="O15">
-        <v>1.000080556694701</v>
+        <v>0.9999346459039004</v>
       </c>
       <c r="P15">
-        <v>0.9998791519101771</v>
+        <v>1.000098025945333</v>
       </c>
       <c r="Q15">
-        <v>1.000005656615188</v>
+        <v>0.9999954090178356</v>
       </c>
       <c r="R15">
-        <v>0.999991045765157</v>
+        <v>1.000007260273418</v>
       </c>
       <c r="S15">
-        <v>0.99989635345201</v>
+        <v>1.000084074674146</v>
       </c>
       <c r="T15">
-        <v>0.999991045765157</v>
+        <v>1.000007260273418</v>
       </c>
       <c r="U15">
-        <v>0.9999759734577867</v>
+        <v>1.000019488238006</v>
       </c>
       <c r="V15">
-        <v>1.000023745461253</v>
+        <v>0.9999807363763227</v>
       </c>
       <c r="W15">
-        <v>0.9999787615132525</v>
+        <v>1.000017227630091</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9966002356818411</v>
+        <v>0.9996635724826169</v>
       </c>
       <c r="D16">
-        <v>0.9987250843683912</v>
+        <v>0.9998738360111311</v>
       </c>
       <c r="E16">
-        <v>1.005099648388378</v>
+        <v>1.000504640242135</v>
       </c>
       <c r="F16">
-        <v>1.005099648388378</v>
+        <v>1.000504640242135</v>
       </c>
       <c r="G16">
-        <v>1.001019931108623</v>
+        <v>1.000100930074948</v>
       </c>
       <c r="H16">
-        <v>1.003315831946263</v>
+        <v>1.000328124984863</v>
       </c>
       <c r="I16">
-        <v>0.9987250843683912</v>
+        <v>0.9998738360111311</v>
       </c>
       <c r="J16">
-        <v>1.001095797141855</v>
+        <v>1.00010843726305</v>
       </c>
       <c r="K16">
-        <v>0.998107056348412</v>
+        <v>0.999812681300685</v>
       </c>
       <c r="L16">
-        <v>0.9966002356818411</v>
+        <v>0.9996635724826169</v>
       </c>
       <c r="M16">
-        <v>0.9966002356818411</v>
+        <v>0.9996635724826169</v>
       </c>
       <c r="N16">
-        <v>0.9966002356818411</v>
+        <v>0.9996635724826169</v>
       </c>
       <c r="O16">
-        <v>0.9987250843683912</v>
+        <v>0.9998738360111311</v>
       </c>
       <c r="P16">
-        <v>1.001912366378384</v>
+        <v>1.000189238126633</v>
       </c>
       <c r="Q16">
-        <v>0.9999104407551234</v>
+        <v>0.9999911366370906</v>
       </c>
       <c r="R16">
-        <v>1.000141656146203</v>
+        <v>1.000014016245294</v>
       </c>
       <c r="S16">
-        <v>1.001640176632875</v>
+        <v>1.000162304505439</v>
       </c>
       <c r="T16">
-        <v>1.000141656146203</v>
+        <v>1.000014016245294</v>
       </c>
       <c r="U16">
-        <v>1.000380191395116</v>
+        <v>1.000037621499733</v>
       </c>
       <c r="V16">
-        <v>0.9996242002524613</v>
+        <v>0.99996281169631</v>
       </c>
       <c r="W16">
-        <v>1.000336083669019</v>
+        <v>1.00003325729632</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9972159655736756</v>
+        <v>0.9993552788193634</v>
       </c>
       <c r="D17">
-        <v>0.998955983717482</v>
+        <v>0.9997582241052549</v>
       </c>
       <c r="E17">
-        <v>1.0041760524179</v>
+        <v>1.000967076069972</v>
       </c>
       <c r="F17">
-        <v>1.0041760524179</v>
+        <v>1.000967076069972</v>
       </c>
       <c r="G17">
-        <v>1.00083521202616</v>
+        <v>1.00019341660052</v>
       </c>
       <c r="H17">
-        <v>1.00271530222615</v>
+        <v>1.000628807914882</v>
       </c>
       <c r="I17">
-        <v>0.998955983717482</v>
+        <v>0.9997582241052549</v>
       </c>
       <c r="J17">
-        <v>1.000897337518703</v>
+        <v>1.000207808033476</v>
       </c>
       <c r="K17">
-        <v>0.9984498867795897</v>
+        <v>0.9996410274865424</v>
       </c>
       <c r="L17">
-        <v>0.9972159655736756</v>
+        <v>0.9993552788193634</v>
       </c>
       <c r="M17">
-        <v>0.9972159655736756</v>
+        <v>0.9993552788193634</v>
       </c>
       <c r="N17">
-        <v>0.9972159655736756</v>
+        <v>0.9993552788193634</v>
       </c>
       <c r="O17">
-        <v>0.998955983717482</v>
+        <v>0.9997582241052549</v>
       </c>
       <c r="P17">
-        <v>1.001566018067691</v>
+        <v>1.000362650087613</v>
       </c>
       <c r="Q17">
-        <v>0.9999266606180925</v>
+        <v>0.9999830160693652</v>
       </c>
       <c r="R17">
-        <v>1.000116000569686</v>
+        <v>1.000026859664864</v>
       </c>
       <c r="S17">
-        <v>1.001343124551362</v>
+        <v>1.000311036069568</v>
       </c>
       <c r="T17">
-        <v>1.000116000569686</v>
+        <v>1.000026859664864</v>
       </c>
       <c r="U17">
-        <v>1.00031133480694</v>
+        <v>1.000072096757016</v>
       </c>
       <c r="V17">
-        <v>0.9996922609602873</v>
+        <v>0.9999287331694859</v>
       </c>
       <c r="W17">
-        <v>1.000275215497143</v>
+        <v>1.000063732891908</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9984502318124563</v>
+        <v>0.9990543952763119</v>
       </c>
       <c r="D18">
-        <v>0.999418834563955</v>
+        <v>0.9996453945019351</v>
       </c>
       <c r="E18">
-        <v>1.002324648918939</v>
+        <v>1.001418400940989</v>
       </c>
       <c r="F18">
-        <v>1.002324648918939</v>
+        <v>1.001418400940989</v>
       </c>
       <c r="G18">
-        <v>1.00046493197326</v>
+        <v>1.00028368893041</v>
       </c>
       <c r="H18">
-        <v>1.001511503460648</v>
+        <v>1.000922260037239</v>
       </c>
       <c r="I18">
-        <v>0.999418834563955</v>
+        <v>0.9996453945019351</v>
       </c>
       <c r="J18">
-        <v>1.000499514453472</v>
+        <v>1.000304782524788</v>
       </c>
       <c r="K18">
-        <v>0.9991371093684511</v>
+        <v>0.9994734989507753</v>
       </c>
       <c r="L18">
-        <v>0.9984502318124563</v>
+        <v>0.9990543952763119</v>
       </c>
       <c r="M18">
-        <v>0.9984502318124563</v>
+        <v>0.9990543952763119</v>
       </c>
       <c r="N18">
-        <v>0.9984502318124563</v>
+        <v>0.9990543952763119</v>
       </c>
       <c r="O18">
-        <v>0.999418834563955</v>
+        <v>0.9996453945019351</v>
       </c>
       <c r="P18">
-        <v>1.000871741741447</v>
+        <v>1.000531897721462</v>
       </c>
       <c r="Q18">
-        <v>0.9999591745087135</v>
+        <v>0.9999750885133616</v>
       </c>
       <c r="R18">
-        <v>1.000064571765117</v>
+        <v>1.000039396906412</v>
       </c>
       <c r="S18">
-        <v>1.000747665978788</v>
+        <v>1.000456192655904</v>
       </c>
       <c r="T18">
-        <v>1.000064571765116</v>
+        <v>1.000039396906412</v>
       </c>
       <c r="U18">
-        <v>1.000173307437205</v>
+        <v>1.000105743311006</v>
       </c>
       <c r="V18">
-        <v>0.9998286923122557</v>
+        <v>0.9998954737040673</v>
       </c>
       <c r="W18">
-        <v>1.000153201139392</v>
+        <v>1.000093476958048</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9983061282659261</v>
+        <v>0.9999865719570955</v>
       </c>
       <c r="D19">
-        <v>0.9993647941125243</v>
+        <v>0.9999949622623866</v>
       </c>
       <c r="E19">
-        <v>1.002540799788418</v>
+        <v>1.000020141292486</v>
       </c>
       <c r="F19">
-        <v>1.002540799788418</v>
+        <v>1.000020141292486</v>
       </c>
       <c r="G19">
-        <v>1.000508161009573</v>
+        <v>1.000004029907126</v>
       </c>
       <c r="H19">
-        <v>1.001652052030513</v>
+        <v>1.000013098307919</v>
       </c>
       <c r="I19">
-        <v>0.9993647941125243</v>
+        <v>0.9999949622623866</v>
       </c>
       <c r="J19">
-        <v>1.000545954238608</v>
+        <v>1.000004330080148</v>
       </c>
       <c r="K19">
-        <v>0.9990568720297117</v>
+        <v>0.9999925243524551</v>
       </c>
       <c r="L19">
-        <v>0.9983061282659261</v>
+        <v>0.9999865719570955</v>
       </c>
       <c r="M19">
-        <v>0.9983061282659261</v>
+        <v>0.9999865719570955</v>
       </c>
       <c r="N19">
-        <v>0.9983061282659261</v>
+        <v>0.9999865719570955</v>
       </c>
       <c r="O19">
-        <v>0.9993647941125243</v>
+        <v>0.9999949622623866</v>
       </c>
       <c r="P19">
-        <v>1.000952796950471</v>
+        <v>1.000007551777436</v>
       </c>
       <c r="Q19">
-        <v>0.9999553741755662</v>
+        <v>0.999999646171267</v>
       </c>
       <c r="R19">
-        <v>1.000070574055623</v>
+        <v>1.00000055850399</v>
       </c>
       <c r="S19">
-        <v>1.000817182713184</v>
+        <v>1.00000647787834</v>
       </c>
       <c r="T19">
-        <v>1.000070574055623</v>
+        <v>1.00000055850399</v>
       </c>
       <c r="U19">
-        <v>1.000189419101369</v>
+        <v>1.000001501398029</v>
       </c>
       <c r="V19">
-        <v>0.9998127609342804</v>
+        <v>0.9999985155098423</v>
       </c>
       <c r="W19">
-        <v>1.000167444448475</v>
+        <v>1.00000132755275</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999992796402143</v>
+        <v>0.9999632533981664</v>
       </c>
       <c r="D20">
-        <v>0.9999997275945828</v>
+        <v>0.9999862177139212</v>
       </c>
       <c r="E20">
-        <v>1.000001079779922</v>
+        <v>1.000055119076798</v>
       </c>
       <c r="F20">
-        <v>1.000001079779922</v>
+        <v>1.000055119076798</v>
       </c>
       <c r="G20">
-        <v>1.000000217414641</v>
+        <v>1.00001102558506</v>
       </c>
       <c r="H20">
-        <v>1.000000704384074</v>
+        <v>1.000035841121975</v>
       </c>
       <c r="I20">
-        <v>0.9999997275945828</v>
+        <v>0.9999862177139212</v>
       </c>
       <c r="J20">
-        <v>1.000000234268038</v>
+        <v>1.000011845937452</v>
       </c>
       <c r="K20">
-        <v>0.9999995996394117</v>
+        <v>0.9999795408505172</v>
       </c>
       <c r="L20">
-        <v>0.9999992796402143</v>
+        <v>0.9999632533981664</v>
       </c>
       <c r="M20">
-        <v>0.9999992796402143</v>
+        <v>0.9999632533981664</v>
       </c>
       <c r="N20">
-        <v>0.9999992796402143</v>
+        <v>0.9999632533981664</v>
       </c>
       <c r="O20">
-        <v>0.9999997275945828</v>
+        <v>0.9999862177139212</v>
       </c>
       <c r="P20">
-        <v>1.000000403687252</v>
+        <v>1.000020668395359</v>
       </c>
       <c r="Q20">
-        <v>0.9999999809313103</v>
+        <v>0.9999990318256864</v>
       </c>
       <c r="R20">
-        <v>1.000000029004906</v>
+        <v>1.000001530062962</v>
       </c>
       <c r="S20">
-        <v>1.000000347214181</v>
+        <v>1.000017727576057</v>
       </c>
       <c r="T20">
-        <v>1.000000029004906</v>
+        <v>1.000001530062962</v>
       </c>
       <c r="U20">
-        <v>1.000000080320689</v>
+        <v>1.000004109031584</v>
       </c>
       <c r="V20">
-        <v>0.9999999201845942</v>
+        <v>0.9999959379049006</v>
       </c>
       <c r="W20">
-        <v>1.000000071289433</v>
+        <v>1.000003632674726</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999847590794553</v>
+        <v>0.9999467382251942</v>
       </c>
       <c r="D21">
-        <v>0.9999942823118148</v>
+        <v>0.9999800244790266</v>
       </c>
       <c r="E21">
-        <v>1.000022860889109</v>
+        <v>1.0000798920388</v>
       </c>
       <c r="F21">
-        <v>1.000022860889109</v>
+        <v>1.0000798920388</v>
       </c>
       <c r="G21">
-        <v>1.000004573901233</v>
+        <v>1.000015980374768</v>
       </c>
       <c r="H21">
-        <v>1.000014866381563</v>
+        <v>1.000051949176474</v>
       </c>
       <c r="I21">
-        <v>0.9999942823118148</v>
+        <v>0.9999800244790266</v>
       </c>
       <c r="J21">
-        <v>1.000004914580285</v>
+        <v>1.00001716892432</v>
       </c>
       <c r="K21">
-        <v>0.9999915146827326</v>
+        <v>0.9999703454350403</v>
       </c>
       <c r="L21">
-        <v>0.9999847590794553</v>
+        <v>0.9999467382251942</v>
       </c>
       <c r="M21">
-        <v>0.9999847590794553</v>
+        <v>0.9999467382251942</v>
       </c>
       <c r="N21">
-        <v>0.9999847590794553</v>
+        <v>0.9999467382251942</v>
       </c>
       <c r="O21">
-        <v>0.9999942823118148</v>
+        <v>0.9999800244790266</v>
       </c>
       <c r="P21">
-        <v>1.000008571600462</v>
+        <v>1.000029958258913</v>
       </c>
       <c r="Q21">
-        <v>0.9999995984460497</v>
+        <v>0.9999985967016731</v>
       </c>
       <c r="R21">
-        <v>1.00000063409346</v>
+        <v>1.000002218247674</v>
       </c>
       <c r="S21">
-        <v>1.000007352593736</v>
+        <v>1.000025695147382</v>
       </c>
       <c r="T21">
-        <v>1.00000063409346</v>
+        <v>1.000002218247674</v>
       </c>
       <c r="U21">
-        <v>1.000001704215166</v>
+        <v>1.000005955916835</v>
       </c>
       <c r="V21">
-        <v>0.9999983151880236</v>
+        <v>0.9999941123785069</v>
       </c>
       <c r="W21">
-        <v>1.000001506767251</v>
+        <v>1.000005265391581</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999463466925681</v>
+        <v>0.9998869268020925</v>
       </c>
       <c r="D22">
-        <v>0.9999798765340732</v>
+        <v>0.9999575960262587</v>
       </c>
       <c r="E22">
-        <v>1.000080484044331</v>
+        <v>1.000169606665898</v>
       </c>
       <c r="F22">
-        <v>1.000080484044331</v>
+        <v>1.000169606665898</v>
       </c>
       <c r="G22">
-        <v>1.000016100185187</v>
+        <v>1.000033921327849</v>
       </c>
       <c r="H22">
-        <v>1.000052333208798</v>
+        <v>1.000110281012563</v>
       </c>
       <c r="I22">
-        <v>0.9999798765340732</v>
+        <v>0.9999575960262587</v>
       </c>
       <c r="J22">
-        <v>1.000017298139013</v>
+        <v>1.000036447280611</v>
       </c>
       <c r="K22">
-        <v>0.9999701248340438</v>
+        <v>0.9999370440129621</v>
       </c>
       <c r="L22">
-        <v>0.9999463466925681</v>
+        <v>0.9998869268020925</v>
       </c>
       <c r="M22">
-        <v>0.9999463466925681</v>
+        <v>0.9998869268020925</v>
       </c>
       <c r="N22">
-        <v>0.9999463466925681</v>
+        <v>0.9998869268020925</v>
       </c>
       <c r="O22">
-        <v>0.9999798765340732</v>
+        <v>0.9999575960262587</v>
       </c>
       <c r="P22">
-        <v>1.000030180289202</v>
+        <v>1.000063601346078</v>
       </c>
       <c r="Q22">
-        <v>0.9999985873365431</v>
+        <v>0.9999970216534348</v>
       </c>
       <c r="R22">
-        <v>1.000002235756991</v>
+        <v>1.000004709831416</v>
       </c>
       <c r="S22">
-        <v>1.000025886239139</v>
+        <v>1.000054549990923</v>
       </c>
       <c r="T22">
-        <v>1.000002235756991</v>
+        <v>1.000004709831416</v>
       </c>
       <c r="U22">
-        <v>1.000006001352496</v>
+        <v>1.000012644193715</v>
       </c>
       <c r="V22">
-        <v>0.9999940704205107</v>
+        <v>0.9999875007153907</v>
       </c>
       <c r="W22">
-        <v>1.000005305021511</v>
+        <v>1.000011177394312</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9998072267232986</v>
+      </c>
+      <c r="D23">
+        <v>0.9999277068314544</v>
+      </c>
+      <c r="E23">
+        <v>1.000289160781294</v>
+      </c>
+      <c r="F23">
+        <v>1.000289160781294</v>
+      </c>
+      <c r="G23">
+        <v>1.00005783473629</v>
+      </c>
+      <c r="H23">
+        <v>1.000188016321417</v>
+      </c>
+      <c r="I23">
+        <v>0.9999277068314544</v>
+      </c>
+      <c r="J23">
+        <v>1.000062133669759</v>
+      </c>
+      <c r="K23">
+        <v>0.9998926668060739</v>
+      </c>
+      <c r="L23">
+        <v>0.9998072267232986</v>
+      </c>
+      <c r="M23">
+        <v>0.9998072267232986</v>
+      </c>
+      <c r="N23">
+        <v>0.9998072267232986</v>
+      </c>
+      <c r="O23">
+        <v>0.9999277068314544</v>
+      </c>
+      <c r="P23">
+        <v>1.000108433806374</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999949202506067</v>
+      </c>
+      <c r="R23">
+        <v>1.000008031445349</v>
+      </c>
+      <c r="S23">
+        <v>1.000093000427502</v>
+      </c>
+      <c r="T23">
+        <v>1.000008031445349</v>
+      </c>
+      <c r="U23">
+        <v>1.000021557001451</v>
+      </c>
+      <c r="V23">
+        <v>0.9999786909458208</v>
+      </c>
+      <c r="W23">
+        <v>1.00001905658763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.001973980505824</v>
+      </c>
+      <c r="D24">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="E24">
+        <v>0.9970390191027829</v>
+      </c>
+      <c r="F24">
+        <v>0.9970390191027829</v>
+      </c>
+      <c r="G24">
+        <v>0.9994078071395275</v>
+      </c>
+      <c r="H24">
+        <v>0.9980747525289257</v>
+      </c>
+      <c r="I24">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="J24">
+        <v>0.9993637624963541</v>
+      </c>
+      <c r="K24">
+        <v>1.001099091751659</v>
+      </c>
+      <c r="L24">
+        <v>1.001973980505824</v>
+      </c>
+      <c r="M24">
+        <v>1.001973980505824</v>
+      </c>
+      <c r="N24">
+        <v>1.001973980505824</v>
+      </c>
+      <c r="O24">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="P24">
+        <v>0.9988896253103111</v>
+      </c>
+      <c r="Q24">
+        <v>1.000051997007097</v>
+      </c>
+      <c r="R24">
+        <v>0.9999177437088154</v>
+      </c>
+      <c r="S24">
+        <v>0.9990476710389921</v>
+      </c>
+      <c r="T24">
+        <v>0.9999177437088154</v>
+      </c>
+      <c r="U24">
+        <v>0.9997792484057</v>
+      </c>
+      <c r="V24">
+        <v>1.000218194825725</v>
+      </c>
+      <c r="W24">
+        <v>0.999804859570094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000510962408722</v>
+      </c>
+      <c r="D25">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="E25">
+        <v>0.9992335485138972</v>
+      </c>
+      <c r="F25">
+        <v>0.9992335485138972</v>
+      </c>
+      <c r="G25">
+        <v>0.9998467086274522</v>
+      </c>
+      <c r="H25">
+        <v>0.999501654835354</v>
+      </c>
+      <c r="I25">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="J25">
+        <v>0.9998353086512839</v>
+      </c>
+      <c r="K25">
+        <v>1.000284495281437</v>
+      </c>
+      <c r="L25">
+        <v>1.000510962408722</v>
+      </c>
+      <c r="M25">
+        <v>1.000510962408722</v>
+      </c>
+      <c r="N25">
+        <v>1.000510962408722</v>
+      </c>
+      <c r="O25">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="P25">
+        <v>0.9997125791613178</v>
+      </c>
+      <c r="Q25">
+        <v>1.000013459230011</v>
+      </c>
+      <c r="R25">
+        <v>0.9999787069104524</v>
+      </c>
+      <c r="S25">
+        <v>0.9997534889913066</v>
+      </c>
+      <c r="T25">
+        <v>0.9999787069104524</v>
+      </c>
+      <c r="U25">
+        <v>0.9999428573456604</v>
+      </c>
+      <c r="V25">
+        <v>1.000056478358273</v>
+      </c>
+      <c r="W25">
+        <v>0.999949487241953</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000837139764808</v>
+      </c>
+      <c r="D26">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="E26">
+        <v>0.9987442807092567</v>
+      </c>
+      <c r="F26">
+        <v>0.9987442807092567</v>
+      </c>
+      <c r="G26">
+        <v>0.9997488485650017</v>
+      </c>
+      <c r="H26">
+        <v>0.9991835227910197</v>
+      </c>
+      <c r="I26">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="J26">
+        <v>0.9997301780566142</v>
+      </c>
+      <c r="K26">
+        <v>1.000466116765095</v>
+      </c>
+      <c r="L26">
+        <v>1.000837139764808</v>
+      </c>
+      <c r="M26">
+        <v>1.000837139764808</v>
+      </c>
+      <c r="N26">
+        <v>1.000837139764808</v>
+      </c>
+      <c r="O26">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="P26">
+        <v>0.9995291019375707</v>
+      </c>
+      <c r="Q26">
+        <v>1.000022050611249</v>
+      </c>
+      <c r="R26">
+        <v>0.9999651145466498</v>
+      </c>
+      <c r="S26">
+        <v>0.9995961273105852</v>
+      </c>
+      <c r="T26">
+        <v>0.9999651145466496</v>
+      </c>
+      <c r="U26">
+        <v>0.9999063804241408</v>
+      </c>
+      <c r="V26">
+        <v>1.000092532292274</v>
+      </c>
+      <c r="W26">
+        <v>0.9999172416229455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000214833475117</v>
+      </c>
+      <c r="D27">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="E27">
+        <v>0.9996777471256533</v>
+      </c>
+      <c r="F27">
+        <v>0.9996777471256533</v>
+      </c>
+      <c r="G27">
+        <v>0.9999355521689823</v>
+      </c>
+      <c r="H27">
+        <v>0.999790476102181</v>
+      </c>
+      <c r="I27">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="J27">
+        <v>0.9999307565356758</v>
+      </c>
+      <c r="K27">
+        <v>1.000119613309008</v>
+      </c>
+      <c r="L27">
+        <v>1.000214833475117</v>
+      </c>
+      <c r="M27">
+        <v>1.000214833475117</v>
+      </c>
+      <c r="N27">
+        <v>1.000214833475117</v>
+      </c>
+      <c r="O27">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="P27">
+        <v>0.9998791519101771</v>
+      </c>
+      <c r="Q27">
+        <v>1.000005656615188</v>
+      </c>
+      <c r="R27">
+        <v>0.999991045765157</v>
+      </c>
+      <c r="S27">
+        <v>0.99989635345201</v>
+      </c>
+      <c r="T27">
+        <v>0.999991045765157</v>
+      </c>
+      <c r="U27">
+        <v>0.9999759734577867</v>
+      </c>
+      <c r="V27">
+        <v>1.000023745461253</v>
+      </c>
+      <c r="W27">
+        <v>0.9999787615132525</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9966002356818411</v>
+      </c>
+      <c r="D28">
+        <v>0.9987250843683912</v>
+      </c>
+      <c r="E28">
+        <v>1.005099648388378</v>
+      </c>
+      <c r="F28">
+        <v>1.005099648388378</v>
+      </c>
+      <c r="G28">
+        <v>1.001019931108623</v>
+      </c>
+      <c r="H28">
+        <v>1.003315831946263</v>
+      </c>
+      <c r="I28">
+        <v>0.9987250843683912</v>
+      </c>
+      <c r="J28">
+        <v>1.001095797141855</v>
+      </c>
+      <c r="K28">
+        <v>0.998107056348412</v>
+      </c>
+      <c r="L28">
+        <v>0.9966002356818411</v>
+      </c>
+      <c r="M28">
+        <v>0.9966002356818411</v>
+      </c>
+      <c r="N28">
+        <v>0.9966002356818411</v>
+      </c>
+      <c r="O28">
+        <v>0.9987250843683912</v>
+      </c>
+      <c r="P28">
+        <v>1.001912366378384</v>
+      </c>
+      <c r="Q28">
+        <v>0.9999104407551234</v>
+      </c>
+      <c r="R28">
+        <v>1.000141656146203</v>
+      </c>
+      <c r="S28">
+        <v>1.001640176632875</v>
+      </c>
+      <c r="T28">
+        <v>1.000141656146203</v>
+      </c>
+      <c r="U28">
+        <v>1.000380191395116</v>
+      </c>
+      <c r="V28">
+        <v>0.9996242002524613</v>
+      </c>
+      <c r="W28">
+        <v>1.000336083669019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9972159655736756</v>
+      </c>
+      <c r="D29">
+        <v>0.998955983717482</v>
+      </c>
+      <c r="E29">
+        <v>1.0041760524179</v>
+      </c>
+      <c r="F29">
+        <v>1.0041760524179</v>
+      </c>
+      <c r="G29">
+        <v>1.00083521202616</v>
+      </c>
+      <c r="H29">
+        <v>1.00271530222615</v>
+      </c>
+      <c r="I29">
+        <v>0.998955983717482</v>
+      </c>
+      <c r="J29">
+        <v>1.000897337518703</v>
+      </c>
+      <c r="K29">
+        <v>0.9984498867795897</v>
+      </c>
+      <c r="L29">
+        <v>0.9972159655736756</v>
+      </c>
+      <c r="M29">
+        <v>0.9972159655736756</v>
+      </c>
+      <c r="N29">
+        <v>0.9972159655736756</v>
+      </c>
+      <c r="O29">
+        <v>0.998955983717482</v>
+      </c>
+      <c r="P29">
+        <v>1.001566018067691</v>
+      </c>
+      <c r="Q29">
+        <v>0.9999266606180925</v>
+      </c>
+      <c r="R29">
+        <v>1.000116000569686</v>
+      </c>
+      <c r="S29">
+        <v>1.001343124551362</v>
+      </c>
+      <c r="T29">
+        <v>1.000116000569686</v>
+      </c>
+      <c r="U29">
+        <v>1.00031133480694</v>
+      </c>
+      <c r="V29">
+        <v>0.9996922609602873</v>
+      </c>
+      <c r="W29">
+        <v>1.000275215497143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9984502318124563</v>
+      </c>
+      <c r="D30">
+        <v>0.999418834563955</v>
+      </c>
+      <c r="E30">
+        <v>1.002324648918939</v>
+      </c>
+      <c r="F30">
+        <v>1.002324648918939</v>
+      </c>
+      <c r="G30">
+        <v>1.00046493197326</v>
+      </c>
+      <c r="H30">
+        <v>1.001511503460648</v>
+      </c>
+      <c r="I30">
+        <v>0.999418834563955</v>
+      </c>
+      <c r="J30">
+        <v>1.000499514453472</v>
+      </c>
+      <c r="K30">
+        <v>0.9991371093684511</v>
+      </c>
+      <c r="L30">
+        <v>0.9984502318124563</v>
+      </c>
+      <c r="M30">
+        <v>0.9984502318124563</v>
+      </c>
+      <c r="N30">
+        <v>0.9984502318124563</v>
+      </c>
+      <c r="O30">
+        <v>0.999418834563955</v>
+      </c>
+      <c r="P30">
+        <v>1.000871741741447</v>
+      </c>
+      <c r="Q30">
+        <v>0.9999591745087135</v>
+      </c>
+      <c r="R30">
+        <v>1.000064571765117</v>
+      </c>
+      <c r="S30">
+        <v>1.000747665978788</v>
+      </c>
+      <c r="T30">
+        <v>1.000064571765116</v>
+      </c>
+      <c r="U30">
+        <v>1.000173307437205</v>
+      </c>
+      <c r="V30">
+        <v>0.9998286923122557</v>
+      </c>
+      <c r="W30">
+        <v>1.000153201139392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9983061282659261</v>
+      </c>
+      <c r="D31">
+        <v>0.9993647941125243</v>
+      </c>
+      <c r="E31">
+        <v>1.002540799788418</v>
+      </c>
+      <c r="F31">
+        <v>1.002540799788418</v>
+      </c>
+      <c r="G31">
+        <v>1.000508161009573</v>
+      </c>
+      <c r="H31">
+        <v>1.001652052030513</v>
+      </c>
+      <c r="I31">
+        <v>0.9993647941125243</v>
+      </c>
+      <c r="J31">
+        <v>1.000545954238608</v>
+      </c>
+      <c r="K31">
+        <v>0.9990568720297117</v>
+      </c>
+      <c r="L31">
+        <v>0.9983061282659261</v>
+      </c>
+      <c r="M31">
+        <v>0.9983061282659261</v>
+      </c>
+      <c r="N31">
+        <v>0.9983061282659261</v>
+      </c>
+      <c r="O31">
+        <v>0.9993647941125243</v>
+      </c>
+      <c r="P31">
+        <v>1.000952796950471</v>
+      </c>
+      <c r="Q31">
+        <v>0.9999553741755662</v>
+      </c>
+      <c r="R31">
+        <v>1.000070574055623</v>
+      </c>
+      <c r="S31">
+        <v>1.000817182713184</v>
+      </c>
+      <c r="T31">
+        <v>1.000070574055623</v>
+      </c>
+      <c r="U31">
+        <v>1.000189419101369</v>
+      </c>
+      <c r="V31">
+        <v>0.9998127609342804</v>
+      </c>
+      <c r="W31">
+        <v>1.000167444448475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9958860741095892</v>
+      </c>
+      <c r="D32">
+        <v>0.9984572731506849</v>
+      </c>
+      <c r="E32">
+        <v>1.006170892054795</v>
+      </c>
+      <c r="F32">
+        <v>1.006170892054795</v>
+      </c>
+      <c r="G32">
+        <v>1.00123418</v>
+      </c>
+      <c r="H32">
+        <v>1.004012363287671</v>
+      </c>
+      <c r="I32">
+        <v>0.9984572731506849</v>
+      </c>
+      <c r="J32">
+        <v>1.001325982465753</v>
+      </c>
+      <c r="K32">
+        <v>0.9977094204109593</v>
+      </c>
+      <c r="L32">
+        <v>0.9958860741095892</v>
+      </c>
+      <c r="M32">
+        <v>0.9958860741095892</v>
+      </c>
+      <c r="N32">
+        <v>0.9958860741095892</v>
+      </c>
+      <c r="O32">
+        <v>0.9984572731506849</v>
+      </c>
+      <c r="P32">
+        <v>1.00231408260274</v>
+      </c>
+      <c r="Q32">
+        <v>0.9998916278082191</v>
+      </c>
+      <c r="R32">
+        <v>1.000171413105023</v>
+      </c>
+      <c r="S32">
+        <v>1.001984715890411</v>
+      </c>
+      <c r="T32">
+        <v>1.000171413105023</v>
+      </c>
+      <c r="U32">
+        <v>1.000460055445205</v>
+      </c>
+      <c r="V32">
+        <v>0.9995452591780822</v>
+      </c>
+      <c r="W32">
+        <v>1.000406682328767</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9956250873684209</v>
+      </c>
+      <c r="D33">
+        <v>0.9983594031578947</v>
+      </c>
+      <c r="E33">
+        <v>1.006562372631579</v>
+      </c>
+      <c r="F33">
+        <v>1.006562372631579</v>
+      </c>
+      <c r="G33">
+        <v>1.001312476842105</v>
+      </c>
+      <c r="H33">
+        <v>1.004266906842105</v>
+      </c>
+      <c r="I33">
+        <v>0.9983594031578947</v>
+      </c>
+      <c r="J33">
+        <v>1.001410101578947</v>
+      </c>
+      <c r="K33">
+        <v>0.9975641063157894</v>
+      </c>
+      <c r="L33">
+        <v>0.9956250873684209</v>
+      </c>
+      <c r="M33">
+        <v>0.9956250873684209</v>
+      </c>
+      <c r="N33">
+        <v>0.9956250873684209</v>
+      </c>
+      <c r="O33">
+        <v>0.9983594031578947</v>
+      </c>
+      <c r="P33">
+        <v>1.002460887894737</v>
+      </c>
+      <c r="Q33">
+        <v>0.9998847523684211</v>
+      </c>
+      <c r="R33">
+        <v>1.000182287719298</v>
+      </c>
+      <c r="S33">
+        <v>1.002110625789474</v>
+      </c>
+      <c r="T33">
+        <v>1.000182287719298</v>
+      </c>
+      <c r="U33">
+        <v>1.000489241184211</v>
+      </c>
+      <c r="V33">
+        <v>0.9995164104210528</v>
+      </c>
+      <c r="W33">
+        <v>1.000432482236842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9956250873684209</v>
+      </c>
+      <c r="D34">
+        <v>0.9983594031578947</v>
+      </c>
+      <c r="E34">
+        <v>1.006562372631579</v>
+      </c>
+      <c r="F34">
+        <v>1.006562372631579</v>
+      </c>
+      <c r="G34">
+        <v>1.001312476842105</v>
+      </c>
+      <c r="H34">
+        <v>1.004266906842105</v>
+      </c>
+      <c r="I34">
+        <v>0.9983594031578947</v>
+      </c>
+      <c r="J34">
+        <v>1.001410101578947</v>
+      </c>
+      <c r="K34">
+        <v>0.9975641063157894</v>
+      </c>
+      <c r="L34">
+        <v>0.9956250873684209</v>
+      </c>
+      <c r="M34">
+        <v>0.9956250873684209</v>
+      </c>
+      <c r="N34">
+        <v>0.9956250873684209</v>
+      </c>
+      <c r="O34">
+        <v>0.9983594031578947</v>
+      </c>
+      <c r="P34">
+        <v>1.002460887894737</v>
+      </c>
+      <c r="Q34">
+        <v>0.9998847523684211</v>
+      </c>
+      <c r="R34">
+        <v>1.000182287719298</v>
+      </c>
+      <c r="S34">
+        <v>1.002110625789474</v>
+      </c>
+      <c r="T34">
+        <v>1.000182287719298</v>
+      </c>
+      <c r="U34">
+        <v>1.000489241184211</v>
+      </c>
+      <c r="V34">
+        <v>0.9995164104210528</v>
+      </c>
+      <c r="W34">
+        <v>1.000432482236842</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9938829813037207</v>
+      </c>
+      <c r="D35">
+        <v>0.9977061151255572</v>
+      </c>
+      <c r="E35">
+        <v>1.009175534782979</v>
+      </c>
+      <c r="F35">
+        <v>1.009175534782979</v>
+      </c>
+      <c r="G35">
+        <v>1.001835117875194</v>
+      </c>
+      <c r="H35">
+        <v>1.005966002429118</v>
+      </c>
+      <c r="I35">
+        <v>0.9977061151255572</v>
+      </c>
+      <c r="J35">
+        <v>1.00197159776447</v>
+      </c>
+      <c r="K35">
+        <v>0.9965941235752499</v>
+      </c>
+      <c r="L35">
+        <v>0.9938829813037207</v>
+      </c>
+      <c r="M35">
+        <v>0.9938829813037207</v>
+      </c>
+      <c r="N35">
+        <v>0.9938829813037207</v>
+      </c>
+      <c r="O35">
+        <v>0.9977061151255572</v>
+      </c>
+      <c r="P35">
+        <v>1.003440824954268</v>
+      </c>
+      <c r="Q35">
+        <v>0.9998388564450138</v>
+      </c>
+      <c r="R35">
+        <v>1.000254877070752</v>
+      </c>
+      <c r="S35">
+        <v>1.002951082557669</v>
+      </c>
+      <c r="T35">
+        <v>1.000254877070752</v>
+      </c>
+      <c r="U35">
+        <v>1.000684057244182</v>
+      </c>
+      <c r="V35">
+        <v>0.9993238420560896</v>
+      </c>
+      <c r="W35">
+        <v>1.000604698497731</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999992796402143</v>
+      </c>
+      <c r="D36">
+        <v>0.9999997275945828</v>
+      </c>
+      <c r="E36">
+        <v>1.000001079779922</v>
+      </c>
+      <c r="F36">
+        <v>1.000001079779922</v>
+      </c>
+      <c r="G36">
+        <v>1.000000217414641</v>
+      </c>
+      <c r="H36">
+        <v>1.000000704384074</v>
+      </c>
+      <c r="I36">
+        <v>0.9999997275945828</v>
+      </c>
+      <c r="J36">
+        <v>1.000000234268038</v>
+      </c>
+      <c r="K36">
+        <v>0.9999995996394117</v>
+      </c>
+      <c r="L36">
+        <v>0.9999992796402143</v>
+      </c>
+      <c r="M36">
+        <v>0.9999992796402143</v>
+      </c>
+      <c r="N36">
+        <v>0.9999992796402143</v>
+      </c>
+      <c r="O36">
+        <v>0.9999997275945828</v>
+      </c>
+      <c r="P36">
+        <v>1.000000403687252</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999999809313103</v>
+      </c>
+      <c r="R36">
+        <v>1.000000029004906</v>
+      </c>
+      <c r="S36">
+        <v>1.000000347214181</v>
+      </c>
+      <c r="T36">
+        <v>1.000000029004906</v>
+      </c>
+      <c r="U36">
+        <v>1.000000080320689</v>
+      </c>
+      <c r="V36">
+        <v>0.9999999201845942</v>
+      </c>
+      <c r="W36">
+        <v>1.000000071289433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999847590794553</v>
+      </c>
+      <c r="D37">
+        <v>0.9999942823118148</v>
+      </c>
+      <c r="E37">
+        <v>1.000022860889109</v>
+      </c>
+      <c r="F37">
+        <v>1.000022860889109</v>
+      </c>
+      <c r="G37">
+        <v>1.000004573901233</v>
+      </c>
+      <c r="H37">
+        <v>1.000014866381563</v>
+      </c>
+      <c r="I37">
+        <v>0.9999942823118148</v>
+      </c>
+      <c r="J37">
+        <v>1.000004914580285</v>
+      </c>
+      <c r="K37">
+        <v>0.9999915146827326</v>
+      </c>
+      <c r="L37">
+        <v>0.9999847590794553</v>
+      </c>
+      <c r="M37">
+        <v>0.9999847590794553</v>
+      </c>
+      <c r="N37">
+        <v>0.9999847590794553</v>
+      </c>
+      <c r="O37">
+        <v>0.9999942823118148</v>
+      </c>
+      <c r="P37">
+        <v>1.000008571600462</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999995984460497</v>
+      </c>
+      <c r="R37">
+        <v>1.00000063409346</v>
+      </c>
+      <c r="S37">
+        <v>1.000007352593736</v>
+      </c>
+      <c r="T37">
+        <v>1.00000063409346</v>
+      </c>
+      <c r="U37">
+        <v>1.000001704215166</v>
+      </c>
+      <c r="V37">
+        <v>0.9999983151880236</v>
+      </c>
+      <c r="W37">
+        <v>1.000001506767251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999463466925681</v>
+      </c>
+      <c r="D38">
+        <v>0.9999798765340732</v>
+      </c>
+      <c r="E38">
+        <v>1.000080484044331</v>
+      </c>
+      <c r="F38">
+        <v>1.000080484044331</v>
+      </c>
+      <c r="G38">
+        <v>1.000016100185187</v>
+      </c>
+      <c r="H38">
+        <v>1.000052333208798</v>
+      </c>
+      <c r="I38">
+        <v>0.9999798765340732</v>
+      </c>
+      <c r="J38">
+        <v>1.000017298139013</v>
+      </c>
+      <c r="K38">
+        <v>0.9999701248340438</v>
+      </c>
+      <c r="L38">
+        <v>0.9999463466925681</v>
+      </c>
+      <c r="M38">
+        <v>0.9999463466925681</v>
+      </c>
+      <c r="N38">
+        <v>0.9999463466925681</v>
+      </c>
+      <c r="O38">
+        <v>0.9999798765340732</v>
+      </c>
+      <c r="P38">
+        <v>1.000030180289202</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999985873365431</v>
+      </c>
+      <c r="R38">
+        <v>1.000002235756991</v>
+      </c>
+      <c r="S38">
+        <v>1.000025886239139</v>
+      </c>
+      <c r="T38">
+        <v>1.000002235756991</v>
+      </c>
+      <c r="U38">
+        <v>1.000006001352496</v>
+      </c>
+      <c r="V38">
+        <v>0.9999940704205107</v>
+      </c>
+      <c r="W38">
+        <v>1.000005305021511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9998742984588074</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9999528574625678</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000188549690773</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000188549690773</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.00003771406019</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000122602017758</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9999528574625678</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000040518492734</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9999300107199278</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9998742984588074</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9998742984588074</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9998742984588074</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9999528574625678</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.00007070357667</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999966879776507</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000005235204049</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000060641882025</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.00000523520405</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.000014056026221</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9999861045127378</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.000012426045666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9984769514330089</v>
+      </c>
+      <c r="D40">
+        <v>0.9994288549301197</v>
+      </c>
+      <c r="E40">
+        <v>1.002284574898143</v>
+      </c>
+      <c r="F40">
+        <v>1.002284574898143</v>
+      </c>
+      <c r="G40">
+        <v>1.000456918182187</v>
+      </c>
+      <c r="H40">
+        <v>1.001485446950251</v>
+      </c>
+      <c r="I40">
+        <v>0.9994288549301197</v>
+      </c>
+      <c r="J40">
+        <v>1.000490903340861</v>
+      </c>
+      <c r="K40">
+        <v>0.999151987744565</v>
+      </c>
+      <c r="L40">
+        <v>0.9984769514330089</v>
+      </c>
+      <c r="M40">
+        <v>0.9984769514330089</v>
+      </c>
+      <c r="N40">
+        <v>0.9984769514330089</v>
+      </c>
+      <c r="O40">
+        <v>0.9994288549301197</v>
+      </c>
+      <c r="P40">
+        <v>1.000856714914131</v>
+      </c>
+      <c r="Q40">
+        <v>0.9999598791354902</v>
+      </c>
+      <c r="R40">
+        <v>1.000063460420424</v>
+      </c>
+      <c r="S40">
+        <v>1.000734777723041</v>
+      </c>
+      <c r="T40">
+        <v>1.000063460420424</v>
+      </c>
+      <c r="U40">
+        <v>1.000170321150533</v>
+      </c>
+      <c r="V40">
+        <v>0.9998316472070282</v>
+      </c>
+      <c r="W40">
+        <v>1.000150561551157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.000762925035605</v>
+      </c>
+      <c r="D41">
+        <v>1.000286094655735</v>
+      </c>
+      <c r="E41">
+        <v>0.9988556146031224</v>
+      </c>
+      <c r="F41">
+        <v>0.9988556146031224</v>
+      </c>
+      <c r="G41">
+        <v>0.999771124817366</v>
+      </c>
+      <c r="H41">
+        <v>0.9992559144824934</v>
+      </c>
+      <c r="I41">
+        <v>1.000286094655735</v>
+      </c>
+      <c r="J41">
+        <v>0.9997541006580526</v>
+      </c>
+      <c r="K41">
+        <v>1.000424788539554</v>
+      </c>
+      <c r="L41">
+        <v>1.000762925035605</v>
+      </c>
+      <c r="M41">
+        <v>1.000762925035605</v>
+      </c>
+      <c r="N41">
+        <v>1.000762925035605</v>
+      </c>
+      <c r="O41">
+        <v>1.000286094655735</v>
+      </c>
+      <c r="P41">
+        <v>0.9995708546294287</v>
+      </c>
+      <c r="Q41">
+        <v>1.000020097656894</v>
+      </c>
+      <c r="R41">
+        <v>0.9999682114314874</v>
+      </c>
+      <c r="S41">
+        <v>0.99963193663897</v>
+      </c>
+      <c r="T41">
+        <v>0.9999682114314874</v>
+      </c>
+      <c r="U41">
+        <v>0.9999146837381288</v>
+      </c>
+      <c r="V41">
+        <v>1.000084331997624</v>
+      </c>
+      <c r="W41">
+        <v>0.9999245821809579</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9977268442353049</v>
+      </c>
+      <c r="D42">
+        <v>0.9991475650671567</v>
+      </c>
+      <c r="E42">
+        <v>1.003409743579086</v>
+      </c>
+      <c r="F42">
+        <v>1.003409743579086</v>
+      </c>
+      <c r="G42">
+        <v>1.000681952401582</v>
+      </c>
+      <c r="H42">
+        <v>1.002217035939271</v>
+      </c>
+      <c r="I42">
+        <v>0.9991475650671567</v>
+      </c>
+      <c r="J42">
+        <v>1.000732673494342</v>
+      </c>
+      <c r="K42">
+        <v>0.9987343364271963</v>
+      </c>
+      <c r="L42">
+        <v>0.9977268442353049</v>
+      </c>
+      <c r="M42">
+        <v>0.9977268442353049</v>
+      </c>
+      <c r="N42">
+        <v>0.9977268442353049</v>
+      </c>
+      <c r="O42">
+        <v>0.9991475650671567</v>
+      </c>
+      <c r="P42">
+        <v>1.001278654323121</v>
+      </c>
+      <c r="Q42">
+        <v>0.9999401192807496</v>
+      </c>
+      <c r="R42">
+        <v>1.000094717627182</v>
+      </c>
+      <c r="S42">
+        <v>1.001096660713528</v>
+      </c>
+      <c r="T42">
+        <v>1.000094717627183</v>
+      </c>
+      <c r="U42">
+        <v>1.000254206593973</v>
+      </c>
+      <c r="V42">
+        <v>0.9997487341222391</v>
+      </c>
+      <c r="W42">
+        <v>1.000224714526387</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW50.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9998257289295881</v>
+        <v>0.9999632533981664</v>
       </c>
       <c r="D3">
-        <v>1.000261405986766</v>
+        <v>0.9999862177139212</v>
       </c>
       <c r="E3">
-        <v>0.9999346459039004</v>
+        <v>1.000055119076798</v>
       </c>
       <c r="F3">
-        <v>0.9998257289295881</v>
+        <v>1.000055119076798</v>
       </c>
       <c r="G3">
-        <v>1.000056172131771</v>
+        <v>1.00001102558506</v>
       </c>
       <c r="H3">
-        <v>0.999902968678285</v>
+        <v>1.000035841121975</v>
       </c>
       <c r="I3">
-        <v>0.9998257289295881</v>
+        <v>0.9999862177139212</v>
       </c>
       <c r="J3">
-        <v>1.000261405986766</v>
+        <v>1.000011845937452</v>
       </c>
       <c r="K3">
-        <v>1.000052282845194</v>
+        <v>0.9999795408505172</v>
       </c>
       <c r="L3">
-        <v>0.9999346459039004</v>
+        <v>0.9999632533981664</v>
       </c>
       <c r="M3">
-        <v>1.000169970661326</v>
+        <v>0.9999632533981664</v>
       </c>
       <c r="N3">
-        <v>0.9998257289295881</v>
+        <v>0.9999632533981664</v>
       </c>
       <c r="O3">
-        <v>0.9999346459039004</v>
+        <v>0.9999862177139212</v>
       </c>
       <c r="P3">
-        <v>1.000098025945333</v>
+        <v>1.000020668395359</v>
       </c>
       <c r="Q3">
-        <v>0.9999954090178356</v>
+        <v>0.9999990318256864</v>
       </c>
       <c r="R3">
-        <v>1.000007260273418</v>
+        <v>1.000001530062962</v>
       </c>
       <c r="S3">
-        <v>1.000084074674146</v>
+        <v>1.000017727576057</v>
       </c>
       <c r="T3">
-        <v>1.000007260273418</v>
+        <v>1.000001530062962</v>
       </c>
       <c r="U3">
-        <v>1.000019488238006</v>
+        <v>1.000004109031584</v>
       </c>
       <c r="V3">
-        <v>0.9999807363763227</v>
+        <v>0.9999959379049006</v>
       </c>
       <c r="W3">
-        <v>1.000017227630091</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>1.000003632674726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9996635724826171</v>
+        <v>0.9984769514330089</v>
       </c>
       <c r="D4">
-        <v>1.000504640242135</v>
+        <v>0.9994288549301197</v>
       </c>
       <c r="E4">
-        <v>0.9998738360111311</v>
+        <v>1.002284574898143</v>
       </c>
       <c r="F4">
-        <v>0.9996635724826171</v>
+        <v>1.002284574898143</v>
       </c>
       <c r="G4">
-        <v>1.00010843726305</v>
+        <v>1.000456918182187</v>
       </c>
       <c r="H4">
-        <v>0.999812681300685</v>
+        <v>1.001485446950251</v>
       </c>
       <c r="I4">
-        <v>0.9996635724826171</v>
+        <v>0.9994288549301197</v>
       </c>
       <c r="J4">
-        <v>1.000504640242135</v>
+        <v>1.000490903340861</v>
       </c>
       <c r="K4">
-        <v>1.000100930074947</v>
+        <v>0.999151987744565</v>
       </c>
       <c r="L4">
-        <v>0.9998738360111311</v>
+        <v>0.9984769514330089</v>
       </c>
       <c r="M4">
-        <v>1.000328124984863</v>
+        <v>0.9984769514330089</v>
       </c>
       <c r="N4">
-        <v>0.9996635724826171</v>
+        <v>0.9984769514330089</v>
       </c>
       <c r="O4">
-        <v>0.9998738360111311</v>
+        <v>0.9994288549301197</v>
       </c>
       <c r="P4">
-        <v>1.000189238126633</v>
+        <v>1.000856714914131</v>
       </c>
       <c r="Q4">
-        <v>0.9999911366370906</v>
+        <v>0.9999598791354902</v>
       </c>
       <c r="R4">
-        <v>1.000014016245294</v>
+        <v>1.000063460420424</v>
       </c>
       <c r="S4">
-        <v>1.000162304505439</v>
+        <v>1.000734777723041</v>
       </c>
       <c r="T4">
-        <v>1.000014016245294</v>
+        <v>1.000063460420424</v>
       </c>
       <c r="U4">
-        <v>1.000037621499733</v>
+        <v>1.000170321150533</v>
       </c>
       <c r="V4">
-        <v>0.99996281169631</v>
+        <v>0.9998316472070282</v>
       </c>
       <c r="W4">
-        <v>1.00003325729632</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>1.000150561551157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9993552788193634</v>
+        <v>0.9981415665057645</v>
       </c>
       <c r="D5">
-        <v>1.000967076069972</v>
+        <v>0.9993030852161375</v>
       </c>
       <c r="E5">
-        <v>0.9997582241052549</v>
+        <v>1.002787649308359</v>
       </c>
       <c r="F5">
-        <v>0.9993552788193634</v>
+        <v>1.002787649308359</v>
       </c>
       <c r="G5">
-        <v>1.000207808033476</v>
+        <v>1.000557532046107</v>
       </c>
       <c r="H5">
-        <v>0.9996410274865424</v>
+        <v>1.001812550857347</v>
       </c>
       <c r="I5">
-        <v>0.9993552788193634</v>
+        <v>0.9993030852161375</v>
       </c>
       <c r="J5">
-        <v>1.000967076069972</v>
+        <v>1.000599000814119</v>
       </c>
       <c r="K5">
-        <v>1.00019341660052</v>
+        <v>0.9989652493587883</v>
       </c>
       <c r="L5">
-        <v>0.9997582241052549</v>
+        <v>0.9981415665057645</v>
       </c>
       <c r="M5">
-        <v>1.000628807914882</v>
+        <v>0.9981415665057645</v>
       </c>
       <c r="N5">
-        <v>0.9993552788193634</v>
+        <v>0.9981415665057645</v>
       </c>
       <c r="O5">
-        <v>0.9997582241052549</v>
+        <v>0.9993030852161375</v>
       </c>
       <c r="P5">
-        <v>1.000362650087613</v>
+        <v>1.001045367262248</v>
       </c>
       <c r="Q5">
-        <v>0.9999830160693652</v>
+        <v>0.9999510430151282</v>
       </c>
       <c r="R5">
-        <v>1.000026859664864</v>
+        <v>1.000077433676754</v>
       </c>
       <c r="S5">
-        <v>1.000311036069568</v>
+        <v>1.000896578446205</v>
       </c>
       <c r="T5">
-        <v>1.000026859664864</v>
+        <v>1.000077433676754</v>
       </c>
       <c r="U5">
-        <v>1.000072096757016</v>
+        <v>1.000207825461095</v>
       </c>
       <c r="V5">
-        <v>0.9999287331694859</v>
+        <v>0.9997945736700288</v>
       </c>
       <c r="W5">
-        <v>1.000063732891908</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>1.000183714915345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9990543952763119</v>
+        <v>0.9938829813037207</v>
       </c>
       <c r="D6">
-        <v>1.001418400940989</v>
+        <v>0.9977061151255572</v>
       </c>
       <c r="E6">
-        <v>0.9996453945019351</v>
+        <v>1.009175534782979</v>
       </c>
       <c r="F6">
-        <v>0.9990543952763119</v>
+        <v>1.009175534782979</v>
       </c>
       <c r="G6">
-        <v>1.000304782524788</v>
+        <v>1.001835117875194</v>
       </c>
       <c r="H6">
-        <v>0.9994734989507753</v>
+        <v>1.005966002429118</v>
       </c>
       <c r="I6">
-        <v>0.9990543952763119</v>
+        <v>0.9977061151255572</v>
       </c>
       <c r="J6">
-        <v>1.001418400940989</v>
+        <v>1.00197159776447</v>
       </c>
       <c r="K6">
-        <v>1.00028368893041</v>
+        <v>0.9965941235752499</v>
       </c>
       <c r="L6">
-        <v>0.9996453945019351</v>
+        <v>0.9938829813037207</v>
       </c>
       <c r="M6">
-        <v>1.000922260037239</v>
+        <v>0.9938829813037207</v>
       </c>
       <c r="N6">
-        <v>0.9990543952763119</v>
+        <v>0.9938829813037207</v>
       </c>
       <c r="O6">
-        <v>0.9996453945019351</v>
+        <v>0.9977061151255572</v>
       </c>
       <c r="P6">
-        <v>1.000531897721462</v>
+        <v>1.003440824954268</v>
       </c>
       <c r="Q6">
-        <v>0.9999750885133616</v>
+        <v>0.9998388564450138</v>
       </c>
       <c r="R6">
-        <v>1.000039396906412</v>
+        <v>1.000254877070752</v>
       </c>
       <c r="S6">
-        <v>1.000456192655904</v>
+        <v>1.002951082557669</v>
       </c>
       <c r="T6">
-        <v>1.000039396906412</v>
+        <v>1.000254877070752</v>
       </c>
       <c r="U6">
-        <v>1.000105743311006</v>
+        <v>1.000684057244182</v>
       </c>
       <c r="V6">
-        <v>0.9998954737040673</v>
+        <v>0.9993238420560896</v>
       </c>
       <c r="W6">
-        <v>1.000093476958048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>1.000604698497731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999865719570957</v>
+        <v>0.9997994748220844</v>
       </c>
       <c r="D7">
-        <v>1.000020141292486</v>
+        <v>0.999924800976598</v>
       </c>
       <c r="E7">
-        <v>0.9999949622623866</v>
+        <v>1.000300786687183</v>
       </c>
       <c r="F7">
-        <v>0.9999865719570957</v>
+        <v>1.000300786687183</v>
       </c>
       <c r="G7">
-        <v>1.000004330080148</v>
+        <v>1.000060158270629</v>
       </c>
       <c r="H7">
-        <v>0.9999925243524549</v>
+        <v>1.000195575659715</v>
       </c>
       <c r="I7">
-        <v>0.9999865719570957</v>
+        <v>0.999924800976598</v>
       </c>
       <c r="J7">
-        <v>1.000020141292486</v>
+        <v>1.000064634954088</v>
       </c>
       <c r="K7">
-        <v>1.000004029907126</v>
+        <v>0.9998883510844252</v>
       </c>
       <c r="L7">
-        <v>0.9999949622623866</v>
+        <v>0.9997994748220844</v>
       </c>
       <c r="M7">
-        <v>1.000013098307919</v>
+        <v>0.9997994748220844</v>
       </c>
       <c r="N7">
-        <v>0.9999865719570957</v>
+        <v>0.9997994748220844</v>
       </c>
       <c r="O7">
-        <v>0.9999949622623866</v>
+        <v>0.999924800976598</v>
       </c>
       <c r="P7">
-        <v>1.000007551777436</v>
+        <v>1.000112793831891</v>
       </c>
       <c r="Q7">
-        <v>0.999999646171267</v>
+        <v>0.9999947179653429</v>
       </c>
       <c r="R7">
-        <v>1.00000055850399</v>
+        <v>1.000008354161955</v>
       </c>
       <c r="S7">
-        <v>1.00000647787834</v>
+        <v>1.000096740872623</v>
       </c>
       <c r="T7">
-        <v>1.00000055850399</v>
+        <v>1.000008354161955</v>
       </c>
       <c r="U7">
-        <v>1.000001501398029</v>
+        <v>1.000022424359988</v>
       </c>
       <c r="V7">
-        <v>0.9999985155098423</v>
+        <v>0.9999778344524074</v>
       </c>
       <c r="W7">
-        <v>1.00000132755275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>1.000019822928915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999632533981664</v>
+        <v>0.9999847590794553</v>
       </c>
       <c r="D8">
-        <v>1.000055119076798</v>
+        <v>0.9999942823118148</v>
       </c>
       <c r="E8">
-        <v>0.9999862177139212</v>
+        <v>1.000022860889109</v>
       </c>
       <c r="F8">
-        <v>0.9999632533981664</v>
+        <v>1.000022860889109</v>
       </c>
       <c r="G8">
-        <v>1.000011845937452</v>
+        <v>1.000004573901233</v>
       </c>
       <c r="H8">
-        <v>0.9999795408505172</v>
+        <v>1.000014866381563</v>
       </c>
       <c r="I8">
-        <v>0.9999632533981664</v>
+        <v>0.9999942823118148</v>
       </c>
       <c r="J8">
-        <v>1.000055119076798</v>
+        <v>1.000004914580285</v>
       </c>
       <c r="K8">
-        <v>1.00001102558506</v>
+        <v>0.9999915146827326</v>
       </c>
       <c r="L8">
-        <v>0.9999862177139212</v>
+        <v>0.9999847590794553</v>
       </c>
       <c r="M8">
-        <v>1.000035841121975</v>
+        <v>0.9999847590794553</v>
       </c>
       <c r="N8">
-        <v>0.9999632533981664</v>
+        <v>0.9999847590794553</v>
       </c>
       <c r="O8">
-        <v>0.9999862177139212</v>
+        <v>0.9999942823118148</v>
       </c>
       <c r="P8">
-        <v>1.000020668395359</v>
+        <v>1.000008571600462</v>
       </c>
       <c r="Q8">
-        <v>0.9999990318256864</v>
+        <v>0.9999995984460497</v>
       </c>
       <c r="R8">
-        <v>1.000001530062962</v>
+        <v>1.00000063409346</v>
       </c>
       <c r="S8">
-        <v>1.000017727576057</v>
+        <v>1.000007352593736</v>
       </c>
       <c r="T8">
-        <v>1.000001530062962</v>
+        <v>1.00000063409346</v>
       </c>
       <c r="U8">
-        <v>1.000004109031584</v>
+        <v>1.000001704215166</v>
       </c>
       <c r="V8">
-        <v>0.9999959379049006</v>
+        <v>0.9999983151880236</v>
       </c>
       <c r="W8">
-        <v>1.000003632674726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>1.000001506767251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999467382251942</v>
+        <v>0.9996635724826169</v>
       </c>
       <c r="D9">
-        <v>1.0000798920388</v>
+        <v>0.9998738360111311</v>
       </c>
       <c r="E9">
-        <v>0.9999800244790266</v>
+        <v>1.000504640242135</v>
       </c>
       <c r="F9">
-        <v>0.9999467382251942</v>
+        <v>1.000504640242135</v>
       </c>
       <c r="G9">
-        <v>1.00001716892432</v>
+        <v>1.000100930074948</v>
       </c>
       <c r="H9">
-        <v>0.9999703454350404</v>
+        <v>1.000328124984863</v>
       </c>
       <c r="I9">
-        <v>0.9999467382251942</v>
+        <v>0.9998738360111311</v>
       </c>
       <c r="J9">
-        <v>1.0000798920388</v>
+        <v>1.00010843726305</v>
       </c>
       <c r="K9">
-        <v>1.000015980374768</v>
+        <v>0.999812681300685</v>
       </c>
       <c r="L9">
-        <v>0.9999800244790266</v>
+        <v>0.9996635724826169</v>
       </c>
       <c r="M9">
-        <v>1.000051949176474</v>
+        <v>0.9996635724826169</v>
       </c>
       <c r="N9">
-        <v>0.9999467382251942</v>
+        <v>0.9996635724826169</v>
       </c>
       <c r="O9">
-        <v>0.9999800244790266</v>
+        <v>0.9998738360111311</v>
       </c>
       <c r="P9">
-        <v>1.000029958258913</v>
+        <v>1.000189238126633</v>
       </c>
       <c r="Q9">
-        <v>0.9999985967016731</v>
+        <v>0.9999911366370906</v>
       </c>
       <c r="R9">
-        <v>1.000002218247674</v>
+        <v>1.000014016245294</v>
       </c>
       <c r="S9">
-        <v>1.000025695147382</v>
+        <v>1.000162304505439</v>
       </c>
       <c r="T9">
-        <v>1.000002218247674</v>
+        <v>1.000014016245294</v>
       </c>
       <c r="U9">
-        <v>1.000005955916835</v>
+        <v>1.000037621499733</v>
       </c>
       <c r="V9">
-        <v>0.9999941123785069</v>
+        <v>0.99996281169631</v>
       </c>
       <c r="W9">
-        <v>1.000005265391581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>1.00003325729632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9998869268020925</v>
+        <v>0.9937920257023461</v>
       </c>
       <c r="D10">
-        <v>1.000169606665898</v>
+        <v>0.9976720062917414</v>
       </c>
       <c r="E10">
-        <v>0.9999575960262587</v>
+        <v>1.009311966556355</v>
       </c>
       <c r="F10">
-        <v>0.9998869268020925</v>
+        <v>1.009311966556355</v>
       </c>
       <c r="G10">
-        <v>1.000036447280611</v>
+        <v>1.001862403726937</v>
       </c>
       <c r="H10">
-        <v>0.9999370440129621</v>
+        <v>1.006054711976385</v>
       </c>
       <c r="I10">
-        <v>0.9998869268020925</v>
+        <v>0.9976720062917414</v>
       </c>
       <c r="J10">
-        <v>1.000169606665898</v>
+        <v>1.002000913449703</v>
       </c>
       <c r="K10">
-        <v>1.000033921327849</v>
+        <v>0.9965434808890254</v>
       </c>
       <c r="L10">
-        <v>0.9999575960262587</v>
+        <v>0.9937920257023461</v>
       </c>
       <c r="M10">
-        <v>1.000110281012563</v>
+        <v>0.9937920257023461</v>
       </c>
       <c r="N10">
-        <v>0.9998869268020925</v>
+        <v>0.9937920257023461</v>
       </c>
       <c r="O10">
-        <v>0.9999575960262587</v>
+        <v>0.9976720062917414</v>
       </c>
       <c r="P10">
-        <v>1.000063601346078</v>
+        <v>1.003491986424048</v>
       </c>
       <c r="Q10">
-        <v>0.9999970216534348</v>
+        <v>0.9998364598707223</v>
       </c>
       <c r="R10">
-        <v>1.000004709831416</v>
+        <v>1.000258666183481</v>
       </c>
       <c r="S10">
-        <v>1.000054549990923</v>
+        <v>1.002994962099266</v>
       </c>
       <c r="T10">
-        <v>1.000004709831416</v>
+        <v>1.000258666183481</v>
       </c>
       <c r="U10">
-        <v>1.000012644193715</v>
+        <v>1.000694228000036</v>
       </c>
       <c r="V10">
-        <v>0.9999875007153907</v>
+        <v>0.9993137875404983</v>
       </c>
       <c r="W10">
-        <v>1.000011177394312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>1.00061368936053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9998072267232986</v>
+        <v>0.9990712900345293</v>
       </c>
       <c r="D11">
-        <v>1.000289160781294</v>
+        <v>0.9996517319527416</v>
       </c>
       <c r="E11">
-        <v>0.9999277068314544</v>
+        <v>1.001393070206544</v>
       </c>
       <c r="F11">
-        <v>0.9998072267232986</v>
+        <v>1.001393070206544</v>
       </c>
       <c r="G11">
-        <v>1.000062133669759</v>
+        <v>1.000278616681341</v>
       </c>
       <c r="H11">
-        <v>0.9998926668060741</v>
+        <v>1.000905783252926</v>
       </c>
       <c r="I11">
-        <v>0.9998072267232986</v>
+        <v>0.9996517319527416</v>
       </c>
       <c r="J11">
-        <v>1.000289160781294</v>
+        <v>1.000299339397384</v>
       </c>
       <c r="K11">
-        <v>1.00005783473629</v>
+        <v>0.9994829083120375</v>
       </c>
       <c r="L11">
-        <v>0.9999277068314544</v>
+        <v>0.9990712900345293</v>
       </c>
       <c r="M11">
-        <v>1.000188016321417</v>
+        <v>0.9990712900345293</v>
       </c>
       <c r="N11">
-        <v>0.9998072267232986</v>
+        <v>0.9990712900345293</v>
       </c>
       <c r="O11">
-        <v>0.9999277068314544</v>
+        <v>0.9996517319527416</v>
       </c>
       <c r="P11">
-        <v>1.000108433806374</v>
+        <v>1.000522401079643</v>
       </c>
       <c r="Q11">
-        <v>0.9999949202506067</v>
+        <v>0.9999755356750628</v>
       </c>
       <c r="R11">
-        <v>1.000008031445349</v>
+        <v>1.000038697397938</v>
       </c>
       <c r="S11">
-        <v>1.000093000427502</v>
+        <v>1.000448047185557</v>
       </c>
       <c r="T11">
-        <v>1.000008031445349</v>
+        <v>1.000038697397938</v>
       </c>
       <c r="U11">
-        <v>1.000021557001451</v>
+        <v>1.0001038578978</v>
       </c>
       <c r="V11">
-        <v>0.9999786909458208</v>
+        <v>0.9998973443251457</v>
       </c>
       <c r="W11">
-        <v>1.00001905658763</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>1.000091808973781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.001973980505824</v>
+        <v>0.9981229514631579</v>
       </c>
       <c r="D12">
-        <v>0.9970390191027829</v>
+        <v>0.9992961035578966</v>
       </c>
       <c r="E12">
-        <v>1.000740231517839</v>
+        <v>1.002815568589478</v>
       </c>
       <c r="F12">
-        <v>1.001973980505824</v>
+        <v>1.002815568589478</v>
       </c>
       <c r="G12">
-        <v>0.9993637624963541</v>
+        <v>1.000563115389475</v>
       </c>
       <c r="H12">
-        <v>1.001099091751659</v>
+        <v>1.001830705526315</v>
       </c>
       <c r="I12">
-        <v>1.001973980505824</v>
+        <v>0.9992961035578966</v>
       </c>
       <c r="J12">
-        <v>0.9970390191027829</v>
+        <v>1.000604999526313</v>
       </c>
       <c r="K12">
-        <v>0.9994078071395275</v>
+        <v>0.9989548847999994</v>
       </c>
       <c r="L12">
-        <v>1.000740231517839</v>
+        <v>0.9981229514631579</v>
       </c>
       <c r="M12">
-        <v>0.9980747525289257</v>
+        <v>0.9981229514631579</v>
       </c>
       <c r="N12">
-        <v>1.001973980505824</v>
+        <v>0.9981229514631579</v>
       </c>
       <c r="O12">
-        <v>1.000740231517839</v>
+        <v>0.9992961035578966</v>
       </c>
       <c r="P12">
-        <v>0.9988896253103111</v>
+        <v>1.001055836073687</v>
       </c>
       <c r="Q12">
-        <v>1.000051997007097</v>
+        <v>0.9999505515421048</v>
       </c>
       <c r="R12">
-        <v>0.9999177437088154</v>
+        <v>1.000078207870177</v>
       </c>
       <c r="S12">
-        <v>0.9990476710389921</v>
+        <v>1.000905557224562</v>
       </c>
       <c r="T12">
-        <v>0.9999177437088154</v>
+        <v>1.000078207870177</v>
       </c>
       <c r="U12">
-        <v>0.9997792484057</v>
+        <v>1.000209905784211</v>
       </c>
       <c r="V12">
-        <v>1.000218194825725</v>
+        <v>0.9997925149200005</v>
       </c>
       <c r="W12">
-        <v>0.999804859570094</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>1.000185554051316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000510962408722</v>
+        <v>1.001220946231499</v>
       </c>
       <c r="D13">
-        <v>0.9992335485138972</v>
+        <v>1.000457850281797</v>
       </c>
       <c r="E13">
-        <v>1.000191609808738</v>
+        <v>0.9981685745788971</v>
       </c>
       <c r="F13">
-        <v>1.000510962408722</v>
+        <v>0.9981685745788971</v>
       </c>
       <c r="G13">
-        <v>0.9998353086512839</v>
+        <v>0.9996337148187795</v>
       </c>
       <c r="H13">
-        <v>1.000284495281437</v>
+        <v>0.9988092001168082</v>
       </c>
       <c r="I13">
-        <v>1.000510962408722</v>
+        <v>1.000457850281797</v>
       </c>
       <c r="J13">
-        <v>0.9992335485138972</v>
+        <v>0.9996064725590084</v>
       </c>
       <c r="K13">
-        <v>0.9998467086274522</v>
+        <v>1.000679807897337</v>
       </c>
       <c r="L13">
-        <v>1.000191609808738</v>
+        <v>1.001220946231499</v>
       </c>
       <c r="M13">
-        <v>0.9995016548353541</v>
+        <v>1.001220946231499</v>
       </c>
       <c r="N13">
-        <v>1.000510962408722</v>
+        <v>1.001220946231499</v>
       </c>
       <c r="O13">
-        <v>1.000191609808738</v>
+        <v>1.000457850281797</v>
       </c>
       <c r="P13">
-        <v>0.9997125791613178</v>
+        <v>0.9993132124303471</v>
       </c>
       <c r="Q13">
-        <v>1.000013459230011</v>
+        <v>1.000032161420403</v>
       </c>
       <c r="R13">
-        <v>0.9999787069104524</v>
+        <v>0.9999491236973977</v>
       </c>
       <c r="S13">
-        <v>0.9997534889913066</v>
+        <v>0.9994109658065676</v>
       </c>
       <c r="T13">
-        <v>0.9999787069104524</v>
+        <v>0.9999491236973977</v>
       </c>
       <c r="U13">
-        <v>0.9999428573456604</v>
+        <v>0.9998634609128004</v>
       </c>
       <c r="V13">
-        <v>1.000056478358273</v>
+        <v>1.00013495797654</v>
       </c>
       <c r="W13">
-        <v>0.999949487241953</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>0.9998793020957406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000837139764808</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="D14">
-        <v>0.9987442807092567</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="E14">
-        <v>1.000313923165885</v>
+        <v>1.016088400000001</v>
       </c>
       <c r="F14">
-        <v>1.000837139764808</v>
+        <v>1.016088400000001</v>
       </c>
       <c r="G14">
-        <v>0.9997301780566142</v>
+        <v>1.0032177</v>
       </c>
       <c r="H14">
-        <v>1.000466116765095</v>
+        <v>1.010460799999999</v>
       </c>
       <c r="I14">
-        <v>1.000837139764808</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="J14">
-        <v>0.9987442807092567</v>
+        <v>1.003456999999999</v>
       </c>
       <c r="K14">
-        <v>0.9997488485650017</v>
+        <v>0.9940281299999989</v>
       </c>
       <c r="L14">
-        <v>1.000313923165885</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="M14">
-        <v>0.9991835227910197</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="N14">
-        <v>1.000837139764808</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="O14">
-        <v>1.000313923165885</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="P14">
-        <v>0.9995291019375707</v>
+        <v>1.00603315</v>
       </c>
       <c r="Q14">
-        <v>1.000022050611249</v>
+        <v>0.9997174499999995</v>
       </c>
       <c r="R14">
-        <v>0.9999651145466498</v>
+        <v>1.000446903333333</v>
       </c>
       <c r="S14">
-        <v>0.9995961273105852</v>
+        <v>1.005174433333333</v>
       </c>
       <c r="T14">
-        <v>0.9999651145466496</v>
+        <v>1.000446903333333</v>
       </c>
       <c r="U14">
-        <v>0.9999063804241408</v>
+        <v>1.0011994275</v>
       </c>
       <c r="V14">
-        <v>1.000092532292274</v>
+        <v>0.9988144239999996</v>
       </c>
       <c r="W14">
-        <v>0.9999172416229455</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>1.001060279999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000214833475117</v>
+        <v>0.98927441</v>
       </c>
       <c r="D15">
-        <v>0.9996777471256533</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="E15">
-        <v>1.000080556694701</v>
+        <v>1.0160884</v>
       </c>
       <c r="F15">
-        <v>1.000214833475117</v>
+        <v>1.0160884</v>
       </c>
       <c r="G15">
-        <v>0.9999307565356758</v>
+        <v>1.0032177</v>
       </c>
       <c r="H15">
-        <v>1.000119613309008</v>
+        <v>1.0104608</v>
       </c>
       <c r="I15">
-        <v>1.000214833475117</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="J15">
-        <v>0.9996777471256533</v>
+        <v>1.003457</v>
       </c>
       <c r="K15">
-        <v>0.9999355521689823</v>
+        <v>0.9940281299999999</v>
       </c>
       <c r="L15">
-        <v>1.000080556694701</v>
+        <v>0.98927441</v>
       </c>
       <c r="M15">
-        <v>0.999790476102181</v>
+        <v>0.98927441</v>
       </c>
       <c r="N15">
-        <v>1.000214833475117</v>
+        <v>0.98927441</v>
       </c>
       <c r="O15">
-        <v>1.000080556694701</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="P15">
-        <v>0.9998791519101771</v>
+        <v>1.00603315</v>
       </c>
       <c r="Q15">
-        <v>1.000005656615188</v>
+        <v>0.9997174500000001</v>
       </c>
       <c r="R15">
-        <v>0.999991045765157</v>
+        <v>1.000446903333333</v>
       </c>
       <c r="S15">
-        <v>0.99989635345201</v>
+        <v>1.005174433333333</v>
       </c>
       <c r="T15">
-        <v>0.999991045765157</v>
+        <v>1.000446903333333</v>
       </c>
       <c r="U15">
-        <v>0.9999759734577867</v>
+        <v>1.0011994275</v>
       </c>
       <c r="V15">
-        <v>1.000023745461253</v>
+        <v>0.9988144240000001</v>
       </c>
       <c r="W15">
-        <v>0.9999787615132524</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>1.00106028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999992796402143</v>
+        <v>0.98927441</v>
       </c>
       <c r="D16">
-        <v>1.000001079779922</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="E16">
-        <v>0.9999997275945828</v>
+        <v>1.0160884</v>
       </c>
       <c r="F16">
-        <v>0.9999992796402143</v>
+        <v>1.0160884</v>
       </c>
       <c r="G16">
-        <v>1.000000234268037</v>
+        <v>1.0032177</v>
       </c>
       <c r="H16">
-        <v>0.9999995996394117</v>
+        <v>1.0104608</v>
       </c>
       <c r="I16">
-        <v>0.9999992796402143</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="J16">
-        <v>1.000001079779922</v>
+        <v>1.003457</v>
       </c>
       <c r="K16">
-        <v>1.000000217414641</v>
+        <v>0.9940281299999999</v>
       </c>
       <c r="L16">
-        <v>0.9999997275945828</v>
+        <v>0.98927441</v>
       </c>
       <c r="M16">
-        <v>1.000000704384074</v>
+        <v>0.98927441</v>
       </c>
       <c r="N16">
-        <v>0.9999992796402143</v>
+        <v>0.98927441</v>
       </c>
       <c r="O16">
-        <v>0.9999997275945828</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="P16">
-        <v>1.000000403687252</v>
+        <v>1.00603315</v>
       </c>
       <c r="Q16">
-        <v>0.99999998093131</v>
+        <v>0.9997174500000001</v>
       </c>
       <c r="R16">
-        <v>1.000000029004906</v>
+        <v>1.000446903333333</v>
       </c>
       <c r="S16">
-        <v>1.000000347214181</v>
+        <v>1.005174433333333</v>
       </c>
       <c r="T16">
-        <v>1.000000029004906</v>
+        <v>1.000446903333333</v>
       </c>
       <c r="U16">
-        <v>1.000000080320689</v>
+        <v>1.0011994275</v>
       </c>
       <c r="V16">
-        <v>0.9999999201845942</v>
+        <v>0.9988144240000001</v>
       </c>
       <c r="W16">
-        <v>1.000000071289433</v>
+        <v>1.00106028</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999847590794555</v>
+        <v>0.99932965</v>
       </c>
       <c r="D17">
-        <v>1.000022860889109</v>
+        <v>0.99974862</v>
       </c>
       <c r="E17">
-        <v>0.9999942823118148</v>
+        <v>1.0010055</v>
       </c>
       <c r="F17">
-        <v>0.9999847590794555</v>
+        <v>1.0010055</v>
       </c>
       <c r="G17">
-        <v>1.000004914580285</v>
+        <v>1.0002011</v>
       </c>
       <c r="H17">
-        <v>0.9999915146827326</v>
+        <v>1.0006538</v>
       </c>
       <c r="I17">
-        <v>0.9999847590794555</v>
+        <v>0.99974862</v>
       </c>
       <c r="J17">
-        <v>1.000022860889109</v>
+        <v>1.0002161</v>
       </c>
       <c r="K17">
-        <v>1.000004573901233</v>
+        <v>0.9996267599999998</v>
       </c>
       <c r="L17">
-        <v>0.9999942823118148</v>
+        <v>0.99932965</v>
       </c>
       <c r="M17">
-        <v>1.000014866381563</v>
+        <v>0.99932965</v>
       </c>
       <c r="N17">
-        <v>0.9999847590794555</v>
+        <v>0.99932965</v>
       </c>
       <c r="O17">
-        <v>0.9999942823118148</v>
+        <v>0.99974862</v>
       </c>
       <c r="P17">
-        <v>1.000008571600462</v>
+        <v>1.00037706</v>
       </c>
       <c r="Q17">
-        <v>0.9999995984460497</v>
+        <v>0.99998236</v>
       </c>
       <c r="R17">
-        <v>1.00000063409346</v>
+        <v>1.000027923333333</v>
       </c>
       <c r="S17">
-        <v>1.000007352593736</v>
+        <v>1.000323406666667</v>
       </c>
       <c r="T17">
-        <v>1.00000063409346</v>
+        <v>1.000027923333333</v>
       </c>
       <c r="U17">
-        <v>1.000001704215166</v>
+        <v>1.0000749675</v>
       </c>
       <c r="V17">
-        <v>0.9999983151880238</v>
+        <v>0.999925904</v>
       </c>
       <c r="W17">
-        <v>1.000001506767251</v>
+        <v>1.00006626875</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999463466925682</v>
+        <v>0.9958860741095892</v>
       </c>
       <c r="D18">
-        <v>1.000080484044331</v>
+        <v>0.9984572731506849</v>
       </c>
       <c r="E18">
-        <v>0.9999798765340732</v>
+        <v>1.006170892054795</v>
       </c>
       <c r="F18">
-        <v>0.9999463466925682</v>
+        <v>1.006170892054795</v>
       </c>
       <c r="G18">
-        <v>1.000017298139013</v>
+        <v>1.00123418</v>
       </c>
       <c r="H18">
-        <v>0.9999701248340438</v>
+        <v>1.004012363287671</v>
       </c>
       <c r="I18">
-        <v>0.9999463466925682</v>
+        <v>0.9984572731506849</v>
       </c>
       <c r="J18">
-        <v>1.000080484044331</v>
+        <v>1.001325982465753</v>
       </c>
       <c r="K18">
-        <v>1.000016100185187</v>
+        <v>0.9977094204109593</v>
       </c>
       <c r="L18">
-        <v>0.9999798765340732</v>
+        <v>0.9958860741095892</v>
       </c>
       <c r="M18">
-        <v>1.000052333208798</v>
+        <v>0.9958860741095892</v>
       </c>
       <c r="N18">
-        <v>0.9999463466925682</v>
+        <v>0.9958860741095892</v>
       </c>
       <c r="O18">
-        <v>0.9999798765340732</v>
+        <v>0.9984572731506849</v>
       </c>
       <c r="P18">
-        <v>1.000030180289202</v>
+        <v>1.00231408260274</v>
       </c>
       <c r="Q18">
-        <v>0.9999985873365431</v>
+        <v>0.9998916278082191</v>
       </c>
       <c r="R18">
-        <v>1.000002235756991</v>
+        <v>1.000171413105023</v>
       </c>
       <c r="S18">
-        <v>1.000025886239139</v>
+        <v>1.001984715890411</v>
       </c>
       <c r="T18">
-        <v>1.000002235756991</v>
+        <v>1.000171413105023</v>
       </c>
       <c r="U18">
-        <v>1.000006001352497</v>
+        <v>1.000460055445205</v>
       </c>
       <c r="V18">
-        <v>0.9999940704205109</v>
+        <v>0.9995452591780822</v>
       </c>
       <c r="W18">
-        <v>1.000005305021511</v>
+        <v>1.000406682328767</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9998742984588074</v>
+        <v>0.9956250873684209</v>
       </c>
       <c r="D19">
-        <v>1.000188549690773</v>
+        <v>0.9983594031578947</v>
       </c>
       <c r="E19">
-        <v>0.9999528574625678</v>
+        <v>1.006562372631579</v>
       </c>
       <c r="F19">
-        <v>0.9998742984588074</v>
+        <v>1.006562372631579</v>
       </c>
       <c r="G19">
-        <v>1.000040518492734</v>
+        <v>1.001312476842105</v>
       </c>
       <c r="H19">
-        <v>0.9999300107199278</v>
+        <v>1.004266906842105</v>
       </c>
       <c r="I19">
-        <v>0.9998742984588074</v>
+        <v>0.9983594031578947</v>
       </c>
       <c r="J19">
-        <v>1.000188549690773</v>
+        <v>1.001410101578947</v>
       </c>
       <c r="K19">
-        <v>1.00003771406019</v>
+        <v>0.9975641063157894</v>
       </c>
       <c r="L19">
-        <v>0.9999528574625678</v>
+        <v>0.9956250873684209</v>
       </c>
       <c r="M19">
-        <v>1.000122602017758</v>
+        <v>0.9956250873684209</v>
       </c>
       <c r="N19">
-        <v>0.9998742984588074</v>
+        <v>0.9956250873684209</v>
       </c>
       <c r="O19">
-        <v>0.9999528574625678</v>
+        <v>0.9983594031578947</v>
       </c>
       <c r="P19">
-        <v>1.00007070357667</v>
+        <v>1.002460887894737</v>
       </c>
       <c r="Q19">
-        <v>0.9999966879776507</v>
+        <v>0.9998847523684211</v>
       </c>
       <c r="R19">
-        <v>1.000005235204049</v>
+        <v>1.000182287719298</v>
       </c>
       <c r="S19">
-        <v>1.000060641882025</v>
+        <v>1.002110625789474</v>
       </c>
       <c r="T19">
-        <v>1.00000523520405</v>
+        <v>1.000182287719298</v>
       </c>
       <c r="U19">
-        <v>1.000014056026221</v>
+        <v>1.000489241184211</v>
       </c>
       <c r="V19">
-        <v>0.9999861045127378</v>
+        <v>0.9995164104210528</v>
       </c>
       <c r="W19">
-        <v>1.000012426045666</v>
+        <v>1.000432482236842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9956250873684209</v>
+      </c>
+      <c r="D20">
+        <v>0.9983594031578947</v>
+      </c>
+      <c r="E20">
+        <v>1.006562372631579</v>
+      </c>
+      <c r="F20">
+        <v>1.006562372631579</v>
+      </c>
+      <c r="G20">
+        <v>1.001312476842105</v>
+      </c>
+      <c r="H20">
+        <v>1.004266906842105</v>
+      </c>
+      <c r="I20">
+        <v>0.9983594031578947</v>
+      </c>
+      <c r="J20">
+        <v>1.001410101578947</v>
+      </c>
+      <c r="K20">
+        <v>0.9975641063157894</v>
+      </c>
+      <c r="L20">
+        <v>0.9956250873684209</v>
+      </c>
+      <c r="M20">
+        <v>0.9956250873684209</v>
+      </c>
+      <c r="N20">
+        <v>0.9956250873684209</v>
+      </c>
+      <c r="O20">
+        <v>0.9983594031578947</v>
+      </c>
+      <c r="P20">
+        <v>1.002460887894737</v>
+      </c>
+      <c r="Q20">
+        <v>0.9998847523684211</v>
+      </c>
+      <c r="R20">
+        <v>1.000182287719298</v>
+      </c>
+      <c r="S20">
+        <v>1.002110625789474</v>
+      </c>
+      <c r="T20">
+        <v>1.000182287719298</v>
+      </c>
+      <c r="U20">
+        <v>1.000489241184211</v>
+      </c>
+      <c r="V20">
+        <v>0.9995164104210528</v>
+      </c>
+      <c r="W20">
+        <v>1.000432482236842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000837139764808</v>
+      </c>
+      <c r="D21">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="E21">
+        <v>0.9987442807092567</v>
+      </c>
+      <c r="F21">
+        <v>0.9987442807092567</v>
+      </c>
+      <c r="G21">
+        <v>0.9997488485650017</v>
+      </c>
+      <c r="H21">
+        <v>0.9991835227910197</v>
+      </c>
+      <c r="I21">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="J21">
+        <v>0.9997301780566142</v>
+      </c>
+      <c r="K21">
+        <v>1.000466116765095</v>
+      </c>
+      <c r="L21">
+        <v>1.000837139764808</v>
+      </c>
+      <c r="M21">
+        <v>1.000837139764808</v>
+      </c>
+      <c r="N21">
+        <v>1.000837139764808</v>
+      </c>
+      <c r="O21">
+        <v>1.000313923165885</v>
+      </c>
+      <c r="P21">
+        <v>0.9995291019375707</v>
+      </c>
+      <c r="Q21">
+        <v>1.000022050611249</v>
+      </c>
+      <c r="R21">
+        <v>0.9999651145466498</v>
+      </c>
+      <c r="S21">
+        <v>0.9995961273105852</v>
+      </c>
+      <c r="T21">
+        <v>0.9999651145466496</v>
+      </c>
+      <c r="U21">
+        <v>0.9999063804241408</v>
+      </c>
+      <c r="V21">
+        <v>1.000092532292274</v>
+      </c>
+      <c r="W21">
+        <v>0.9999172416229455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000214833475117</v>
+      </c>
+      <c r="D22">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="E22">
+        <v>0.9996777471256533</v>
+      </c>
+      <c r="F22">
+        <v>0.9996777471256533</v>
+      </c>
+      <c r="G22">
+        <v>0.9999355521689823</v>
+      </c>
+      <c r="H22">
+        <v>0.999790476102181</v>
+      </c>
+      <c r="I22">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="J22">
+        <v>0.9999307565356758</v>
+      </c>
+      <c r="K22">
+        <v>1.000119613309008</v>
+      </c>
+      <c r="L22">
+        <v>1.000214833475117</v>
+      </c>
+      <c r="M22">
+        <v>1.000214833475117</v>
+      </c>
+      <c r="N22">
+        <v>1.000214833475117</v>
+      </c>
+      <c r="O22">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="P22">
+        <v>0.9998791519101771</v>
+      </c>
+      <c r="Q22">
+        <v>1.000005656615188</v>
+      </c>
+      <c r="R22">
+        <v>0.999991045765157</v>
+      </c>
+      <c r="S22">
+        <v>0.99989635345201</v>
+      </c>
+      <c r="T22">
+        <v>0.999991045765157</v>
+      </c>
+      <c r="U22">
+        <v>0.9999759734577867</v>
+      </c>
+      <c r="V22">
+        <v>1.000023745461253</v>
+      </c>
+      <c r="W22">
+        <v>0.9999787615132525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.001973980505824</v>
+      </c>
+      <c r="D23">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="E23">
+        <v>0.9970390191027829</v>
+      </c>
+      <c r="F23">
+        <v>0.9970390191027829</v>
+      </c>
+      <c r="G23">
+        <v>0.9994078071395275</v>
+      </c>
+      <c r="H23">
+        <v>0.9980747525289257</v>
+      </c>
+      <c r="I23">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="J23">
+        <v>0.9993637624963541</v>
+      </c>
+      <c r="K23">
+        <v>1.001099091751659</v>
+      </c>
+      <c r="L23">
+        <v>1.001973980505824</v>
+      </c>
+      <c r="M23">
+        <v>1.001973980505824</v>
+      </c>
+      <c r="N23">
+        <v>1.001973980505824</v>
+      </c>
+      <c r="O23">
+        <v>1.000740231517839</v>
+      </c>
+      <c r="P23">
+        <v>0.9988896253103111</v>
+      </c>
+      <c r="Q23">
+        <v>1.000051997007097</v>
+      </c>
+      <c r="R23">
+        <v>0.9999177437088154</v>
+      </c>
+      <c r="S23">
+        <v>0.9990476710389921</v>
+      </c>
+      <c r="T23">
+        <v>0.9999177437088154</v>
+      </c>
+      <c r="U23">
+        <v>0.9997792484057</v>
+      </c>
+      <c r="V23">
+        <v>1.000218194825725</v>
+      </c>
+      <c r="W23">
+        <v>0.999804859570094</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000510962408722</v>
+      </c>
+      <c r="D24">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="E24">
+        <v>0.9992335485138972</v>
+      </c>
+      <c r="F24">
+        <v>0.9992335485138972</v>
+      </c>
+      <c r="G24">
+        <v>0.9998467086274522</v>
+      </c>
+      <c r="H24">
+        <v>0.999501654835354</v>
+      </c>
+      <c r="I24">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="J24">
+        <v>0.9998353086512839</v>
+      </c>
+      <c r="K24">
+        <v>1.000284495281437</v>
+      </c>
+      <c r="L24">
+        <v>1.000510962408722</v>
+      </c>
+      <c r="M24">
+        <v>1.000510962408722</v>
+      </c>
+      <c r="N24">
+        <v>1.000510962408722</v>
+      </c>
+      <c r="O24">
+        <v>1.000191609808738</v>
+      </c>
+      <c r="P24">
+        <v>0.9997125791613178</v>
+      </c>
+      <c r="Q24">
+        <v>1.000013459230011</v>
+      </c>
+      <c r="R24">
+        <v>0.9999787069104524</v>
+      </c>
+      <c r="S24">
+        <v>0.9997534889913066</v>
+      </c>
+      <c r="T24">
+        <v>0.9999787069104524</v>
+      </c>
+      <c r="U24">
+        <v>0.9999428573456604</v>
+      </c>
+      <c r="V24">
+        <v>1.000056478358273</v>
+      </c>
+      <c r="W24">
+        <v>0.999949487241953</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000837139764808</v>
+      </c>
+      <c r="D25">
+        <v>1.000313923165884</v>
+      </c>
+      <c r="E25">
+        <v>0.9987442807092567</v>
+      </c>
+      <c r="F25">
+        <v>0.9987442807092567</v>
+      </c>
+      <c r="G25">
+        <v>0.9997488485650017</v>
+      </c>
+      <c r="H25">
+        <v>0.9991835227910197</v>
+      </c>
+      <c r="I25">
+        <v>1.000313923165884</v>
+      </c>
+      <c r="J25">
+        <v>0.9997301780566142</v>
+      </c>
+      <c r="K25">
+        <v>1.000466116765095</v>
+      </c>
+      <c r="L25">
+        <v>1.000837139764808</v>
+      </c>
+      <c r="M25">
+        <v>1.000837139764808</v>
+      </c>
+      <c r="N25">
+        <v>1.000837139764808</v>
+      </c>
+      <c r="O25">
+        <v>1.000313923165884</v>
+      </c>
+      <c r="P25">
+        <v>0.9995291019375705</v>
+      </c>
+      <c r="Q25">
+        <v>1.000022050611249</v>
+      </c>
+      <c r="R25">
+        <v>0.9999651145466496</v>
+      </c>
+      <c r="S25">
+        <v>0.9995961273105851</v>
+      </c>
+      <c r="T25">
+        <v>0.9999651145466496</v>
+      </c>
+      <c r="U25">
+        <v>0.9999063804241408</v>
+      </c>
+      <c r="V25">
+        <v>1.000092532292274</v>
+      </c>
+      <c r="W25">
+        <v>0.9999172416229455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000214833475117</v>
+      </c>
+      <c r="D26">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="E26">
+        <v>0.9996777471256532</v>
+      </c>
+      <c r="F26">
+        <v>0.9996777471256532</v>
+      </c>
+      <c r="G26">
+        <v>0.9999355521689823</v>
+      </c>
+      <c r="H26">
+        <v>0.999790476102181</v>
+      </c>
+      <c r="I26">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="J26">
+        <v>0.9999307565356758</v>
+      </c>
+      <c r="K26">
+        <v>1.000119613309008</v>
+      </c>
+      <c r="L26">
+        <v>1.000214833475117</v>
+      </c>
+      <c r="M26">
+        <v>1.000214833475117</v>
+      </c>
+      <c r="N26">
+        <v>1.000214833475117</v>
+      </c>
+      <c r="O26">
+        <v>1.000080556694701</v>
+      </c>
+      <c r="P26">
+        <v>0.9998791519101771</v>
+      </c>
+      <c r="Q26">
+        <v>1.000005656615188</v>
+      </c>
+      <c r="R26">
+        <v>0.999991045765157</v>
+      </c>
+      <c r="S26">
+        <v>0.99989635345201</v>
+      </c>
+      <c r="T26">
+        <v>0.999991045765157</v>
+      </c>
+      <c r="U26">
+        <v>0.9999759734577867</v>
+      </c>
+      <c r="V26">
+        <v>1.000023745461253</v>
+      </c>
+      <c r="W26">
+        <v>0.9999787615132523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9993607651568207</v>
+      </c>
+      <c r="D27">
+        <v>0.9997602810726716</v>
+      </c>
+      <c r="E27">
+        <v>1.000958862078786</v>
+      </c>
+      <c r="F27">
+        <v>1.000958862078786</v>
+      </c>
+      <c r="G27">
+        <v>1.000191763533492</v>
+      </c>
+      <c r="H27">
+        <v>1.000623466262156</v>
+      </c>
+      <c r="I27">
+        <v>0.9997602810726716</v>
+      </c>
+      <c r="J27">
+        <v>1.00020605222013</v>
+      </c>
+      <c r="K27">
+        <v>0.9996440805692324</v>
+      </c>
+      <c r="L27">
+        <v>0.9993607651568207</v>
+      </c>
+      <c r="M27">
+        <v>0.9993607651568207</v>
+      </c>
+      <c r="N27">
+        <v>0.9993607651568207</v>
+      </c>
+      <c r="O27">
+        <v>0.9997602810726716</v>
+      </c>
+      <c r="P27">
+        <v>1.000359571575729</v>
+      </c>
+      <c r="Q27">
+        <v>0.9999831666464007</v>
+      </c>
+      <c r="R27">
+        <v>1.000026636102759</v>
+      </c>
+      <c r="S27">
+        <v>1.000308398457196</v>
+      </c>
+      <c r="T27">
+        <v>1.000026636102759</v>
+      </c>
+      <c r="U27">
+        <v>1.000071490132102</v>
+      </c>
+      <c r="V27">
+        <v>0.9999293451370457</v>
+      </c>
+      <c r="W27">
+        <v>1.000063193995745</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9996913660395372</v>
+      </c>
+      <c r="D28">
+        <v>0.9998842584803305</v>
+      </c>
+      <c r="E28">
+        <v>1.00046294553372</v>
+      </c>
+      <c r="F28">
+        <v>1.00046294553372</v>
+      </c>
+      <c r="G28">
+        <v>1.000092590110123</v>
+      </c>
+      <c r="H28">
+        <v>1.000301022873457</v>
+      </c>
+      <c r="I28">
+        <v>0.9998842584803305</v>
+      </c>
+      <c r="J28">
+        <v>1.000099484877981</v>
+      </c>
+      <c r="K28">
+        <v>0.9998281590037127</v>
+      </c>
+      <c r="L28">
+        <v>0.9996913660395372</v>
+      </c>
+      <c r="M28">
+        <v>0.9996913660395372</v>
+      </c>
+      <c r="N28">
+        <v>0.9996913660395372</v>
+      </c>
+      <c r="O28">
+        <v>0.9998842584803305</v>
+      </c>
+      <c r="P28">
+        <v>1.000173602007025</v>
+      </c>
+      <c r="Q28">
+        <v>0.9999918716791558</v>
+      </c>
+      <c r="R28">
+        <v>1.000012856684529</v>
+      </c>
+      <c r="S28">
+        <v>1.000148896297344</v>
+      </c>
+      <c r="T28">
+        <v>1.000012856684529</v>
+      </c>
+      <c r="U28">
+        <v>1.000034513732892</v>
+      </c>
+      <c r="V28">
+        <v>0.9999658841942211</v>
+      </c>
+      <c r="W28">
+        <v>1.000030510674899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.001649110319751</v>
+      </c>
+      <c r="D29">
+        <v>1.000618414572511</v>
+      </c>
+      <c r="E29">
+        <v>0.9975263254883394</v>
+      </c>
+      <c r="F29">
+        <v>0.9975263254883394</v>
+      </c>
+      <c r="G29">
+        <v>0.9995052748540258</v>
+      </c>
+      <c r="H29">
+        <v>0.9983916241450359</v>
+      </c>
+      <c r="I29">
+        <v>1.000618414572511</v>
+      </c>
+      <c r="J29">
+        <v>0.9994684781130416</v>
+      </c>
+      <c r="K29">
+        <v>1.00091819871501</v>
+      </c>
+      <c r="L29">
+        <v>1.001649110319751</v>
+      </c>
+      <c r="M29">
+        <v>1.001649110319751</v>
+      </c>
+      <c r="N29">
+        <v>1.001649110319751</v>
+      </c>
+      <c r="O29">
+        <v>1.000618414572511</v>
+      </c>
+      <c r="P29">
+        <v>0.9990723700304251</v>
+      </c>
+      <c r="Q29">
+        <v>1.000043446342776</v>
+      </c>
+      <c r="R29">
+        <v>0.9999312834602004</v>
+      </c>
+      <c r="S29">
+        <v>0.9992044060579639</v>
+      </c>
+      <c r="T29">
+        <v>0.9999312834602007</v>
+      </c>
+      <c r="U29">
+        <v>0.9998155821234109</v>
+      </c>
+      <c r="V29">
+        <v>1.000182287762679</v>
+      </c>
+      <c r="W29">
+        <v>0.9998369800975282</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9984769514330089</v>
+        <v>0.9984987930876641</v>
       </c>
       <c r="D4">
-        <v>0.9994288549301197</v>
+        <v>0.9994370453177859</v>
       </c>
       <c r="E4">
-        <v>1.002284574898143</v>
+        <v>1.002251808759188</v>
       </c>
       <c r="F4">
-        <v>1.002284574898143</v>
+        <v>1.002251808759188</v>
       </c>
       <c r="G4">
-        <v>1.000456918182187</v>
+        <v>1.000450363390023</v>
       </c>
       <c r="H4">
-        <v>1.001485446950251</v>
+        <v>1.001464143203627</v>
       </c>
       <c r="I4">
-        <v>0.9994288549301197</v>
+        <v>0.9994370453177859</v>
       </c>
       <c r="J4">
-        <v>1.000490903340861</v>
+        <v>1.000483861794549</v>
       </c>
       <c r="K4">
-        <v>0.999151987744565</v>
+        <v>0.9991641485292643</v>
       </c>
       <c r="L4">
-        <v>0.9984769514330089</v>
+        <v>0.9984987930876641</v>
       </c>
       <c r="M4">
-        <v>0.9984769514330089</v>
+        <v>0.9984987930876641</v>
       </c>
       <c r="N4">
-        <v>0.9984769514330089</v>
+        <v>0.9984987930876641</v>
       </c>
       <c r="O4">
-        <v>0.9994288549301197</v>
+        <v>0.9994370453177859</v>
       </c>
       <c r="P4">
-        <v>1.000856714914131</v>
+        <v>1.000844427038487</v>
       </c>
       <c r="Q4">
-        <v>0.9999598791354902</v>
+        <v>0.9999604535561676</v>
       </c>
       <c r="R4">
-        <v>1.000063460420424</v>
+        <v>1.000062549054879</v>
       </c>
       <c r="S4">
-        <v>1.000734777723041</v>
+        <v>1.000724238623841</v>
       </c>
       <c r="T4">
-        <v>1.000063460420424</v>
+        <v>1.000062549054879</v>
       </c>
       <c r="U4">
-        <v>1.000170321150533</v>
+        <v>1.000167877239797</v>
       </c>
       <c r="V4">
-        <v>0.9998316472070282</v>
+        <v>0.9998340604093702</v>
       </c>
       <c r="W4">
-        <v>1.000150561551157</v>
+        <v>1.000148401174986</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9981415665057645</v>
+        <v>0.9962811790291193</v>
       </c>
       <c r="D5">
-        <v>0.9993030852161375</v>
+        <v>0.9986054374681811</v>
       </c>
       <c r="E5">
-        <v>1.002787649308359</v>
+        <v>1.005578233833856</v>
       </c>
       <c r="F5">
-        <v>1.002787649308359</v>
+        <v>1.005578233833856</v>
       </c>
       <c r="G5">
-        <v>1.000557532046107</v>
+        <v>1.001115647722131</v>
       </c>
       <c r="H5">
-        <v>1.001812550857347</v>
+        <v>1.003627012899327</v>
       </c>
       <c r="I5">
-        <v>0.9993030852161375</v>
+        <v>0.9986054374681811</v>
       </c>
       <c r="J5">
-        <v>1.000599000814119</v>
+        <v>1.001198635452048</v>
       </c>
       <c r="K5">
-        <v>0.9989652493587883</v>
+        <v>0.9979294096124299</v>
       </c>
       <c r="L5">
-        <v>0.9981415665057645</v>
+        <v>0.9962811790291193</v>
       </c>
       <c r="M5">
-        <v>0.9981415665057645</v>
+        <v>0.9962811790291193</v>
       </c>
       <c r="N5">
-        <v>0.9981415665057645</v>
+        <v>0.9962811790291193</v>
       </c>
       <c r="O5">
-        <v>0.9993030852161375</v>
+        <v>0.9986054374681811</v>
       </c>
       <c r="P5">
-        <v>1.001045367262248</v>
+        <v>1.002091835651019</v>
       </c>
       <c r="Q5">
-        <v>0.9999510430151282</v>
+        <v>0.9999020364601146</v>
       </c>
       <c r="R5">
-        <v>1.000077433676754</v>
+        <v>1.000154950110385</v>
       </c>
       <c r="S5">
-        <v>1.000896578446205</v>
+        <v>1.001794102251362</v>
       </c>
       <c r="T5">
-        <v>1.000077433676754</v>
+        <v>1.000154950110385</v>
       </c>
       <c r="U5">
-        <v>1.000207825461095</v>
+        <v>1.000415871445801</v>
       </c>
       <c r="V5">
-        <v>0.9997945736700288</v>
+        <v>0.9995889329624648</v>
       </c>
       <c r="W5">
-        <v>1.000183714915345</v>
+        <v>1.000367624185659</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9938829813037207</v>
+        <v>0.9984769514330089</v>
       </c>
       <c r="D6">
-        <v>0.9977061151255572</v>
+        <v>0.9994288549301197</v>
       </c>
       <c r="E6">
-        <v>1.009175534782979</v>
+        <v>1.002284574898143</v>
       </c>
       <c r="F6">
-        <v>1.009175534782979</v>
+        <v>1.002284574898143</v>
       </c>
       <c r="G6">
-        <v>1.001835117875194</v>
+        <v>1.000456918182187</v>
       </c>
       <c r="H6">
-        <v>1.005966002429118</v>
+        <v>1.001485446950251</v>
       </c>
       <c r="I6">
-        <v>0.9977061151255572</v>
+        <v>0.9994288549301197</v>
       </c>
       <c r="J6">
-        <v>1.00197159776447</v>
+        <v>1.000490903340861</v>
       </c>
       <c r="K6">
-        <v>0.9965941235752499</v>
+        <v>0.999151987744565</v>
       </c>
       <c r="L6">
-        <v>0.9938829813037207</v>
+        <v>0.9984769514330089</v>
       </c>
       <c r="M6">
-        <v>0.9938829813037207</v>
+        <v>0.9984769514330089</v>
       </c>
       <c r="N6">
-        <v>0.9938829813037207</v>
+        <v>0.9984769514330089</v>
       </c>
       <c r="O6">
-        <v>0.9977061151255572</v>
+        <v>0.9994288549301197</v>
       </c>
       <c r="P6">
-        <v>1.003440824954268</v>
+        <v>1.000856714914131</v>
       </c>
       <c r="Q6">
-        <v>0.9998388564450138</v>
+        <v>0.9999598791354902</v>
       </c>
       <c r="R6">
-        <v>1.000254877070752</v>
+        <v>1.000063460420424</v>
       </c>
       <c r="S6">
-        <v>1.002951082557669</v>
+        <v>1.000734777723041</v>
       </c>
       <c r="T6">
-        <v>1.000254877070752</v>
+        <v>1.000063460420424</v>
       </c>
       <c r="U6">
-        <v>1.000684057244182</v>
+        <v>1.000170321150533</v>
       </c>
       <c r="V6">
-        <v>0.9993238420560896</v>
+        <v>0.9998316472070282</v>
       </c>
       <c r="W6">
-        <v>1.000604698497731</v>
+        <v>1.000150561551157</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997994748220844</v>
+        <v>0.9981415665057645</v>
       </c>
       <c r="D7">
-        <v>0.999924800976598</v>
+        <v>0.9993030852161375</v>
       </c>
       <c r="E7">
-        <v>1.000300786687183</v>
+        <v>1.002787649308359</v>
       </c>
       <c r="F7">
-        <v>1.000300786687183</v>
+        <v>1.002787649308359</v>
       </c>
       <c r="G7">
-        <v>1.000060158270629</v>
+        <v>1.000557532046107</v>
       </c>
       <c r="H7">
-        <v>1.000195575659715</v>
+        <v>1.001812550857347</v>
       </c>
       <c r="I7">
-        <v>0.999924800976598</v>
+        <v>0.9993030852161375</v>
       </c>
       <c r="J7">
-        <v>1.000064634954088</v>
+        <v>1.000599000814119</v>
       </c>
       <c r="K7">
-        <v>0.9998883510844252</v>
+        <v>0.9989652493587883</v>
       </c>
       <c r="L7">
-        <v>0.9997994748220844</v>
+        <v>0.9981415665057645</v>
       </c>
       <c r="M7">
-        <v>0.9997994748220844</v>
+        <v>0.9981415665057645</v>
       </c>
       <c r="N7">
-        <v>0.9997994748220844</v>
+        <v>0.9981415665057645</v>
       </c>
       <c r="O7">
-        <v>0.999924800976598</v>
+        <v>0.9993030852161375</v>
       </c>
       <c r="P7">
-        <v>1.000112793831891</v>
+        <v>1.001045367262248</v>
       </c>
       <c r="Q7">
-        <v>0.9999947179653429</v>
+        <v>0.9999510430151282</v>
       </c>
       <c r="R7">
-        <v>1.000008354161955</v>
+        <v>1.000077433676754</v>
       </c>
       <c r="S7">
-        <v>1.000096740872623</v>
+        <v>1.000896578446205</v>
       </c>
       <c r="T7">
-        <v>1.000008354161955</v>
+        <v>1.000077433676754</v>
       </c>
       <c r="U7">
-        <v>1.000022424359988</v>
+        <v>1.000207825461095</v>
       </c>
       <c r="V7">
-        <v>0.9999778344524074</v>
+        <v>0.9997945736700288</v>
       </c>
       <c r="W7">
-        <v>1.000019822928915</v>
+        <v>1.000183714915345</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999847590794553</v>
+        <v>0.9938829813037207</v>
       </c>
       <c r="D8">
-        <v>0.9999942823118148</v>
+        <v>0.9977061151255572</v>
       </c>
       <c r="E8">
-        <v>1.000022860889109</v>
+        <v>1.009175534782979</v>
       </c>
       <c r="F8">
-        <v>1.000022860889109</v>
+        <v>1.009175534782979</v>
       </c>
       <c r="G8">
-        <v>1.000004573901233</v>
+        <v>1.001835117875194</v>
       </c>
       <c r="H8">
-        <v>1.000014866381563</v>
+        <v>1.005966002429118</v>
       </c>
       <c r="I8">
-        <v>0.9999942823118148</v>
+        <v>0.9977061151255572</v>
       </c>
       <c r="J8">
-        <v>1.000004914580285</v>
+        <v>1.00197159776447</v>
       </c>
       <c r="K8">
-        <v>0.9999915146827326</v>
+        <v>0.9965941235752499</v>
       </c>
       <c r="L8">
-        <v>0.9999847590794553</v>
+        <v>0.9938829813037207</v>
       </c>
       <c r="M8">
-        <v>0.9999847590794553</v>
+        <v>0.9938829813037207</v>
       </c>
       <c r="N8">
-        <v>0.9999847590794553</v>
+        <v>0.9938829813037207</v>
       </c>
       <c r="O8">
-        <v>0.9999942823118148</v>
+        <v>0.9977061151255572</v>
       </c>
       <c r="P8">
-        <v>1.000008571600462</v>
+        <v>1.003440824954268</v>
       </c>
       <c r="Q8">
-        <v>0.9999995984460497</v>
+        <v>0.9998388564450138</v>
       </c>
       <c r="R8">
-        <v>1.00000063409346</v>
+        <v>1.000254877070752</v>
       </c>
       <c r="S8">
-        <v>1.000007352593736</v>
+        <v>1.002951082557669</v>
       </c>
       <c r="T8">
-        <v>1.00000063409346</v>
+        <v>1.000254877070752</v>
       </c>
       <c r="U8">
-        <v>1.000001704215166</v>
+        <v>1.000684057244182</v>
       </c>
       <c r="V8">
-        <v>0.9999983151880236</v>
+        <v>0.9993238420560896</v>
       </c>
       <c r="W8">
-        <v>1.000001506767251</v>
+        <v>1.000604698497731</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9996635724826169</v>
+        <v>0.9997994748220844</v>
       </c>
       <c r="D9">
-        <v>0.9998738360111311</v>
+        <v>0.999924800976598</v>
       </c>
       <c r="E9">
-        <v>1.000504640242135</v>
+        <v>1.000300786687183</v>
       </c>
       <c r="F9">
-        <v>1.000504640242135</v>
+        <v>1.000300786687183</v>
       </c>
       <c r="G9">
-        <v>1.000100930074948</v>
+        <v>1.000060158270629</v>
       </c>
       <c r="H9">
-        <v>1.000328124984863</v>
+        <v>1.000195575659715</v>
       </c>
       <c r="I9">
-        <v>0.9998738360111311</v>
+        <v>0.999924800976598</v>
       </c>
       <c r="J9">
-        <v>1.00010843726305</v>
+        <v>1.000064634954088</v>
       </c>
       <c r="K9">
-        <v>0.999812681300685</v>
+        <v>0.9998883510844252</v>
       </c>
       <c r="L9">
-        <v>0.9996635724826169</v>
+        <v>0.9997994748220844</v>
       </c>
       <c r="M9">
-        <v>0.9996635724826169</v>
+        <v>0.9997994748220844</v>
       </c>
       <c r="N9">
-        <v>0.9996635724826169</v>
+        <v>0.9997994748220844</v>
       </c>
       <c r="O9">
-        <v>0.9998738360111311</v>
+        <v>0.999924800976598</v>
       </c>
       <c r="P9">
-        <v>1.000189238126633</v>
+        <v>1.000112793831891</v>
       </c>
       <c r="Q9">
-        <v>0.9999911366370906</v>
+        <v>0.9999947179653429</v>
       </c>
       <c r="R9">
-        <v>1.000014016245294</v>
+        <v>1.000008354161955</v>
       </c>
       <c r="S9">
-        <v>1.000162304505439</v>
+        <v>1.000096740872623</v>
       </c>
       <c r="T9">
-        <v>1.000014016245294</v>
+        <v>1.000008354161955</v>
       </c>
       <c r="U9">
-        <v>1.000037621499733</v>
+        <v>1.000022424359988</v>
       </c>
       <c r="V9">
-        <v>0.99996281169631</v>
+        <v>0.9999778344524074</v>
       </c>
       <c r="W9">
-        <v>1.00003325729632</v>
+        <v>1.000019822928915</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9937920257023461</v>
+        <v>0.9999847590794553</v>
       </c>
       <c r="D10">
-        <v>0.9976720062917414</v>
+        <v>0.9999942823118148</v>
       </c>
       <c r="E10">
-        <v>1.009311966556355</v>
+        <v>1.000022860889109</v>
       </c>
       <c r="F10">
-        <v>1.009311966556355</v>
+        <v>1.000022860889109</v>
       </c>
       <c r="G10">
-        <v>1.001862403726937</v>
+        <v>1.000004573901233</v>
       </c>
       <c r="H10">
-        <v>1.006054711976385</v>
+        <v>1.000014866381563</v>
       </c>
       <c r="I10">
-        <v>0.9976720062917414</v>
+        <v>0.9999942823118148</v>
       </c>
       <c r="J10">
-        <v>1.002000913449703</v>
+        <v>1.000004914580285</v>
       </c>
       <c r="K10">
-        <v>0.9965434808890254</v>
+        <v>0.9999915146827326</v>
       </c>
       <c r="L10">
-        <v>0.9937920257023461</v>
+        <v>0.9999847590794553</v>
       </c>
       <c r="M10">
-        <v>0.9937920257023461</v>
+        <v>0.9999847590794553</v>
       </c>
       <c r="N10">
-        <v>0.9937920257023461</v>
+        <v>0.9999847590794553</v>
       </c>
       <c r="O10">
-        <v>0.9976720062917414</v>
+        <v>0.9999942823118148</v>
       </c>
       <c r="P10">
-        <v>1.003491986424048</v>
+        <v>1.000008571600462</v>
       </c>
       <c r="Q10">
-        <v>0.9998364598707223</v>
+        <v>0.9999995984460497</v>
       </c>
       <c r="R10">
-        <v>1.000258666183481</v>
+        <v>1.00000063409346</v>
       </c>
       <c r="S10">
-        <v>1.002994962099266</v>
+        <v>1.000007352593736</v>
       </c>
       <c r="T10">
-        <v>1.000258666183481</v>
+        <v>1.00000063409346</v>
       </c>
       <c r="U10">
-        <v>1.000694228000036</v>
+        <v>1.000001704215166</v>
       </c>
       <c r="V10">
-        <v>0.9993137875404983</v>
+        <v>0.9999983151880236</v>
       </c>
       <c r="W10">
-        <v>1.00061368936053</v>
+        <v>1.000001506767251</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9990712900345293</v>
+        <v>0.9996635724826169</v>
       </c>
       <c r="D11">
-        <v>0.9996517319527416</v>
+        <v>0.9998738360111311</v>
       </c>
       <c r="E11">
-        <v>1.001393070206544</v>
+        <v>1.000504640242135</v>
       </c>
       <c r="F11">
-        <v>1.001393070206544</v>
+        <v>1.000504640242135</v>
       </c>
       <c r="G11">
-        <v>1.000278616681341</v>
+        <v>1.000100930074948</v>
       </c>
       <c r="H11">
-        <v>1.000905783252926</v>
+        <v>1.000328124984863</v>
       </c>
       <c r="I11">
-        <v>0.9996517319527416</v>
+        <v>0.9998738360111311</v>
       </c>
       <c r="J11">
-        <v>1.000299339397384</v>
+        <v>1.00010843726305</v>
       </c>
       <c r="K11">
-        <v>0.9994829083120375</v>
+        <v>0.999812681300685</v>
       </c>
       <c r="L11">
-        <v>0.9990712900345293</v>
+        <v>0.9996635724826169</v>
       </c>
       <c r="M11">
-        <v>0.9990712900345293</v>
+        <v>0.9996635724826169</v>
       </c>
       <c r="N11">
-        <v>0.9990712900345293</v>
+        <v>0.9996635724826169</v>
       </c>
       <c r="O11">
-        <v>0.9996517319527416</v>
+        <v>0.9998738360111311</v>
       </c>
       <c r="P11">
-        <v>1.000522401079643</v>
+        <v>1.000189238126633</v>
       </c>
       <c r="Q11">
-        <v>0.9999755356750628</v>
+        <v>0.9999911366370906</v>
       </c>
       <c r="R11">
-        <v>1.000038697397938</v>
+        <v>1.000014016245294</v>
       </c>
       <c r="S11">
-        <v>1.000448047185557</v>
+        <v>1.000162304505439</v>
       </c>
       <c r="T11">
-        <v>1.000038697397938</v>
+        <v>1.000014016245294</v>
       </c>
       <c r="U11">
-        <v>1.0001038578978</v>
+        <v>1.000037621499733</v>
       </c>
       <c r="V11">
-        <v>0.9998973443251457</v>
+        <v>0.99996281169631</v>
       </c>
       <c r="W11">
-        <v>1.000091808973781</v>
+        <v>1.00003325729632</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9981229514631579</v>
+        <v>0.9937920257023461</v>
       </c>
       <c r="D12">
-        <v>0.9992961035578966</v>
+        <v>0.9976720062917414</v>
       </c>
       <c r="E12">
-        <v>1.002815568589478</v>
+        <v>1.009311966556355</v>
       </c>
       <c r="F12">
-        <v>1.002815568589478</v>
+        <v>1.009311966556355</v>
       </c>
       <c r="G12">
-        <v>1.000563115389475</v>
+        <v>1.001862403726937</v>
       </c>
       <c r="H12">
-        <v>1.001830705526315</v>
+        <v>1.006054711976385</v>
       </c>
       <c r="I12">
-        <v>0.9992961035578966</v>
+        <v>0.9976720062917414</v>
       </c>
       <c r="J12">
-        <v>1.000604999526313</v>
+        <v>1.002000913449703</v>
       </c>
       <c r="K12">
-        <v>0.9989548847999994</v>
+        <v>0.9965434808890254</v>
       </c>
       <c r="L12">
-        <v>0.9981229514631579</v>
+        <v>0.9937920257023461</v>
       </c>
       <c r="M12">
-        <v>0.9981229514631579</v>
+        <v>0.9937920257023461</v>
       </c>
       <c r="N12">
-        <v>0.9981229514631579</v>
+        <v>0.9937920257023461</v>
       </c>
       <c r="O12">
-        <v>0.9992961035578966</v>
+        <v>0.9976720062917414</v>
       </c>
       <c r="P12">
-        <v>1.001055836073687</v>
+        <v>1.003491986424048</v>
       </c>
       <c r="Q12">
-        <v>0.9999505515421048</v>
+        <v>0.9998364598707223</v>
       </c>
       <c r="R12">
-        <v>1.000078207870177</v>
+        <v>1.000258666183481</v>
       </c>
       <c r="S12">
-        <v>1.000905557224562</v>
+        <v>1.002994962099266</v>
       </c>
       <c r="T12">
-        <v>1.000078207870177</v>
+        <v>1.000258666183481</v>
       </c>
       <c r="U12">
-        <v>1.000209905784211</v>
+        <v>1.000694228000036</v>
       </c>
       <c r="V12">
-        <v>0.9997925149200005</v>
+        <v>0.9993137875404983</v>
       </c>
       <c r="W12">
-        <v>1.000185554051316</v>
+        <v>1.00061368936053</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.001220946231499</v>
+        <v>0.9990712900345293</v>
       </c>
       <c r="D13">
-        <v>1.000457850281797</v>
+        <v>0.9996517319527416</v>
       </c>
       <c r="E13">
-        <v>0.9981685745788971</v>
+        <v>1.001393070206544</v>
       </c>
       <c r="F13">
-        <v>0.9981685745788971</v>
+        <v>1.001393070206544</v>
       </c>
       <c r="G13">
-        <v>0.9996337148187795</v>
+        <v>1.000278616681341</v>
       </c>
       <c r="H13">
-        <v>0.9988092001168082</v>
+        <v>1.000905783252926</v>
       </c>
       <c r="I13">
-        <v>1.000457850281797</v>
+        <v>0.9996517319527416</v>
       </c>
       <c r="J13">
-        <v>0.9996064725590084</v>
+        <v>1.000299339397384</v>
       </c>
       <c r="K13">
-        <v>1.000679807897337</v>
+        <v>0.9994829083120375</v>
       </c>
       <c r="L13">
-        <v>1.001220946231499</v>
+        <v>0.9990712900345293</v>
       </c>
       <c r="M13">
-        <v>1.001220946231499</v>
+        <v>0.9990712900345293</v>
       </c>
       <c r="N13">
-        <v>1.001220946231499</v>
+        <v>0.9990712900345293</v>
       </c>
       <c r="O13">
-        <v>1.000457850281797</v>
+        <v>0.9996517319527416</v>
       </c>
       <c r="P13">
-        <v>0.9993132124303471</v>
+        <v>1.000522401079643</v>
       </c>
       <c r="Q13">
-        <v>1.000032161420403</v>
+        <v>0.9999755356750628</v>
       </c>
       <c r="R13">
-        <v>0.9999491236973977</v>
+        <v>1.000038697397938</v>
       </c>
       <c r="S13">
-        <v>0.9994109658065676</v>
+        <v>1.000448047185557</v>
       </c>
       <c r="T13">
-        <v>0.9999491236973977</v>
+        <v>1.000038697397938</v>
       </c>
       <c r="U13">
-        <v>0.9998634609128004</v>
+        <v>1.0001038578978</v>
       </c>
       <c r="V13">
-        <v>1.00013495797654</v>
+        <v>0.9998973443251457</v>
       </c>
       <c r="W13">
-        <v>0.9998793020957406</v>
+        <v>1.000091808973781</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9892744099999995</v>
+        <v>0.9981229514631579</v>
       </c>
       <c r="D14">
-        <v>0.9959779000000001</v>
+        <v>0.9992961035578966</v>
       </c>
       <c r="E14">
-        <v>1.016088400000001</v>
+        <v>1.002815568589478</v>
       </c>
       <c r="F14">
-        <v>1.016088400000001</v>
+        <v>1.002815568589478</v>
       </c>
       <c r="G14">
-        <v>1.0032177</v>
+        <v>1.000563115389475</v>
       </c>
       <c r="H14">
-        <v>1.010460799999999</v>
+        <v>1.001830705526315</v>
       </c>
       <c r="I14">
-        <v>0.9959779000000001</v>
+        <v>0.9992961035578966</v>
       </c>
       <c r="J14">
-        <v>1.003456999999999</v>
+        <v>1.000604999526313</v>
       </c>
       <c r="K14">
-        <v>0.9940281299999989</v>
+        <v>0.9989548847999994</v>
       </c>
       <c r="L14">
-        <v>0.9892744099999995</v>
+        <v>0.9981229514631579</v>
       </c>
       <c r="M14">
-        <v>0.9892744099999995</v>
+        <v>0.9981229514631579</v>
       </c>
       <c r="N14">
-        <v>0.9892744099999995</v>
+        <v>0.9981229514631579</v>
       </c>
       <c r="O14">
-        <v>0.9959779000000001</v>
+        <v>0.9992961035578966</v>
       </c>
       <c r="P14">
-        <v>1.00603315</v>
+        <v>1.001055836073687</v>
       </c>
       <c r="Q14">
-        <v>0.9997174499999995</v>
+        <v>0.9999505515421048</v>
       </c>
       <c r="R14">
-        <v>1.000446903333333</v>
+        <v>1.000078207870177</v>
       </c>
       <c r="S14">
-        <v>1.005174433333333</v>
+        <v>1.000905557224562</v>
       </c>
       <c r="T14">
-        <v>1.000446903333333</v>
+        <v>1.000078207870177</v>
       </c>
       <c r="U14">
-        <v>1.0011994275</v>
+        <v>1.000209905784211</v>
       </c>
       <c r="V14">
-        <v>0.9988144239999996</v>
+        <v>0.9997925149200005</v>
       </c>
       <c r="W14">
-        <v>1.001060279999999</v>
+        <v>1.000185554051316</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.98927441</v>
+        <v>1.001220946231499</v>
       </c>
       <c r="D15">
-        <v>0.9959779000000001</v>
+        <v>1.000457850281797</v>
       </c>
       <c r="E15">
-        <v>1.0160884</v>
+        <v>0.9981685745788971</v>
       </c>
       <c r="F15">
-        <v>1.0160884</v>
+        <v>0.9981685745788971</v>
       </c>
       <c r="G15">
-        <v>1.0032177</v>
+        <v>0.9996337148187795</v>
       </c>
       <c r="H15">
-        <v>1.0104608</v>
+        <v>0.9988092001168082</v>
       </c>
       <c r="I15">
-        <v>0.9959779000000001</v>
+        <v>1.000457850281797</v>
       </c>
       <c r="J15">
-        <v>1.003457</v>
+        <v>0.9996064725590084</v>
       </c>
       <c r="K15">
-        <v>0.9940281299999999</v>
+        <v>1.000679807897337</v>
       </c>
       <c r="L15">
-        <v>0.98927441</v>
+        <v>1.001220946231499</v>
       </c>
       <c r="M15">
-        <v>0.98927441</v>
+        <v>1.001220946231499</v>
       </c>
       <c r="N15">
-        <v>0.98927441</v>
+        <v>1.001220946231499</v>
       </c>
       <c r="O15">
-        <v>0.9959779000000001</v>
+        <v>1.000457850281797</v>
       </c>
       <c r="P15">
-        <v>1.00603315</v>
+        <v>0.9993132124303471</v>
       </c>
       <c r="Q15">
-        <v>0.9997174500000001</v>
+        <v>1.000032161420403</v>
       </c>
       <c r="R15">
-        <v>1.000446903333333</v>
+        <v>0.9999491236973977</v>
       </c>
       <c r="S15">
-        <v>1.005174433333333</v>
+        <v>0.9994109658065676</v>
       </c>
       <c r="T15">
-        <v>1.000446903333333</v>
+        <v>0.9999491236973977</v>
       </c>
       <c r="U15">
-        <v>1.0011994275</v>
+        <v>0.9998634609128004</v>
       </c>
       <c r="V15">
-        <v>0.9988144240000001</v>
+        <v>1.00013495797654</v>
       </c>
       <c r="W15">
-        <v>1.00106028</v>
+        <v>0.9998793020957406</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,40 +1600,40 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.98927441</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="D16">
         <v>0.9959779000000001</v>
       </c>
       <c r="E16">
-        <v>1.0160884</v>
+        <v>1.016088400000001</v>
       </c>
       <c r="F16">
-        <v>1.0160884</v>
+        <v>1.016088400000001</v>
       </c>
       <c r="G16">
         <v>1.0032177</v>
       </c>
       <c r="H16">
-        <v>1.0104608</v>
+        <v>1.010460799999999</v>
       </c>
       <c r="I16">
         <v>0.9959779000000001</v>
       </c>
       <c r="J16">
-        <v>1.003457</v>
+        <v>1.003456999999999</v>
       </c>
       <c r="K16">
-        <v>0.9940281299999999</v>
+        <v>0.9940281299999989</v>
       </c>
       <c r="L16">
-        <v>0.98927441</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="M16">
-        <v>0.98927441</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="N16">
-        <v>0.98927441</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="O16">
         <v>0.9959779000000001</v>
@@ -1636,7 +1642,7 @@
         <v>1.00603315</v>
       </c>
       <c r="Q16">
-        <v>0.9997174500000001</v>
+        <v>0.9997174499999995</v>
       </c>
       <c r="R16">
         <v>1.000446903333333</v>
@@ -1651,10 +1657,10 @@
         <v>1.0011994275</v>
       </c>
       <c r="V16">
-        <v>0.9988144240000001</v>
+        <v>0.9988144239999996</v>
       </c>
       <c r="W16">
-        <v>1.00106028</v>
+        <v>1.001060279999999</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99932965</v>
+        <v>0.98927441</v>
       </c>
       <c r="D17">
-        <v>0.99974862</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="E17">
-        <v>1.0010055</v>
+        <v>1.0160884</v>
       </c>
       <c r="F17">
-        <v>1.0010055</v>
+        <v>1.0160884</v>
       </c>
       <c r="G17">
-        <v>1.0002011</v>
+        <v>1.0032177</v>
       </c>
       <c r="H17">
-        <v>1.0006538</v>
+        <v>1.0104608</v>
       </c>
       <c r="I17">
-        <v>0.99974862</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="J17">
-        <v>1.0002161</v>
+        <v>1.003457</v>
       </c>
       <c r="K17">
-        <v>0.9996267599999998</v>
+        <v>0.9940281299999999</v>
       </c>
       <c r="L17">
-        <v>0.99932965</v>
+        <v>0.98927441</v>
       </c>
       <c r="M17">
-        <v>0.99932965</v>
+        <v>0.98927441</v>
       </c>
       <c r="N17">
-        <v>0.99932965</v>
+        <v>0.98927441</v>
       </c>
       <c r="O17">
-        <v>0.99974862</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="P17">
-        <v>1.00037706</v>
+        <v>1.00603315</v>
       </c>
       <c r="Q17">
-        <v>0.99998236</v>
+        <v>0.9997174500000001</v>
       </c>
       <c r="R17">
-        <v>1.000027923333333</v>
+        <v>1.000446903333333</v>
       </c>
       <c r="S17">
-        <v>1.000323406666667</v>
+        <v>1.005174433333333</v>
       </c>
       <c r="T17">
-        <v>1.000027923333333</v>
+        <v>1.000446903333333</v>
       </c>
       <c r="U17">
-        <v>1.0000749675</v>
+        <v>1.0011994275</v>
       </c>
       <c r="V17">
-        <v>0.999925904</v>
+        <v>0.9988144240000001</v>
       </c>
       <c r="W17">
-        <v>1.00006626875</v>
+        <v>1.00106028</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9958860741095892</v>
+        <v>0.98927441</v>
       </c>
       <c r="D18">
-        <v>0.9984572731506849</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="E18">
-        <v>1.006170892054795</v>
+        <v>1.0160884</v>
       </c>
       <c r="F18">
-        <v>1.006170892054795</v>
+        <v>1.0160884</v>
       </c>
       <c r="G18">
-        <v>1.00123418</v>
+        <v>1.0032177</v>
       </c>
       <c r="H18">
-        <v>1.004012363287671</v>
+        <v>1.0104608</v>
       </c>
       <c r="I18">
-        <v>0.9984572731506849</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="J18">
-        <v>1.001325982465753</v>
+        <v>1.003457</v>
       </c>
       <c r="K18">
-        <v>0.9977094204109593</v>
+        <v>0.9940281299999999</v>
       </c>
       <c r="L18">
-        <v>0.9958860741095892</v>
+        <v>0.98927441</v>
       </c>
       <c r="M18">
-        <v>0.9958860741095892</v>
+        <v>0.98927441</v>
       </c>
       <c r="N18">
-        <v>0.9958860741095892</v>
+        <v>0.98927441</v>
       </c>
       <c r="O18">
-        <v>0.9984572731506849</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="P18">
-        <v>1.00231408260274</v>
+        <v>1.00603315</v>
       </c>
       <c r="Q18">
-        <v>0.9998916278082191</v>
+        <v>0.9997174500000001</v>
       </c>
       <c r="R18">
-        <v>1.000171413105023</v>
+        <v>1.000446903333333</v>
       </c>
       <c r="S18">
-        <v>1.001984715890411</v>
+        <v>1.005174433333333</v>
       </c>
       <c r="T18">
-        <v>1.000171413105023</v>
+        <v>1.000446903333333</v>
       </c>
       <c r="U18">
-        <v>1.000460055445205</v>
+        <v>1.0011994275</v>
       </c>
       <c r="V18">
-        <v>0.9995452591780822</v>
+        <v>0.9988144240000001</v>
       </c>
       <c r="W18">
-        <v>1.000406682328767</v>
+        <v>1.00106028</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9956250873684209</v>
+        <v>0.99932965</v>
       </c>
       <c r="D19">
-        <v>0.9983594031578947</v>
+        <v>0.99974862</v>
       </c>
       <c r="E19">
-        <v>1.006562372631579</v>
+        <v>1.0010055</v>
       </c>
       <c r="F19">
-        <v>1.006562372631579</v>
+        <v>1.0010055</v>
       </c>
       <c r="G19">
-        <v>1.001312476842105</v>
+        <v>1.0002011</v>
       </c>
       <c r="H19">
-        <v>1.004266906842105</v>
+        <v>1.0006538</v>
       </c>
       <c r="I19">
-        <v>0.9983594031578947</v>
+        <v>0.99974862</v>
       </c>
       <c r="J19">
-        <v>1.001410101578947</v>
+        <v>1.0002161</v>
       </c>
       <c r="K19">
-        <v>0.9975641063157894</v>
+        <v>0.9996267599999998</v>
       </c>
       <c r="L19">
-        <v>0.9956250873684209</v>
+        <v>0.99932965</v>
       </c>
       <c r="M19">
-        <v>0.9956250873684209</v>
+        <v>0.99932965</v>
       </c>
       <c r="N19">
-        <v>0.9956250873684209</v>
+        <v>0.99932965</v>
       </c>
       <c r="O19">
-        <v>0.9983594031578947</v>
+        <v>0.99974862</v>
       </c>
       <c r="P19">
-        <v>1.002460887894737</v>
+        <v>1.00037706</v>
       </c>
       <c r="Q19">
-        <v>0.9998847523684211</v>
+        <v>0.99998236</v>
       </c>
       <c r="R19">
-        <v>1.000182287719298</v>
+        <v>1.000027923333333</v>
       </c>
       <c r="S19">
-        <v>1.002110625789474</v>
+        <v>1.000323406666667</v>
       </c>
       <c r="T19">
-        <v>1.000182287719298</v>
+        <v>1.000027923333333</v>
       </c>
       <c r="U19">
-        <v>1.000489241184211</v>
+        <v>1.0000749675</v>
       </c>
       <c r="V19">
-        <v>0.9995164104210528</v>
+        <v>0.999925904</v>
       </c>
       <c r="W19">
-        <v>1.000432482236842</v>
+        <v>1.00006626875</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9956250873684209</v>
+        <v>0.9958860741095892</v>
       </c>
       <c r="D20">
-        <v>0.9983594031578947</v>
+        <v>0.9984572731506849</v>
       </c>
       <c r="E20">
-        <v>1.006562372631579</v>
+        <v>1.006170892054795</v>
       </c>
       <c r="F20">
-        <v>1.006562372631579</v>
+        <v>1.006170892054795</v>
       </c>
       <c r="G20">
-        <v>1.001312476842105</v>
+        <v>1.00123418</v>
       </c>
       <c r="H20">
-        <v>1.004266906842105</v>
+        <v>1.004012363287671</v>
       </c>
       <c r="I20">
-        <v>0.9983594031578947</v>
+        <v>0.9984572731506849</v>
       </c>
       <c r="J20">
-        <v>1.001410101578947</v>
+        <v>1.001325982465753</v>
       </c>
       <c r="K20">
-        <v>0.9975641063157894</v>
+        <v>0.9977094204109593</v>
       </c>
       <c r="L20">
-        <v>0.9956250873684209</v>
+        <v>0.9958860741095892</v>
       </c>
       <c r="M20">
-        <v>0.9956250873684209</v>
+        <v>0.9958860741095892</v>
       </c>
       <c r="N20">
-        <v>0.9956250873684209</v>
+        <v>0.9958860741095892</v>
       </c>
       <c r="O20">
-        <v>0.9983594031578947</v>
+        <v>0.9984572731506849</v>
       </c>
       <c r="P20">
-        <v>1.002460887894737</v>
+        <v>1.00231408260274</v>
       </c>
       <c r="Q20">
-        <v>0.9998847523684211</v>
+        <v>0.9998916278082191</v>
       </c>
       <c r="R20">
-        <v>1.000182287719298</v>
+        <v>1.000171413105023</v>
       </c>
       <c r="S20">
-        <v>1.002110625789474</v>
+        <v>1.001984715890411</v>
       </c>
       <c r="T20">
-        <v>1.000182287719298</v>
+        <v>1.000171413105023</v>
       </c>
       <c r="U20">
-        <v>1.000489241184211</v>
+        <v>1.000460055445205</v>
       </c>
       <c r="V20">
-        <v>0.9995164104210528</v>
+        <v>0.9995452591780822</v>
       </c>
       <c r="W20">
-        <v>1.000432482236842</v>
+        <v>1.000406682328767</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000837139764808</v>
+        <v>0.9956250873684209</v>
       </c>
       <c r="D21">
-        <v>1.000313923165885</v>
+        <v>0.9983594031578947</v>
       </c>
       <c r="E21">
-        <v>0.9987442807092567</v>
+        <v>1.006562372631579</v>
       </c>
       <c r="F21">
-        <v>0.9987442807092567</v>
+        <v>1.006562372631579</v>
       </c>
       <c r="G21">
-        <v>0.9997488485650017</v>
+        <v>1.001312476842105</v>
       </c>
       <c r="H21">
-        <v>0.9991835227910197</v>
+        <v>1.004266906842105</v>
       </c>
       <c r="I21">
-        <v>1.000313923165885</v>
+        <v>0.9983594031578947</v>
       </c>
       <c r="J21">
-        <v>0.9997301780566142</v>
+        <v>1.001410101578947</v>
       </c>
       <c r="K21">
-        <v>1.000466116765095</v>
+        <v>0.9975641063157894</v>
       </c>
       <c r="L21">
-        <v>1.000837139764808</v>
+        <v>0.9956250873684209</v>
       </c>
       <c r="M21">
-        <v>1.000837139764808</v>
+        <v>0.9956250873684209</v>
       </c>
       <c r="N21">
-        <v>1.000837139764808</v>
+        <v>0.9956250873684209</v>
       </c>
       <c r="O21">
-        <v>1.000313923165885</v>
+        <v>0.9983594031578947</v>
       </c>
       <c r="P21">
-        <v>0.9995291019375707</v>
+        <v>1.002460887894737</v>
       </c>
       <c r="Q21">
-        <v>1.000022050611249</v>
+        <v>0.9998847523684211</v>
       </c>
       <c r="R21">
-        <v>0.9999651145466498</v>
+        <v>1.000182287719298</v>
       </c>
       <c r="S21">
-        <v>0.9995961273105852</v>
+        <v>1.002110625789474</v>
       </c>
       <c r="T21">
-        <v>0.9999651145466496</v>
+        <v>1.000182287719298</v>
       </c>
       <c r="U21">
-        <v>0.9999063804241408</v>
+        <v>1.000489241184211</v>
       </c>
       <c r="V21">
-        <v>1.000092532292274</v>
+        <v>0.9995164104210528</v>
       </c>
       <c r="W21">
-        <v>0.9999172416229455</v>
+        <v>1.000432482236842</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000214833475117</v>
+        <v>0.9956250873684209</v>
       </c>
       <c r="D22">
-        <v>1.000080556694701</v>
+        <v>0.9983594031578947</v>
       </c>
       <c r="E22">
-        <v>0.9996777471256533</v>
+        <v>1.006562372631579</v>
       </c>
       <c r="F22">
-        <v>0.9996777471256533</v>
+        <v>1.006562372631579</v>
       </c>
       <c r="G22">
-        <v>0.9999355521689823</v>
+        <v>1.001312476842105</v>
       </c>
       <c r="H22">
-        <v>0.999790476102181</v>
+        <v>1.004266906842105</v>
       </c>
       <c r="I22">
-        <v>1.000080556694701</v>
+        <v>0.9983594031578947</v>
       </c>
       <c r="J22">
-        <v>0.9999307565356758</v>
+        <v>1.001410101578947</v>
       </c>
       <c r="K22">
-        <v>1.000119613309008</v>
+        <v>0.9975641063157894</v>
       </c>
       <c r="L22">
-        <v>1.000214833475117</v>
+        <v>0.9956250873684209</v>
       </c>
       <c r="M22">
-        <v>1.000214833475117</v>
+        <v>0.9956250873684209</v>
       </c>
       <c r="N22">
-        <v>1.000214833475117</v>
+        <v>0.9956250873684209</v>
       </c>
       <c r="O22">
-        <v>1.000080556694701</v>
+        <v>0.9983594031578947</v>
       </c>
       <c r="P22">
-        <v>0.9998791519101771</v>
+        <v>1.002460887894737</v>
       </c>
       <c r="Q22">
-        <v>1.000005656615188</v>
+        <v>0.9998847523684211</v>
       </c>
       <c r="R22">
-        <v>0.999991045765157</v>
+        <v>1.000182287719298</v>
       </c>
       <c r="S22">
-        <v>0.99989635345201</v>
+        <v>1.002110625789474</v>
       </c>
       <c r="T22">
-        <v>0.999991045765157</v>
+        <v>1.000182287719298</v>
       </c>
       <c r="U22">
-        <v>0.9999759734577867</v>
+        <v>1.000489241184211</v>
       </c>
       <c r="V22">
-        <v>1.000023745461253</v>
+        <v>0.9995164104210528</v>
       </c>
       <c r="W22">
-        <v>0.9999787615132525</v>
+        <v>1.000432482236842</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.001973980505824</v>
+        <v>1.000837139764808</v>
       </c>
       <c r="D23">
-        <v>1.000740231517839</v>
+        <v>1.000313923165885</v>
       </c>
       <c r="E23">
-        <v>0.9970390191027829</v>
+        <v>0.9987442807092567</v>
       </c>
       <c r="F23">
-        <v>0.9970390191027829</v>
+        <v>0.9987442807092567</v>
       </c>
       <c r="G23">
-        <v>0.9994078071395275</v>
+        <v>0.9997488485650017</v>
       </c>
       <c r="H23">
-        <v>0.9980747525289257</v>
+        <v>0.9991835227910197</v>
       </c>
       <c r="I23">
-        <v>1.000740231517839</v>
+        <v>1.000313923165885</v>
       </c>
       <c r="J23">
-        <v>0.9993637624963541</v>
+        <v>0.9997301780566142</v>
       </c>
       <c r="K23">
-        <v>1.001099091751659</v>
+        <v>1.000466116765095</v>
       </c>
       <c r="L23">
-        <v>1.001973980505824</v>
+        <v>1.000837139764808</v>
       </c>
       <c r="M23">
-        <v>1.001973980505824</v>
+        <v>1.000837139764808</v>
       </c>
       <c r="N23">
-        <v>1.001973980505824</v>
+        <v>1.000837139764808</v>
       </c>
       <c r="O23">
-        <v>1.000740231517839</v>
+        <v>1.000313923165885</v>
       </c>
       <c r="P23">
-        <v>0.9988896253103111</v>
+        <v>0.9995291019375707</v>
       </c>
       <c r="Q23">
-        <v>1.000051997007097</v>
+        <v>1.000022050611249</v>
       </c>
       <c r="R23">
-        <v>0.9999177437088154</v>
+        <v>0.9999651145466498</v>
       </c>
       <c r="S23">
-        <v>0.9990476710389921</v>
+        <v>0.9995961273105852</v>
       </c>
       <c r="T23">
-        <v>0.9999177437088154</v>
+        <v>0.9999651145466496</v>
       </c>
       <c r="U23">
-        <v>0.9997792484057</v>
+        <v>0.9999063804241408</v>
       </c>
       <c r="V23">
-        <v>1.000218194825725</v>
+        <v>1.000092532292274</v>
       </c>
       <c r="W23">
-        <v>0.999804859570094</v>
+        <v>0.9999172416229455</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000510962408722</v>
+        <v>1.000214833475117</v>
       </c>
       <c r="D24">
-        <v>1.000191609808738</v>
+        <v>1.000080556694701</v>
       </c>
       <c r="E24">
-        <v>0.9992335485138972</v>
+        <v>0.9996777471256533</v>
       </c>
       <c r="F24">
-        <v>0.9992335485138972</v>
+        <v>0.9996777471256533</v>
       </c>
       <c r="G24">
-        <v>0.9998467086274522</v>
+        <v>0.9999355521689823</v>
       </c>
       <c r="H24">
-        <v>0.999501654835354</v>
+        <v>0.999790476102181</v>
       </c>
       <c r="I24">
-        <v>1.000191609808738</v>
+        <v>1.000080556694701</v>
       </c>
       <c r="J24">
-        <v>0.9998353086512839</v>
+        <v>0.9999307565356758</v>
       </c>
       <c r="K24">
-        <v>1.000284495281437</v>
+        <v>1.000119613309008</v>
       </c>
       <c r="L24">
-        <v>1.000510962408722</v>
+        <v>1.000214833475117</v>
       </c>
       <c r="M24">
-        <v>1.000510962408722</v>
+        <v>1.000214833475117</v>
       </c>
       <c r="N24">
-        <v>1.000510962408722</v>
+        <v>1.000214833475117</v>
       </c>
       <c r="O24">
-        <v>1.000191609808738</v>
+        <v>1.000080556694701</v>
       </c>
       <c r="P24">
-        <v>0.9997125791613178</v>
+        <v>0.9998791519101771</v>
       </c>
       <c r="Q24">
-        <v>1.000013459230011</v>
+        <v>1.000005656615188</v>
       </c>
       <c r="R24">
-        <v>0.9999787069104524</v>
+        <v>0.999991045765157</v>
       </c>
       <c r="S24">
-        <v>0.9997534889913066</v>
+        <v>0.99989635345201</v>
       </c>
       <c r="T24">
-        <v>0.9999787069104524</v>
+        <v>0.999991045765157</v>
       </c>
       <c r="U24">
-        <v>0.9999428573456604</v>
+        <v>0.9999759734577867</v>
       </c>
       <c r="V24">
-        <v>1.000056478358273</v>
+        <v>1.000023745461253</v>
       </c>
       <c r="W24">
-        <v>0.999949487241953</v>
+        <v>0.9999787615132525</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.000837139764808</v>
+        <v>1.001973980505824</v>
       </c>
       <c r="D25">
-        <v>1.000313923165884</v>
+        <v>1.000740231517839</v>
       </c>
       <c r="E25">
-        <v>0.9987442807092567</v>
+        <v>0.9970390191027829</v>
       </c>
       <c r="F25">
-        <v>0.9987442807092567</v>
+        <v>0.9970390191027829</v>
       </c>
       <c r="G25">
-        <v>0.9997488485650017</v>
+        <v>0.9994078071395275</v>
       </c>
       <c r="H25">
-        <v>0.9991835227910197</v>
+        <v>0.9980747525289257</v>
       </c>
       <c r="I25">
-        <v>1.000313923165884</v>
+        <v>1.000740231517839</v>
       </c>
       <c r="J25">
-        <v>0.9997301780566142</v>
+        <v>0.9993637624963541</v>
       </c>
       <c r="K25">
-        <v>1.000466116765095</v>
+        <v>1.001099091751659</v>
       </c>
       <c r="L25">
-        <v>1.000837139764808</v>
+        <v>1.001973980505824</v>
       </c>
       <c r="M25">
-        <v>1.000837139764808</v>
+        <v>1.001973980505824</v>
       </c>
       <c r="N25">
-        <v>1.000837139764808</v>
+        <v>1.001973980505824</v>
       </c>
       <c r="O25">
-        <v>1.000313923165884</v>
+        <v>1.000740231517839</v>
       </c>
       <c r="P25">
-        <v>0.9995291019375705</v>
+        <v>0.9988896253103111</v>
       </c>
       <c r="Q25">
-        <v>1.000022050611249</v>
+        <v>1.000051997007097</v>
       </c>
       <c r="R25">
-        <v>0.9999651145466496</v>
+        <v>0.9999177437088154</v>
       </c>
       <c r="S25">
-        <v>0.9995961273105851</v>
+        <v>0.9990476710389921</v>
       </c>
       <c r="T25">
-        <v>0.9999651145466496</v>
+        <v>0.9999177437088154</v>
       </c>
       <c r="U25">
-        <v>0.9999063804241408</v>
+        <v>0.9997792484057</v>
       </c>
       <c r="V25">
-        <v>1.000092532292274</v>
+        <v>1.000218194825725</v>
       </c>
       <c r="W25">
-        <v>0.9999172416229455</v>
+        <v>0.999804859570094</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000214833475117</v>
+        <v>1.000510962408722</v>
       </c>
       <c r="D26">
-        <v>1.000080556694701</v>
+        <v>1.000191609808738</v>
       </c>
       <c r="E26">
-        <v>0.9996777471256532</v>
+        <v>0.9992335485138972</v>
       </c>
       <c r="F26">
-        <v>0.9996777471256532</v>
+        <v>0.9992335485138972</v>
       </c>
       <c r="G26">
-        <v>0.9999355521689823</v>
+        <v>0.9998467086274522</v>
       </c>
       <c r="H26">
-        <v>0.999790476102181</v>
+        <v>0.999501654835354</v>
       </c>
       <c r="I26">
-        <v>1.000080556694701</v>
+        <v>1.000191609808738</v>
       </c>
       <c r="J26">
-        <v>0.9999307565356758</v>
+        <v>0.9998353086512839</v>
       </c>
       <c r="K26">
-        <v>1.000119613309008</v>
+        <v>1.000284495281437</v>
       </c>
       <c r="L26">
-        <v>1.000214833475117</v>
+        <v>1.000510962408722</v>
       </c>
       <c r="M26">
-        <v>1.000214833475117</v>
+        <v>1.000510962408722</v>
       </c>
       <c r="N26">
-        <v>1.000214833475117</v>
+        <v>1.000510962408722</v>
       </c>
       <c r="O26">
-        <v>1.000080556694701</v>
+        <v>1.000191609808738</v>
       </c>
       <c r="P26">
-        <v>0.9998791519101771</v>
+        <v>0.9997125791613178</v>
       </c>
       <c r="Q26">
-        <v>1.000005656615188</v>
+        <v>1.000013459230011</v>
       </c>
       <c r="R26">
-        <v>0.999991045765157</v>
+        <v>0.9999787069104524</v>
       </c>
       <c r="S26">
-        <v>0.99989635345201</v>
+        <v>0.9997534889913066</v>
       </c>
       <c r="T26">
-        <v>0.999991045765157</v>
+        <v>0.9999787069104524</v>
       </c>
       <c r="U26">
-        <v>0.9999759734577867</v>
+        <v>0.9999428573456604</v>
       </c>
       <c r="V26">
-        <v>1.000023745461253</v>
+        <v>1.000056478358273</v>
       </c>
       <c r="W26">
-        <v>0.9999787615132523</v>
+        <v>0.999949487241953</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9993607651568207</v>
+        <v>1.000837139764808</v>
       </c>
       <c r="D27">
-        <v>0.9997602810726716</v>
+        <v>1.000313923165884</v>
       </c>
       <c r="E27">
-        <v>1.000958862078786</v>
+        <v>0.9987442807092567</v>
       </c>
       <c r="F27">
-        <v>1.000958862078786</v>
+        <v>0.9987442807092567</v>
       </c>
       <c r="G27">
-        <v>1.000191763533492</v>
+        <v>0.9997488485650017</v>
       </c>
       <c r="H27">
-        <v>1.000623466262156</v>
+        <v>0.9991835227910197</v>
       </c>
       <c r="I27">
-        <v>0.9997602810726716</v>
+        <v>1.000313923165884</v>
       </c>
       <c r="J27">
-        <v>1.00020605222013</v>
+        <v>0.9997301780566142</v>
       </c>
       <c r="K27">
-        <v>0.9996440805692324</v>
+        <v>1.000466116765095</v>
       </c>
       <c r="L27">
-        <v>0.9993607651568207</v>
+        <v>1.000837139764808</v>
       </c>
       <c r="M27">
-        <v>0.9993607651568207</v>
+        <v>1.000837139764808</v>
       </c>
       <c r="N27">
-        <v>0.9993607651568207</v>
+        <v>1.000837139764808</v>
       </c>
       <c r="O27">
-        <v>0.9997602810726716</v>
+        <v>1.000313923165884</v>
       </c>
       <c r="P27">
-        <v>1.000359571575729</v>
+        <v>0.9995291019375705</v>
       </c>
       <c r="Q27">
-        <v>0.9999831666464007</v>
+        <v>1.000022050611249</v>
       </c>
       <c r="R27">
-        <v>1.000026636102759</v>
+        <v>0.9999651145466496</v>
       </c>
       <c r="S27">
-        <v>1.000308398457196</v>
+        <v>0.9995961273105851</v>
       </c>
       <c r="T27">
-        <v>1.000026636102759</v>
+        <v>0.9999651145466496</v>
       </c>
       <c r="U27">
-        <v>1.000071490132102</v>
+        <v>0.9999063804241408</v>
       </c>
       <c r="V27">
-        <v>0.9999293451370457</v>
+        <v>1.000092532292274</v>
       </c>
       <c r="W27">
-        <v>1.000063193995745</v>
+        <v>0.9999172416229455</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9996913660395372</v>
+        <v>1.000214833475117</v>
       </c>
       <c r="D28">
-        <v>0.9998842584803305</v>
+        <v>1.000080556694701</v>
       </c>
       <c r="E28">
-        <v>1.00046294553372</v>
+        <v>0.9996777471256532</v>
       </c>
       <c r="F28">
-        <v>1.00046294553372</v>
+        <v>0.9996777471256532</v>
       </c>
       <c r="G28">
-        <v>1.000092590110123</v>
+        <v>0.9999355521689823</v>
       </c>
       <c r="H28">
-        <v>1.000301022873457</v>
+        <v>0.999790476102181</v>
       </c>
       <c r="I28">
-        <v>0.9998842584803305</v>
+        <v>1.000080556694701</v>
       </c>
       <c r="J28">
-        <v>1.000099484877981</v>
+        <v>0.9999307565356758</v>
       </c>
       <c r="K28">
-        <v>0.9998281590037127</v>
+        <v>1.000119613309008</v>
       </c>
       <c r="L28">
-        <v>0.9996913660395372</v>
+        <v>1.000214833475117</v>
       </c>
       <c r="M28">
-        <v>0.9996913660395372</v>
+        <v>1.000214833475117</v>
       </c>
       <c r="N28">
-        <v>0.9996913660395372</v>
+        <v>1.000214833475117</v>
       </c>
       <c r="O28">
-        <v>0.9998842584803305</v>
+        <v>1.000080556694701</v>
       </c>
       <c r="P28">
-        <v>1.000173602007025</v>
+        <v>0.9998791519101771</v>
       </c>
       <c r="Q28">
-        <v>0.9999918716791558</v>
+        <v>1.000005656615188</v>
       </c>
       <c r="R28">
-        <v>1.000012856684529</v>
+        <v>0.999991045765157</v>
       </c>
       <c r="S28">
-        <v>1.000148896297344</v>
+        <v>0.99989635345201</v>
       </c>
       <c r="T28">
-        <v>1.000012856684529</v>
+        <v>0.999991045765157</v>
       </c>
       <c r="U28">
-        <v>1.000034513732892</v>
+        <v>0.9999759734577867</v>
       </c>
       <c r="V28">
-        <v>0.9999658841942211</v>
+        <v>1.000023745461253</v>
       </c>
       <c r="W28">
-        <v>1.000030510674899</v>
+        <v>0.9999787615132523</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9993607651568207</v>
+      </c>
+      <c r="D29">
+        <v>0.9997602810726716</v>
+      </c>
+      <c r="E29">
+        <v>1.000958862078786</v>
+      </c>
+      <c r="F29">
+        <v>1.000958862078786</v>
+      </c>
+      <c r="G29">
+        <v>1.000191763533492</v>
+      </c>
+      <c r="H29">
+        <v>1.000623466262156</v>
+      </c>
+      <c r="I29">
+        <v>0.9997602810726716</v>
+      </c>
+      <c r="J29">
+        <v>1.00020605222013</v>
+      </c>
+      <c r="K29">
+        <v>0.9996440805692324</v>
+      </c>
+      <c r="L29">
+        <v>0.9993607651568207</v>
+      </c>
+      <c r="M29">
+        <v>0.9993607651568207</v>
+      </c>
+      <c r="N29">
+        <v>0.9993607651568207</v>
+      </c>
+      <c r="O29">
+        <v>0.9997602810726716</v>
+      </c>
+      <c r="P29">
+        <v>1.000359571575729</v>
+      </c>
+      <c r="Q29">
+        <v>0.9999831666464007</v>
+      </c>
+      <c r="R29">
+        <v>1.000026636102759</v>
+      </c>
+      <c r="S29">
+        <v>1.000308398457196</v>
+      </c>
+      <c r="T29">
+        <v>1.000026636102759</v>
+      </c>
+      <c r="U29">
+        <v>1.000071490132102</v>
+      </c>
+      <c r="V29">
+        <v>0.9999293451370457</v>
+      </c>
+      <c r="W29">
+        <v>1.000063193995745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9996913660395372</v>
+      </c>
+      <c r="D30">
+        <v>0.9998842584803305</v>
+      </c>
+      <c r="E30">
+        <v>1.00046294553372</v>
+      </c>
+      <c r="F30">
+        <v>1.00046294553372</v>
+      </c>
+      <c r="G30">
+        <v>1.000092590110123</v>
+      </c>
+      <c r="H30">
+        <v>1.000301022873457</v>
+      </c>
+      <c r="I30">
+        <v>0.9998842584803305</v>
+      </c>
+      <c r="J30">
+        <v>1.000099484877981</v>
+      </c>
+      <c r="K30">
+        <v>0.9998281590037127</v>
+      </c>
+      <c r="L30">
+        <v>0.9996913660395372</v>
+      </c>
+      <c r="M30">
+        <v>0.9996913660395372</v>
+      </c>
+      <c r="N30">
+        <v>0.9996913660395372</v>
+      </c>
+      <c r="O30">
+        <v>0.9998842584803305</v>
+      </c>
+      <c r="P30">
+        <v>1.000173602007025</v>
+      </c>
+      <c r="Q30">
+        <v>0.9999918716791558</v>
+      </c>
+      <c r="R30">
+        <v>1.000012856684529</v>
+      </c>
+      <c r="S30">
+        <v>1.000148896297344</v>
+      </c>
+      <c r="T30">
+        <v>1.000012856684529</v>
+      </c>
+      <c r="U30">
+        <v>1.000034513732892</v>
+      </c>
+      <c r="V30">
+        <v>0.9999658841942211</v>
+      </c>
+      <c r="W30">
+        <v>1.000030510674899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.001649110319751</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.000618414572511</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9975263254883394</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9975263254883394</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9995052748540258</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9983916241450359</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.000618414572511</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9994684781130416</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.00091819871501</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.001649110319751</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.001649110319751</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.001649110319751</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.000618414572511</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9990723700304251</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.000043446342776</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9999312834602004</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9992044060579639</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9999312834602007</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.9998155821234109</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>1.000182287762679</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.9998369800975282</v>
       </c>
     </row>
